--- a/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
+++ b/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE GYM\C0620G1-HoThiQuynhMai\caseStudy1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CODE GYM\C0620G1-HoThiQuynhMai\Module1\caseStudy1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Module1" sheetId="1" r:id="rId1"/>
@@ -208,7 +208,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -510,10 +516,44 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -535,40 +572,15 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -787,7 +799,7 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B16"/>
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -805,50 +817,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="51" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="48"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="49"/>
-    </row>
-    <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="41" t="s">
+      <c r="J2" s="42"/>
+    </row>
+    <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="33">
@@ -868,9 +880,9 @@
       <c r="I3" s="29"/>
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40"/>
-      <c r="B4" s="42"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="33">
         <v>44018</v>
       </c>
@@ -888,9 +900,9 @@
       <c r="I4" s="7"/>
       <c r="J4" s="6"/>
     </row>
-    <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="33">
         <v>44019</v>
       </c>
@@ -908,9 +920,9 @@
       <c r="I5" s="7"/>
       <c r="J5" s="6"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40"/>
-      <c r="B6" s="42"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="33">
         <v>44020</v>
       </c>
@@ -928,9 +940,9 @@
       <c r="I6" s="7"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40"/>
-      <c r="B7" s="42"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="33">
         <v>44022</v>
       </c>
@@ -948,9 +960,9 @@
       <c r="I7" s="7"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40"/>
-      <c r="B8" s="42"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="33">
         <v>44024</v>
       </c>
@@ -968,9 +980,9 @@
       <c r="I8" s="7"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40"/>
-      <c r="B9" s="42"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="33">
         <v>44026</v>
       </c>
@@ -988,9 +1000,9 @@
       <c r="I9" s="7"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
-      <c r="B10" s="42"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="33">
         <v>44028</v>
       </c>
@@ -1008,9 +1020,9 @@
       <c r="I10" s="7"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="33">
         <v>44030</v>
       </c>
@@ -1028,9 +1040,9 @@
       <c r="I11" s="9"/>
       <c r="J11" s="10"/>
     </row>
-    <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="33">
         <v>44032</v>
       </c>
@@ -1048,9 +1060,9 @@
       <c r="I12" s="12"/>
       <c r="J12" s="10"/>
     </row>
-    <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="33">
         <v>44034</v>
       </c>
@@ -1068,9 +1080,9 @@
       <c r="I13" s="12"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
-      <c r="B14" s="42"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="33">
         <v>44036</v>
       </c>
@@ -1088,9 +1100,9 @@
       <c r="I14" s="12"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="33">
         <v>44038</v>
       </c>
@@ -1108,9 +1120,9 @@
       <c r="I15" s="12"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="40"/>
-      <c r="B16" s="43"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="33">
         <v>44040</v>
       </c>
@@ -1128,11 +1140,11 @@
       <c r="I16" s="9"/>
       <c r="J16" s="15"/>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44">
-        <v>2</v>
-      </c>
-      <c r="B17" s="45" t="s">
+    <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="39">
+        <v>2</v>
+      </c>
+      <c r="B17" s="58" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="33">
@@ -1152,9 +1164,9 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
-      <c r="B18" s="46"/>
+      <c r="B18" s="59"/>
       <c r="C18" s="33">
         <v>44018</v>
       </c>
@@ -1172,9 +1184,9 @@
       <c r="I18" s="21"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
-      <c r="B19" s="46"/>
+      <c r="B19" s="59"/>
       <c r="C19" s="33">
         <v>44019</v>
       </c>
@@ -1192,9 +1204,9 @@
       <c r="I19" s="21"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
-      <c r="B20" s="46"/>
+      <c r="B20" s="59"/>
       <c r="C20" s="33">
         <v>44020</v>
       </c>
@@ -1212,9 +1224,9 @@
       <c r="I20" s="21"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
-      <c r="B21" s="46"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="33">
         <v>44022</v>
       </c>
@@ -1232,9 +1244,9 @@
       <c r="I21" s="21"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
-      <c r="B22" s="46"/>
+      <c r="B22" s="59"/>
       <c r="C22" s="33">
         <v>44024</v>
       </c>
@@ -1252,9 +1264,9 @@
       <c r="I22" s="21"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
-      <c r="B23" s="46"/>
+      <c r="B23" s="59"/>
       <c r="C23" s="33">
         <v>44026</v>
       </c>
@@ -1272,9 +1284,9 @@
       <c r="I23" s="21"/>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
-      <c r="B24" s="46"/>
+      <c r="B24" s="59"/>
       <c r="C24" s="33">
         <v>44028</v>
       </c>
@@ -1292,9 +1304,9 @@
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
     </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
-      <c r="B25" s="46"/>
+      <c r="B25" s="59"/>
       <c r="C25" s="33">
         <v>44030</v>
       </c>
@@ -1312,9 +1324,9 @@
       <c r="I25" s="21"/>
       <c r="J25" s="22"/>
     </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
-      <c r="B26" s="46"/>
+      <c r="B26" s="59"/>
       <c r="C26" s="33">
         <v>44032</v>
       </c>
@@ -1332,9 +1344,9 @@
       <c r="I26" s="23"/>
       <c r="J26" s="22"/>
     </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
-      <c r="B27" s="46"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="33">
         <v>44034</v>
       </c>
@@ -1352,9 +1364,9 @@
       <c r="I27" s="23"/>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
-      <c r="B28" s="46"/>
+      <c r="B28" s="59"/>
       <c r="C28" s="33">
         <v>44036</v>
       </c>
@@ -1372,9 +1384,9 @@
       <c r="I28" s="23"/>
       <c r="J28" s="22"/>
     </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
-      <c r="B29" s="46"/>
+      <c r="B29" s="59"/>
       <c r="C29" s="33">
         <v>44038</v>
       </c>
@@ -1392,9 +1404,9 @@
       <c r="I29" s="23"/>
       <c r="J29" s="22"/>
     </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
-      <c r="B30" s="47"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="33">
         <v>44040</v>
       </c>
@@ -1412,11 +1424,11 @@
       <c r="I30" s="24"/>
       <c r="J30" s="22"/>
     </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39">
+    <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48">
         <v>3</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="61" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="33">
@@ -1436,9 +1448,9 @@
       <c r="I31" s="5"/>
       <c r="J31" s="6"/>
     </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
-      <c r="B32" s="42"/>
+      <c r="B32" s="56"/>
       <c r="C32" s="33">
         <v>44018</v>
       </c>
@@ -1456,9 +1468,9 @@
       <c r="I32" s="7"/>
       <c r="J32" s="6"/>
     </row>
-    <row r="33" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
-      <c r="B33" s="42"/>
+      <c r="B33" s="56"/>
       <c r="C33" s="33">
         <v>44019</v>
       </c>
@@ -1476,9 +1488,9 @@
       <c r="I33" s="7"/>
       <c r="J33" s="6"/>
     </row>
-    <row r="34" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
-      <c r="B34" s="42"/>
+      <c r="B34" s="56"/>
       <c r="C34" s="33">
         <v>44020</v>
       </c>
@@ -1496,9 +1508,9 @@
       <c r="I34" s="7"/>
       <c r="J34" s="6"/>
     </row>
-    <row r="35" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
-      <c r="B35" s="42"/>
+      <c r="B35" s="56"/>
       <c r="C35" s="33">
         <v>44022</v>
       </c>
@@ -1516,9 +1528,9 @@
       <c r="I35" s="7"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
-      <c r="B36" s="42"/>
+      <c r="B36" s="56"/>
       <c r="C36" s="33">
         <v>44024</v>
       </c>
@@ -1536,9 +1548,9 @@
       <c r="I36" s="7"/>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
+      <c r="B37" s="56"/>
       <c r="C37" s="33">
         <v>44026</v>
       </c>
@@ -1556,9 +1568,9 @@
       <c r="I37" s="7"/>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
-      <c r="B38" s="42"/>
+      <c r="B38" s="56"/>
       <c r="C38" s="33">
         <v>44028</v>
       </c>
@@ -1576,9 +1588,9 @@
       <c r="I38" s="7"/>
       <c r="J38" s="6"/>
     </row>
-    <row r="39" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
-      <c r="B39" s="42"/>
+      <c r="B39" s="56"/>
       <c r="C39" s="33">
         <v>44030</v>
       </c>
@@ -1596,9 +1608,9 @@
       <c r="I39" s="9"/>
       <c r="J39" s="10"/>
     </row>
-    <row r="40" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
-      <c r="B40" s="42"/>
+      <c r="B40" s="56"/>
       <c r="C40" s="33">
         <v>44032</v>
       </c>
@@ -1616,9 +1628,9 @@
       <c r="I40" s="12"/>
       <c r="J40" s="10"/>
     </row>
-    <row r="41" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
-      <c r="B41" s="42"/>
+      <c r="B41" s="56"/>
       <c r="C41" s="33">
         <v>44034</v>
       </c>
@@ -1636,9 +1648,9 @@
       <c r="I41" s="12"/>
       <c r="J41" s="10"/>
     </row>
-    <row r="42" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
-      <c r="B42" s="42"/>
+      <c r="B42" s="56"/>
       <c r="C42" s="33">
         <v>44036</v>
       </c>
@@ -1656,9 +1668,9 @@
       <c r="I42" s="12"/>
       <c r="J42" s="10"/>
     </row>
-    <row r="43" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
-      <c r="B43" s="42"/>
+      <c r="B43" s="56"/>
       <c r="C43" s="33">
         <v>44038</v>
       </c>
@@ -1676,9 +1688,9 @@
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
     </row>
-    <row r="44" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
-      <c r="B44" s="43"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="33">
         <v>44040</v>
       </c>
@@ -1696,11 +1708,11 @@
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
     </row>
-    <row r="45" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="44">
+    <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="39">
         <v>4</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="41" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="33">
@@ -1720,7 +1732,7 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="40"/>
       <c r="C46" s="33">
@@ -1740,7 +1752,7 @@
       <c r="I46" s="21"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="40"/>
       <c r="C47" s="33">
@@ -1760,7 +1772,7 @@
       <c r="I47" s="21"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="40"/>
       <c r="C48" s="33">
@@ -1780,7 +1792,7 @@
       <c r="I48" s="21"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="40"/>
       <c r="C49" s="33">
@@ -1800,7 +1812,7 @@
       <c r="I49" s="21"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="40"/>
       <c r="C50" s="33">
@@ -1820,7 +1832,7 @@
       <c r="I50" s="21"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="40"/>
       <c r="C51" s="33">
@@ -1840,7 +1852,7 @@
       <c r="I51" s="21"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="40"/>
       <c r="C52" s="33">
@@ -1860,7 +1872,7 @@
       <c r="I52" s="21"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="40"/>
       <c r="C53" s="33">
@@ -1880,7 +1892,7 @@
       <c r="I53" s="21"/>
       <c r="J53" s="22"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="40"/>
       <c r="C54" s="33">
@@ -1900,7 +1912,7 @@
       <c r="I54" s="23"/>
       <c r="J54" s="22"/>
     </row>
-    <row r="55" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="40"/>
       <c r="C55" s="33">
@@ -1920,7 +1932,7 @@
       <c r="I55" s="23"/>
       <c r="J55" s="22"/>
     </row>
-    <row r="56" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="40"/>
       <c r="C56" s="33">
@@ -1940,7 +1952,7 @@
       <c r="I56" s="23"/>
       <c r="J56" s="22"/>
     </row>
-    <row r="57" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="40"/>
       <c r="C57" s="33">
@@ -1960,9 +1972,9 @@
       <c r="I57" s="23"/>
       <c r="J57" s="22"/>
     </row>
-    <row r="58" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
-      <c r="B58" s="49"/>
+      <c r="B58" s="42"/>
       <c r="C58" s="33">
         <v>44040</v>
       </c>
@@ -1980,11 +1992,11 @@
       <c r="I58" s="24"/>
       <c r="J58" s="22"/>
     </row>
-    <row r="59" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="39">
+    <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="48">
         <v>5</v>
       </c>
-      <c r="B59" s="55" t="s">
+      <c r="B59" s="49" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="33">
@@ -2004,7 +2016,7 @@
       <c r="I59" s="5"/>
       <c r="J59" s="6"/>
     </row>
-    <row r="60" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="40"/>
       <c r="C60" s="33">
@@ -2024,7 +2036,7 @@
       <c r="I60" s="7"/>
       <c r="J60" s="6"/>
     </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="40"/>
       <c r="C61" s="33">
@@ -2044,7 +2056,7 @@
       <c r="I61" s="7"/>
       <c r="J61" s="6"/>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="40"/>
       <c r="C62" s="33">
@@ -2064,7 +2076,7 @@
       <c r="I62" s="7"/>
       <c r="J62" s="6"/>
     </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="40"/>
       <c r="C63" s="33">
@@ -2084,7 +2096,7 @@
       <c r="I63" s="7"/>
       <c r="J63" s="6"/>
     </row>
-    <row r="64" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="40"/>
       <c r="C64" s="33">
@@ -2104,7 +2116,7 @@
       <c r="I64" s="7"/>
       <c r="J64" s="6"/>
     </row>
-    <row r="65" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="40"/>
       <c r="C65" s="33">
@@ -2124,7 +2136,7 @@
       <c r="I65" s="7"/>
       <c r="J65" s="6"/>
     </row>
-    <row r="66" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="40"/>
       <c r="C66" s="33">
@@ -2144,7 +2156,7 @@
       <c r="I66" s="7"/>
       <c r="J66" s="6"/>
     </row>
-    <row r="67" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="40"/>
       <c r="C67" s="33">
@@ -2164,7 +2176,7 @@
       <c r="I67" s="7"/>
       <c r="J67" s="6"/>
     </row>
-    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="40"/>
       <c r="C68" s="33">
@@ -2184,7 +2196,7 @@
       <c r="I68" s="12"/>
       <c r="J68" s="6"/>
     </row>
-    <row r="69" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="40"/>
       <c r="C69" s="33">
@@ -2204,7 +2216,7 @@
       <c r="I69" s="12"/>
       <c r="J69" s="6"/>
     </row>
-    <row r="70" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="40"/>
       <c r="C70" s="33">
@@ -2224,7 +2236,7 @@
       <c r="I70" s="12"/>
       <c r="J70" s="6"/>
     </row>
-    <row r="71" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="40"/>
       <c r="C71" s="33">
@@ -2244,9 +2256,9 @@
       <c r="I71" s="12"/>
       <c r="J71" s="6"/>
     </row>
-    <row r="72" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
-      <c r="B72" s="49"/>
+      <c r="B72" s="42"/>
       <c r="C72" s="33">
         <v>44040</v>
       </c>
@@ -2264,11 +2276,11 @@
       <c r="I72" s="9"/>
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44">
+    <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="39">
         <v>6</v>
       </c>
-      <c r="B73" s="54" t="s">
+      <c r="B73" s="41" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="33">
@@ -2288,7 +2300,7 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="40"/>
       <c r="C74" s="33">
@@ -2308,7 +2320,7 @@
       <c r="I74" s="21"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="40"/>
       <c r="C75" s="33">
@@ -2328,7 +2340,7 @@
       <c r="I75" s="21"/>
       <c r="J75" s="20"/>
     </row>
-    <row r="76" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="40"/>
       <c r="C76" s="33">
@@ -2348,7 +2360,7 @@
       <c r="I76" s="21"/>
       <c r="J76" s="20"/>
     </row>
-    <row r="77" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="40"/>
       <c r="C77" s="33">
@@ -2368,7 +2380,7 @@
       <c r="I77" s="21"/>
       <c r="J77" s="20"/>
     </row>
-    <row r="78" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="40"/>
       <c r="C78" s="33">
@@ -2388,7 +2400,7 @@
       <c r="I78" s="21"/>
       <c r="J78" s="20"/>
     </row>
-    <row r="79" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="40"/>
       <c r="C79" s="33">
@@ -2408,7 +2420,7 @@
       <c r="I79" s="21"/>
       <c r="J79" s="22"/>
     </row>
-    <row r="80" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="40"/>
       <c r="C80" s="33">
@@ -2428,7 +2440,7 @@
       <c r="I80" s="21"/>
       <c r="J80" s="22"/>
     </row>
-    <row r="81" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="40"/>
       <c r="C81" s="33">
@@ -2448,7 +2460,7 @@
       <c r="I81" s="21"/>
       <c r="J81" s="22"/>
     </row>
-    <row r="82" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="40"/>
       <c r="C82" s="33">
@@ -2468,7 +2480,7 @@
       <c r="I82" s="23"/>
       <c r="J82" s="22"/>
     </row>
-    <row r="83" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="40"/>
       <c r="C83" s="33">
@@ -2488,7 +2500,7 @@
       <c r="I83" s="23"/>
       <c r="J83" s="22"/>
     </row>
-    <row r="84" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="40"/>
       <c r="C84" s="33">
@@ -2508,7 +2520,7 @@
       <c r="I84" s="23"/>
       <c r="J84" s="22"/>
     </row>
-    <row r="85" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="40"/>
       <c r="C85" s="33">
@@ -2528,9 +2540,9 @@
       <c r="I85" s="23"/>
       <c r="J85" s="22"/>
     </row>
-    <row r="86" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
-      <c r="B86" s="49"/>
+      <c r="B86" s="42"/>
       <c r="C86" s="33">
         <v>44040</v>
       </c>
@@ -2548,11 +2560,11 @@
       <c r="I86" s="24"/>
       <c r="J86" s="22"/>
     </row>
-    <row r="87" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+    <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="48">
         <v>7</v>
       </c>
-      <c r="B87" s="55" t="s">
+      <c r="B87" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="33">
@@ -2572,7 +2584,7 @@
       <c r="I87" s="29"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="40"/>
       <c r="C88" s="33">
@@ -2592,7 +2604,7 @@
       <c r="I88" s="7"/>
       <c r="J88" s="6"/>
     </row>
-    <row r="89" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="40"/>
       <c r="C89" s="33">
@@ -2612,7 +2624,7 @@
       <c r="I89" s="7"/>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="40"/>
       <c r="C90" s="33">
@@ -2632,7 +2644,7 @@
       <c r="I90" s="7"/>
       <c r="J90" s="6"/>
     </row>
-    <row r="91" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="40"/>
       <c r="C91" s="33">
@@ -2652,7 +2664,7 @@
       <c r="I91" s="7"/>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="40"/>
       <c r="C92" s="33">
@@ -2672,7 +2684,7 @@
       <c r="I92" s="7"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="40"/>
       <c r="C93" s="33">
@@ -2692,7 +2704,7 @@
       <c r="I93" s="7"/>
       <c r="J93" s="10"/>
     </row>
-    <row r="94" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="40"/>
       <c r="C94" s="33">
@@ -2712,7 +2724,7 @@
       <c r="I94" s="7"/>
       <c r="J94" s="10"/>
     </row>
-    <row r="95" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="40"/>
       <c r="C95" s="33">
@@ -2732,7 +2744,7 @@
       <c r="I95" s="7"/>
       <c r="J95" s="10"/>
     </row>
-    <row r="96" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="40"/>
       <c r="C96" s="33">
@@ -2752,7 +2764,7 @@
       <c r="I96" s="12"/>
       <c r="J96" s="10"/>
     </row>
-    <row r="97" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="40"/>
       <c r="C97" s="33">
@@ -2772,7 +2784,7 @@
       <c r="I97" s="12"/>
       <c r="J97" s="10"/>
     </row>
-    <row r="98" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="40"/>
       <c r="C98" s="33">
@@ -2792,7 +2804,7 @@
       <c r="I98" s="12"/>
       <c r="J98" s="10"/>
     </row>
-    <row r="99" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="40"/>
       <c r="C99" s="33">
@@ -2812,9 +2824,9 @@
       <c r="I99" s="12"/>
       <c r="J99" s="10"/>
     </row>
-    <row r="100" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
-      <c r="B100" s="49"/>
+      <c r="B100" s="42"/>
       <c r="C100" s="33">
         <v>44040</v>
       </c>
@@ -2833,22 +2845,22 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="44">
+      <c r="A101" s="39">
         <v>8</v>
       </c>
-      <c r="B101" s="54" t="s">
+      <c r="B101" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="33">
-        <v>44018</v>
-      </c>
-      <c r="D101" s="33">
-        <v>44018</v>
-      </c>
-      <c r="E101" s="31">
-        <v>1</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="C101" s="62">
+        <v>44018</v>
+      </c>
+      <c r="D101" s="62">
+        <v>44018</v>
+      </c>
+      <c r="E101" s="63">
+        <v>1</v>
+      </c>
+      <c r="F101" s="64">
         <v>1</v>
       </c>
       <c r="G101" s="17"/>
@@ -2859,16 +2871,16 @@
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="40"/>
-      <c r="C102" s="33">
-        <v>44018</v>
-      </c>
-      <c r="D102" s="33">
-        <v>44018</v>
-      </c>
-      <c r="E102" s="32">
-        <v>1</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="C102" s="62">
+        <v>44018</v>
+      </c>
+      <c r="D102" s="62">
+        <v>44018</v>
+      </c>
+      <c r="E102" s="65">
+        <v>1</v>
+      </c>
+      <c r="F102" s="64">
         <v>2</v>
       </c>
       <c r="G102" s="17"/>
@@ -3098,7 +3110,7 @@
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
-      <c r="B114" s="49"/>
+      <c r="B114" s="42"/>
       <c r="C114" s="33">
         <v>44040</v>
       </c>
@@ -3116,11 +3128,11 @@
       <c r="I114" s="24"/>
       <c r="J114" s="22"/>
     </row>
-    <row r="115" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="39">
+    <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="48">
         <v>9</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="B115" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="33">
@@ -3140,9 +3152,9 @@
       <c r="I115" s="5"/>
       <c r="J115" s="6"/>
     </row>
-    <row r="116" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
-      <c r="B116" s="57"/>
+      <c r="B116" s="46"/>
       <c r="C116" s="33">
         <v>44018</v>
       </c>
@@ -3160,9 +3172,9 @@
       <c r="I116" s="7"/>
       <c r="J116" s="6"/>
     </row>
-    <row r="117" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
-      <c r="B117" s="57"/>
+      <c r="B117" s="46"/>
       <c r="C117" s="33">
         <v>44019</v>
       </c>
@@ -3180,9 +3192,9 @@
       <c r="I117" s="7"/>
       <c r="J117" s="6"/>
     </row>
-    <row r="118" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
-      <c r="B118" s="57"/>
+      <c r="B118" s="46"/>
       <c r="C118" s="33">
         <v>44020</v>
       </c>
@@ -3200,9 +3212,9 @@
       <c r="I118" s="7"/>
       <c r="J118" s="6"/>
     </row>
-    <row r="119" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
-      <c r="B119" s="57"/>
+      <c r="B119" s="46"/>
       <c r="C119" s="33">
         <v>44022</v>
       </c>
@@ -3220,9 +3232,9 @@
       <c r="I119" s="7"/>
       <c r="J119" s="6"/>
     </row>
-    <row r="120" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
-      <c r="B120" s="57"/>
+      <c r="B120" s="46"/>
       <c r="C120" s="33">
         <v>44024</v>
       </c>
@@ -3240,9 +3252,9 @@
       <c r="I120" s="7"/>
       <c r="J120" s="6"/>
     </row>
-    <row r="121" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
-      <c r="B121" s="57"/>
+      <c r="B121" s="46"/>
       <c r="C121" s="33">
         <v>44026</v>
       </c>
@@ -3260,9 +3272,9 @@
       <c r="I121" s="7"/>
       <c r="J121" s="10"/>
     </row>
-    <row r="122" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
-      <c r="B122" s="57"/>
+      <c r="B122" s="46"/>
       <c r="C122" s="33">
         <v>44028</v>
       </c>
@@ -3280,9 +3292,9 @@
       <c r="I122" s="7"/>
       <c r="J122" s="10"/>
     </row>
-    <row r="123" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
-      <c r="B123" s="57"/>
+      <c r="B123" s="46"/>
       <c r="C123" s="33">
         <v>44030</v>
       </c>
@@ -3300,9 +3312,9 @@
       <c r="I123" s="7"/>
       <c r="J123" s="10"/>
     </row>
-    <row r="124" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
-      <c r="B124" s="57"/>
+      <c r="B124" s="46"/>
       <c r="C124" s="33">
         <v>44032</v>
       </c>
@@ -3320,9 +3332,9 @@
       <c r="I124" s="12"/>
       <c r="J124" s="10"/>
     </row>
-    <row r="125" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
-      <c r="B125" s="57"/>
+      <c r="B125" s="46"/>
       <c r="C125" s="33">
         <v>44034</v>
       </c>
@@ -3340,9 +3352,9 @@
       <c r="I125" s="12"/>
       <c r="J125" s="10"/>
     </row>
-    <row r="126" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
-      <c r="B126" s="57"/>
+      <c r="B126" s="46"/>
       <c r="C126" s="33">
         <v>44036</v>
       </c>
@@ -3360,9 +3372,9 @@
       <c r="I126" s="12"/>
       <c r="J126" s="10"/>
     </row>
-    <row r="127" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
-      <c r="B127" s="57"/>
+      <c r="B127" s="46"/>
       <c r="C127" s="33">
         <v>44038</v>
       </c>
@@ -3380,9 +3392,9 @@
       <c r="I127" s="12"/>
       <c r="J127" s="10"/>
     </row>
-    <row r="128" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
-      <c r="B128" s="58"/>
+      <c r="B128" s="47"/>
       <c r="C128" s="33">
         <v>44040</v>
       </c>
@@ -3400,11 +3412,11 @@
       <c r="I128" s="9"/>
       <c r="J128" s="10"/>
     </row>
-    <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="44">
+    <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="39">
         <v>10</v>
       </c>
-      <c r="B129" s="54" t="s">
+      <c r="B129" s="41" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="33">
@@ -3424,7 +3436,7 @@
       <c r="I129" s="19"/>
       <c r="J129" s="20"/>
     </row>
-    <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="40"/>
       <c r="C130" s="33">
@@ -3444,7 +3456,7 @@
       <c r="I130" s="21"/>
       <c r="J130" s="20"/>
     </row>
-    <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="40"/>
       <c r="C131" s="33">
@@ -3464,7 +3476,7 @@
       <c r="I131" s="21"/>
       <c r="J131" s="20"/>
     </row>
-    <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="40"/>
       <c r="C132" s="33">
@@ -3484,7 +3496,7 @@
       <c r="I132" s="21"/>
       <c r="J132" s="20"/>
     </row>
-    <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="40"/>
       <c r="C133" s="33">
@@ -3504,7 +3516,7 @@
       <c r="I133" s="21"/>
       <c r="J133" s="20"/>
     </row>
-    <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="40"/>
       <c r="C134" s="33">
@@ -3524,7 +3536,7 @@
       <c r="I134" s="21"/>
       <c r="J134" s="20"/>
     </row>
-    <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="40"/>
       <c r="C135" s="33">
@@ -3544,7 +3556,7 @@
       <c r="I135" s="21"/>
       <c r="J135" s="22"/>
     </row>
-    <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="40"/>
       <c r="C136" s="33">
@@ -3564,7 +3576,7 @@
       <c r="I136" s="21"/>
       <c r="J136" s="22"/>
     </row>
-    <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="40"/>
       <c r="C137" s="33">
@@ -3584,7 +3596,7 @@
       <c r="I137" s="21"/>
       <c r="J137" s="22"/>
     </row>
-    <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="40"/>
       <c r="C138" s="33">
@@ -3604,7 +3616,7 @@
       <c r="I138" s="23"/>
       <c r="J138" s="22"/>
     </row>
-    <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="40"/>
       <c r="C139" s="33">
@@ -3624,7 +3636,7 @@
       <c r="I139" s="23"/>
       <c r="J139" s="22"/>
     </row>
-    <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="40"/>
       <c r="C140" s="33">
@@ -3644,7 +3656,7 @@
       <c r="I140" s="23"/>
       <c r="J140" s="22"/>
     </row>
-    <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="40"/>
       <c r="C141" s="33">
@@ -3664,9 +3676,9 @@
       <c r="I141" s="23"/>
       <c r="J141" s="22"/>
     </row>
-    <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
-      <c r="B142" s="49"/>
+      <c r="B142" s="42"/>
       <c r="C142" s="33">
         <v>44040</v>
       </c>
@@ -3684,11 +3696,11 @@
       <c r="I142" s="24"/>
       <c r="J142" s="22"/>
     </row>
-    <row r="143" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="39">
+    <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="48">
         <v>11</v>
       </c>
-      <c r="B143" s="55" t="s">
+      <c r="B143" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="33">
@@ -3707,7 +3719,7 @@
       <c r="H143" s="4"/>
       <c r="I143" s="5"/>
     </row>
-    <row r="144" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="40"/>
       <c r="C144" s="33">
@@ -3726,7 +3738,7 @@
       <c r="H144" s="4"/>
       <c r="I144" s="7"/>
     </row>
-    <row r="145" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="40"/>
       <c r="C145" s="33">
@@ -3745,7 +3757,7 @@
       <c r="H145" s="4"/>
       <c r="I145" s="7"/>
     </row>
-    <row r="146" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="40"/>
       <c r="C146" s="33">
@@ -3764,7 +3776,7 @@
       <c r="H146" s="4"/>
       <c r="I146" s="7"/>
     </row>
-    <row r="147" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="40"/>
       <c r="C147" s="33">
@@ -3783,7 +3795,7 @@
       <c r="H147" s="4"/>
       <c r="I147" s="7"/>
     </row>
-    <row r="148" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="40"/>
       <c r="C148" s="33">
@@ -3802,7 +3814,7 @@
       <c r="H148" s="4"/>
       <c r="I148" s="7"/>
     </row>
-    <row r="149" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="40"/>
       <c r="C149" s="33">
@@ -3821,7 +3833,7 @@
       <c r="H149" s="4"/>
       <c r="I149" s="7"/>
     </row>
-    <row r="150" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="40"/>
       <c r="C150" s="33">
@@ -3840,7 +3852,7 @@
       <c r="H150" s="4"/>
       <c r="I150" s="7"/>
     </row>
-    <row r="151" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="40"/>
       <c r="C151" s="33">
@@ -3859,7 +3871,7 @@
       <c r="H151" s="4"/>
       <c r="I151" s="7"/>
     </row>
-    <row r="152" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="40"/>
       <c r="C152" s="33">
@@ -3878,7 +3890,7 @@
       <c r="H152" s="7"/>
       <c r="I152" s="12"/>
     </row>
-    <row r="153" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="40"/>
       <c r="C153" s="33">
@@ -3897,7 +3909,7 @@
       <c r="H153" s="7"/>
       <c r="I153" s="12"/>
     </row>
-    <row r="154" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="40"/>
       <c r="C154" s="33">
@@ -3916,7 +3928,7 @@
       <c r="H154" s="7"/>
       <c r="I154" s="12"/>
     </row>
-    <row r="155" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="40"/>
       <c r="C155" s="33">
@@ -3935,9 +3947,9 @@
       <c r="H155" s="7"/>
       <c r="I155" s="12"/>
     </row>
-    <row r="156" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
-      <c r="B156" s="49"/>
+      <c r="B156" s="42"/>
       <c r="C156" s="33">
         <v>44040</v>
       </c>
@@ -3954,11 +3966,11 @@
       <c r="H156" s="7"/>
       <c r="I156" s="9"/>
     </row>
-    <row r="157" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="44">
+    <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="39">
         <v>12</v>
       </c>
-      <c r="B157" s="54" t="s">
+      <c r="B157" s="41" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="33">
@@ -3978,7 +3990,7 @@
       <c r="I157" s="19"/>
       <c r="J157" s="20"/>
     </row>
-    <row r="158" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="40"/>
       <c r="C158" s="33">
@@ -3998,7 +4010,7 @@
       <c r="I158" s="21"/>
       <c r="J158" s="20"/>
     </row>
-    <row r="159" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="40"/>
       <c r="C159" s="33">
@@ -4018,7 +4030,7 @@
       <c r="I159" s="21"/>
       <c r="J159" s="20"/>
     </row>
-    <row r="160" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="40"/>
       <c r="C160" s="33">
@@ -4038,7 +4050,7 @@
       <c r="I160" s="21"/>
       <c r="J160" s="20"/>
     </row>
-    <row r="161" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="40"/>
       <c r="C161" s="33">
@@ -4058,7 +4070,7 @@
       <c r="I161" s="21"/>
       <c r="J161" s="20"/>
     </row>
-    <row r="162" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="40"/>
       <c r="C162" s="33">
@@ -4078,7 +4090,7 @@
       <c r="I162" s="21"/>
       <c r="J162" s="20"/>
     </row>
-    <row r="163" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="40"/>
       <c r="C163" s="33">
@@ -4098,7 +4110,7 @@
       <c r="I163" s="21"/>
       <c r="J163" s="22"/>
     </row>
-    <row r="164" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="40"/>
       <c r="C164" s="33">
@@ -4118,7 +4130,7 @@
       <c r="I164" s="21"/>
       <c r="J164" s="22"/>
     </row>
-    <row r="165" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="40"/>
       <c r="C165" s="33">
@@ -4138,7 +4150,7 @@
       <c r="I165" s="21"/>
       <c r="J165" s="22"/>
     </row>
-    <row r="166" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="40"/>
       <c r="C166" s="33">
@@ -4158,7 +4170,7 @@
       <c r="I166" s="23"/>
       <c r="J166" s="22"/>
     </row>
-    <row r="167" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="40"/>
       <c r="C167" s="33">
@@ -4178,7 +4190,7 @@
       <c r="I167" s="23"/>
       <c r="J167" s="22"/>
     </row>
-    <row r="168" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="40"/>
       <c r="C168" s="33">
@@ -4198,7 +4210,7 @@
       <c r="I168" s="23"/>
       <c r="J168" s="22"/>
     </row>
-    <row r="169" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="40"/>
       <c r="C169" s="33">
@@ -4218,9 +4230,9 @@
       <c r="I169" s="23"/>
       <c r="J169" s="22"/>
     </row>
-    <row r="170" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
-      <c r="B170" s="49"/>
+      <c r="B170" s="42"/>
       <c r="C170" s="33">
         <v>44040</v>
       </c>
@@ -4238,11 +4250,11 @@
       <c r="I170" s="24"/>
       <c r="J170" s="22"/>
     </row>
-    <row r="171" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="39">
+    <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="48">
         <v>13</v>
       </c>
-      <c r="B171" s="55" t="s">
+      <c r="B171" s="49" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33">
@@ -4261,7 +4273,7 @@
       <c r="H171" s="4"/>
       <c r="I171" s="5"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="40"/>
       <c r="C172" s="33">
@@ -4280,7 +4292,7 @@
       <c r="H172" s="4"/>
       <c r="I172" s="7"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="40"/>
       <c r="C173" s="33">
@@ -4299,7 +4311,7 @@
       <c r="H173" s="4"/>
       <c r="I173" s="7"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="40"/>
       <c r="C174" s="33">
@@ -4318,7 +4330,7 @@
       <c r="H174" s="4"/>
       <c r="I174" s="7"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="40"/>
       <c r="C175" s="33">
@@ -4337,7 +4349,7 @@
       <c r="H175" s="4"/>
       <c r="I175" s="7"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="40"/>
       <c r="C176" s="33">
@@ -4356,7 +4368,7 @@
       <c r="H176" s="4"/>
       <c r="I176" s="7"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="40"/>
       <c r="C177" s="33">
@@ -4375,7 +4387,7 @@
       <c r="H177" s="4"/>
       <c r="I177" s="7"/>
     </row>
-    <row r="178" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="40"/>
       <c r="C178" s="33">
@@ -4394,7 +4406,7 @@
       <c r="H178" s="7"/>
       <c r="I178" s="7"/>
     </row>
-    <row r="179" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="40"/>
       <c r="C179" s="33">
@@ -4413,7 +4425,7 @@
       <c r="H179" s="7"/>
       <c r="I179" s="9"/>
     </row>
-    <row r="180" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="40"/>
       <c r="C180" s="33">
@@ -4432,7 +4444,7 @@
       <c r="H180" s="7"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="40"/>
       <c r="C181" s="33">
@@ -4451,7 +4463,7 @@
       <c r="H181" s="7"/>
       <c r="I181" s="12"/>
     </row>
-    <row r="182" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="40"/>
       <c r="C182" s="33">
@@ -4470,7 +4482,7 @@
       <c r="H182" s="7"/>
       <c r="I182" s="12"/>
     </row>
-    <row r="183" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="40"/>
       <c r="C183" s="33">
@@ -4489,9 +4501,9 @@
       <c r="H183" s="7"/>
       <c r="I183" s="12"/>
     </row>
-    <row r="184" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
-      <c r="B184" s="49"/>
+      <c r="B184" s="42"/>
       <c r="C184" s="33">
         <v>44040</v>
       </c>
@@ -4508,11 +4520,11 @@
       <c r="H184" s="7"/>
       <c r="I184" s="12"/>
     </row>
-    <row r="185" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="44">
+    <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="39">
         <v>14</v>
       </c>
-      <c r="B185" s="54" t="s">
+      <c r="B185" s="41" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="33">
@@ -4532,7 +4544,7 @@
       <c r="I185" s="19"/>
       <c r="J185" s="20"/>
     </row>
-    <row r="186" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="40"/>
       <c r="C186" s="33">
@@ -4552,7 +4564,7 @@
       <c r="I186" s="21"/>
       <c r="J186" s="20"/>
     </row>
-    <row r="187" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="40"/>
       <c r="C187" s="33">
@@ -4572,7 +4584,7 @@
       <c r="I187" s="21"/>
       <c r="J187" s="20"/>
     </row>
-    <row r="188" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="40"/>
       <c r="C188" s="33">
@@ -4592,7 +4604,7 @@
       <c r="I188" s="21"/>
       <c r="J188" s="20"/>
     </row>
-    <row r="189" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="40"/>
       <c r="C189" s="33">
@@ -4612,7 +4624,7 @@
       <c r="I189" s="21"/>
       <c r="J189" s="20"/>
     </row>
-    <row r="190" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="40"/>
       <c r="C190" s="33">
@@ -4632,7 +4644,7 @@
       <c r="I190" s="21"/>
       <c r="J190" s="20"/>
     </row>
-    <row r="191" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="40"/>
       <c r="C191" s="33">
@@ -4652,7 +4664,7 @@
       <c r="I191" s="21"/>
       <c r="J191" s="22"/>
     </row>
-    <row r="192" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="40"/>
       <c r="C192" s="33">
@@ -4672,7 +4684,7 @@
       <c r="I192" s="21"/>
       <c r="J192" s="22"/>
     </row>
-    <row r="193" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="40"/>
       <c r="C193" s="33">
@@ -4692,7 +4704,7 @@
       <c r="I193" s="21"/>
       <c r="J193" s="22"/>
     </row>
-    <row r="194" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="40"/>
       <c r="C194" s="33">
@@ -4712,7 +4724,7 @@
       <c r="I194" s="23"/>
       <c r="J194" s="22"/>
     </row>
-    <row r="195" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="40"/>
       <c r="C195" s="33">
@@ -4732,7 +4744,7 @@
       <c r="I195" s="23"/>
       <c r="J195" s="22"/>
     </row>
-    <row r="196" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="40"/>
       <c r="C196" s="33">
@@ -4752,7 +4764,7 @@
       <c r="I196" s="23"/>
       <c r="J196" s="22"/>
     </row>
-    <row r="197" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="40"/>
       <c r="C197" s="33">
@@ -4772,9 +4784,9 @@
       <c r="I197" s="23"/>
       <c r="J197" s="22"/>
     </row>
-    <row r="198" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
-      <c r="B198" s="49"/>
+      <c r="B198" s="42"/>
       <c r="C198" s="33">
         <v>44040</v>
       </c>
@@ -4792,11 +4804,11 @@
       <c r="I198" s="24"/>
       <c r="J198" s="22"/>
     </row>
-    <row r="199" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="39">
+    <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="48">
         <v>15</v>
       </c>
-      <c r="B199" s="55" t="s">
+      <c r="B199" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="33">
@@ -4815,7 +4827,7 @@
       <c r="H199" s="7"/>
       <c r="I199" s="29"/>
     </row>
-    <row r="200" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="40"/>
       <c r="C200" s="33">
@@ -4834,7 +4846,7 @@
       <c r="H200" s="7"/>
       <c r="I200" s="7"/>
     </row>
-    <row r="201" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="40"/>
       <c r="C201" s="33">
@@ -4853,7 +4865,7 @@
       <c r="H201" s="7"/>
       <c r="I201" s="7"/>
     </row>
-    <row r="202" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="40"/>
       <c r="C202" s="33">
@@ -4872,7 +4884,7 @@
       <c r="H202" s="7"/>
       <c r="I202" s="7"/>
     </row>
-    <row r="203" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="40"/>
       <c r="C203" s="33">
@@ -4891,7 +4903,7 @@
       <c r="H203" s="7"/>
       <c r="I203" s="7"/>
     </row>
-    <row r="204" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="40"/>
       <c r="C204" s="33">
@@ -4910,7 +4922,7 @@
       <c r="H204" s="7"/>
       <c r="I204" s="7"/>
     </row>
-    <row r="205" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="40"/>
       <c r="C205" s="33">
@@ -4929,7 +4941,7 @@
       <c r="H205" s="7"/>
       <c r="I205" s="7"/>
     </row>
-    <row r="206" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="40"/>
       <c r="C206" s="33">
@@ -4948,7 +4960,7 @@
       <c r="H206" s="7"/>
       <c r="I206" s="7"/>
     </row>
-    <row r="207" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="40"/>
       <c r="C207" s="33">
@@ -4967,7 +4979,7 @@
       <c r="H207" s="7"/>
       <c r="I207" s="9"/>
     </row>
-    <row r="208" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="40"/>
       <c r="C208" s="33">
@@ -4986,7 +4998,7 @@
       <c r="H208" s="7"/>
       <c r="I208" s="12"/>
     </row>
-    <row r="209" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="40"/>
       <c r="C209" s="33">
@@ -5005,7 +5017,7 @@
       <c r="H209" s="7"/>
       <c r="I209" s="12"/>
     </row>
-    <row r="210" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="40"/>
       <c r="C210" s="33">
@@ -5024,7 +5036,7 @@
       <c r="H210" s="7"/>
       <c r="I210" s="12"/>
     </row>
-    <row r="211" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="40"/>
       <c r="C211" s="33">
@@ -5043,9 +5055,9 @@
       <c r="H211" s="7"/>
       <c r="I211" s="12"/>
     </row>
-    <row r="212" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
-      <c r="B212" s="49"/>
+      <c r="B212" s="42"/>
       <c r="C212" s="33">
         <v>44040</v>
       </c>
@@ -5062,11 +5074,11 @@
       <c r="H212" s="7"/>
       <c r="I212" s="12"/>
     </row>
-    <row r="213" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="44">
+    <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="39">
         <v>16</v>
       </c>
-      <c r="B213" s="54" t="s">
+      <c r="B213" s="41" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="33">
@@ -5086,7 +5098,7 @@
       <c r="I213" s="19"/>
       <c r="J213" s="20"/>
     </row>
-    <row r="214" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="40"/>
       <c r="C214" s="33">
@@ -5106,7 +5118,7 @@
       <c r="I214" s="21"/>
       <c r="J214" s="20"/>
     </row>
-    <row r="215" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="40"/>
       <c r="C215" s="33">
@@ -5126,7 +5138,7 @@
       <c r="I215" s="21"/>
       <c r="J215" s="20"/>
     </row>
-    <row r="216" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="40"/>
       <c r="C216" s="33">
@@ -5146,7 +5158,7 @@
       <c r="I216" s="21"/>
       <c r="J216" s="20"/>
     </row>
-    <row r="217" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="40"/>
       <c r="C217" s="33">
@@ -5166,7 +5178,7 @@
       <c r="I217" s="21"/>
       <c r="J217" s="20"/>
     </row>
-    <row r="218" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="40"/>
       <c r="C218" s="33">
@@ -5186,7 +5198,7 @@
       <c r="I218" s="21"/>
       <c r="J218" s="20"/>
     </row>
-    <row r="219" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="40"/>
       <c r="C219" s="33">
@@ -5206,7 +5218,7 @@
       <c r="I219" s="21"/>
       <c r="J219" s="22"/>
     </row>
-    <row r="220" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="40"/>
       <c r="C220" s="33">
@@ -5226,7 +5238,7 @@
       <c r="I220" s="21"/>
       <c r="J220" s="22"/>
     </row>
-    <row r="221" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="40"/>
       <c r="C221" s="33">
@@ -5246,7 +5258,7 @@
       <c r="I221" s="21"/>
       <c r="J221" s="22"/>
     </row>
-    <row r="222" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="40"/>
       <c r="C222" s="33">
@@ -5266,7 +5278,7 @@
       <c r="I222" s="23"/>
       <c r="J222" s="22"/>
     </row>
-    <row r="223" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="40"/>
       <c r="C223" s="33">
@@ -5286,7 +5298,7 @@
       <c r="I223" s="23"/>
       <c r="J223" s="22"/>
     </row>
-    <row r="224" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="40"/>
       <c r="C224" s="33">
@@ -5306,7 +5318,7 @@
       <c r="I224" s="23"/>
       <c r="J224" s="22"/>
     </row>
-    <row r="225" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="40"/>
       <c r="C225" s="33">
@@ -5326,9 +5338,9 @@
       <c r="I225" s="23"/>
       <c r="J225" s="22"/>
     </row>
-    <row r="226" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
-      <c r="B226" s="49"/>
+      <c r="B226" s="42"/>
       <c r="C226" s="33">
         <v>44040</v>
       </c>
@@ -5346,11 +5358,11 @@
       <c r="I226" s="24"/>
       <c r="J226" s="22"/>
     </row>
-    <row r="227" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="39">
+    <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="48">
         <v>17</v>
       </c>
-      <c r="B227" s="55" t="s">
+      <c r="B227" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="33">
@@ -5369,7 +5381,7 @@
       <c r="H227" s="7"/>
       <c r="I227" s="29"/>
     </row>
-    <row r="228" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="40"/>
       <c r="C228" s="33">
@@ -5388,7 +5400,7 @@
       <c r="H228" s="7"/>
       <c r="I228" s="7"/>
     </row>
-    <row r="229" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="40"/>
       <c r="C229" s="33">
@@ -5407,7 +5419,7 @@
       <c r="H229" s="7"/>
       <c r="I229" s="7"/>
     </row>
-    <row r="230" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="40"/>
       <c r="C230" s="33">
@@ -5426,7 +5438,7 @@
       <c r="H230" s="7"/>
       <c r="I230" s="7"/>
     </row>
-    <row r="231" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="40"/>
       <c r="C231" s="33">
@@ -5445,7 +5457,7 @@
       <c r="H231" s="7"/>
       <c r="I231" s="7"/>
     </row>
-    <row r="232" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="40"/>
       <c r="C232" s="33">
@@ -5464,7 +5476,7 @@
       <c r="H232" s="7"/>
       <c r="I232" s="7"/>
     </row>
-    <row r="233" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="40"/>
       <c r="C233" s="33">
@@ -5483,7 +5495,7 @@
       <c r="H233" s="7"/>
       <c r="I233" s="7"/>
     </row>
-    <row r="234" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="40"/>
       <c r="C234" s="33">
@@ -5502,7 +5514,7 @@
       <c r="H234" s="7"/>
       <c r="I234" s="7"/>
     </row>
-    <row r="235" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="40"/>
       <c r="C235" s="33">
@@ -5521,7 +5533,7 @@
       <c r="H235" s="7"/>
       <c r="I235" s="9"/>
     </row>
-    <row r="236" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="40"/>
       <c r="C236" s="33">
@@ -5540,7 +5552,7 @@
       <c r="H236" s="7"/>
       <c r="I236" s="12"/>
     </row>
-    <row r="237" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="40"/>
       <c r="C237" s="33">
@@ -5559,7 +5571,7 @@
       <c r="H237" s="7"/>
       <c r="I237" s="12"/>
     </row>
-    <row r="238" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="40"/>
       <c r="C238" s="33">
@@ -5578,7 +5590,7 @@
       <c r="H238" s="7"/>
       <c r="I238" s="12"/>
     </row>
-    <row r="239" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="40"/>
       <c r="C239" s="33">
@@ -5597,9 +5609,9 @@
       <c r="H239" s="7"/>
       <c r="I239" s="12"/>
     </row>
-    <row r="240" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
-      <c r="B240" s="49"/>
+      <c r="B240" s="42"/>
       <c r="C240" s="33">
         <v>44040</v>
       </c>
@@ -5616,11 +5628,11 @@
       <c r="H240" s="7"/>
       <c r="I240" s="12"/>
     </row>
-    <row r="241" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="44">
+    <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="39">
         <v>18</v>
       </c>
-      <c r="B241" s="54" t="s">
+      <c r="B241" s="41" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="33">
@@ -5640,7 +5652,7 @@
       <c r="I241" s="19"/>
       <c r="J241" s="20"/>
     </row>
-    <row r="242" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="40"/>
       <c r="C242" s="33">
@@ -5660,7 +5672,7 @@
       <c r="I242" s="21"/>
       <c r="J242" s="20"/>
     </row>
-    <row r="243" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="40"/>
       <c r="C243" s="33">
@@ -5680,7 +5692,7 @@
       <c r="I243" s="21"/>
       <c r="J243" s="20"/>
     </row>
-    <row r="244" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="40"/>
       <c r="C244" s="33">
@@ -5700,7 +5712,7 @@
       <c r="I244" s="21"/>
       <c r="J244" s="20"/>
     </row>
-    <row r="245" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="40"/>
       <c r="C245" s="33">
@@ -5720,7 +5732,7 @@
       <c r="I245" s="21"/>
       <c r="J245" s="20"/>
     </row>
-    <row r="246" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="40"/>
       <c r="C246" s="33">
@@ -5740,7 +5752,7 @@
       <c r="I246" s="21"/>
       <c r="J246" s="20"/>
     </row>
-    <row r="247" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="40"/>
       <c r="C247" s="33">
@@ -5760,7 +5772,7 @@
       <c r="I247" s="21"/>
       <c r="J247" s="22"/>
     </row>
-    <row r="248" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="40"/>
       <c r="C248" s="33">
@@ -5780,7 +5792,7 @@
       <c r="I248" s="21"/>
       <c r="J248" s="22"/>
     </row>
-    <row r="249" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="40"/>
       <c r="B249" s="40"/>
       <c r="C249" s="33">
@@ -5800,7 +5812,7 @@
       <c r="I249" s="21"/>
       <c r="J249" s="22"/>
     </row>
-    <row r="250" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="40"/>
       <c r="C250" s="33">
@@ -5820,7 +5832,7 @@
       <c r="I250" s="23"/>
       <c r="J250" s="22"/>
     </row>
-    <row r="251" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="40"/>
       <c r="B251" s="40"/>
       <c r="C251" s="33">
@@ -5840,7 +5852,7 @@
       <c r="I251" s="23"/>
       <c r="J251" s="22"/>
     </row>
-    <row r="252" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="40"/>
       <c r="C252" s="33">
@@ -5860,7 +5872,7 @@
       <c r="I252" s="23"/>
       <c r="J252" s="22"/>
     </row>
-    <row r="253" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="40"/>
       <c r="C253" s="33">
@@ -5880,9 +5892,9 @@
       <c r="I253" s="23"/>
       <c r="J253" s="22"/>
     </row>
-    <row r="254" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
-      <c r="B254" s="49"/>
+      <c r="B254" s="42"/>
       <c r="C254" s="33">
         <v>44040</v>
       </c>
@@ -5900,11 +5912,11 @@
       <c r="I254" s="24"/>
       <c r="J254" s="22"/>
     </row>
-    <row r="255" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="59">
+    <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="43">
         <v>19</v>
       </c>
-      <c r="B255" s="61" t="s">
+      <c r="B255" s="45" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="33">
@@ -5923,9 +5935,9 @@
       <c r="H255" s="7"/>
       <c r="I255" s="29"/>
     </row>
-    <row r="256" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="60"/>
-      <c r="B256" s="57"/>
+    <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="44"/>
+      <c r="B256" s="46"/>
       <c r="C256" s="33">
         <v>44018</v>
       </c>
@@ -5942,9 +5954,9 @@
       <c r="H256" s="7"/>
       <c r="I256" s="7"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="60"/>
-      <c r="B257" s="57"/>
+    <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="44"/>
+      <c r="B257" s="46"/>
       <c r="C257" s="33">
         <v>44019</v>
       </c>
@@ -5961,9 +5973,9 @@
       <c r="H257" s="7"/>
       <c r="I257" s="7"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="60"/>
-      <c r="B258" s="57"/>
+    <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="44"/>
+      <c r="B258" s="46"/>
       <c r="C258" s="33">
         <v>44020</v>
       </c>
@@ -5980,9 +5992,9 @@
       <c r="H258" s="7"/>
       <c r="I258" s="7"/>
     </row>
-    <row r="259" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="60"/>
-      <c r="B259" s="57"/>
+    <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="44"/>
+      <c r="B259" s="46"/>
       <c r="C259" s="33">
         <v>44022</v>
       </c>
@@ -5999,9 +6011,9 @@
       <c r="H259" s="7"/>
       <c r="I259" s="7"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="60"/>
-      <c r="B260" s="57"/>
+    <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="44"/>
+      <c r="B260" s="46"/>
       <c r="C260" s="33">
         <v>44024</v>
       </c>
@@ -6018,9 +6030,9 @@
       <c r="H260" s="7"/>
       <c r="I260" s="7"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="60"/>
-      <c r="B261" s="57"/>
+    <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="44"/>
+      <c r="B261" s="46"/>
       <c r="C261" s="33">
         <v>44026</v>
       </c>
@@ -6037,9 +6049,9 @@
       <c r="H261" s="7"/>
       <c r="I261" s="7"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="60"/>
-      <c r="B262" s="57"/>
+    <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="44"/>
+      <c r="B262" s="46"/>
       <c r="C262" s="33">
         <v>44028</v>
       </c>
@@ -6056,9 +6068,9 @@
       <c r="H262" s="7"/>
       <c r="I262" s="7"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="60"/>
-      <c r="B263" s="57"/>
+    <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="44"/>
+      <c r="B263" s="46"/>
       <c r="C263" s="33">
         <v>44030</v>
       </c>
@@ -6075,9 +6087,9 @@
       <c r="H263" s="7"/>
       <c r="I263" s="9"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="60"/>
-      <c r="B264" s="57"/>
+    <row r="264" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="44"/>
+      <c r="B264" s="46"/>
       <c r="C264" s="33">
         <v>44032</v>
       </c>
@@ -6094,9 +6106,9 @@
       <c r="H264" s="7"/>
       <c r="I264" s="12"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="60"/>
-      <c r="B265" s="57"/>
+    <row r="265" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="44"/>
+      <c r="B265" s="46"/>
       <c r="C265" s="33">
         <v>44034</v>
       </c>
@@ -6113,9 +6125,9 @@
       <c r="H265" s="7"/>
       <c r="I265" s="12"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="60"/>
-      <c r="B266" s="57"/>
+    <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="44"/>
+      <c r="B266" s="46"/>
       <c r="C266" s="33">
         <v>44036</v>
       </c>
@@ -6132,9 +6144,9 @@
       <c r="H266" s="7"/>
       <c r="I266" s="12"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="60"/>
-      <c r="B267" s="57"/>
+    <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="44"/>
+      <c r="B267" s="46"/>
       <c r="C267" s="33">
         <v>44038</v>
       </c>
@@ -6151,9 +6163,9 @@
       <c r="H267" s="7"/>
       <c r="I267" s="12"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="60"/>
-      <c r="B268" s="58"/>
+    <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="44"/>
+      <c r="B268" s="47"/>
       <c r="C268" s="33">
         <v>44040</v>
       </c>
@@ -6443,6 +6455,43 @@
     <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
     <mergeCell ref="A241:A254"/>
     <mergeCell ref="B241:B254"/>
     <mergeCell ref="A255:A268"/>
@@ -6453,43 +6502,6 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="A227:A240"/>
     <mergeCell ref="B227:B240"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
+++ b/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
@@ -516,44 +516,16 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -562,6 +534,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -575,12 +550,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +799,7 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,50 +817,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="52" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="B1" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="54" t="s">
+      <c r="G1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="51" t="s">
+      <c r="H1" s="53" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="51"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="42"/>
+      <c r="J2" s="54"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
-        <v>1</v>
-      </c>
-      <c r="B3" s="55" t="s">
+      <c r="A3" s="43">
+        <v>1</v>
+      </c>
+      <c r="B3" s="45" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="33">
@@ -881,8 +881,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="40"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="33">
         <v>44018</v>
       </c>
@@ -901,8 +901,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="56"/>
+      <c r="A5" s="44"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="33">
         <v>44019</v>
       </c>
@@ -921,8 +921,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="33">
         <v>44020</v>
       </c>
@@ -941,8 +941,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
-      <c r="B7" s="56"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="33">
         <v>44022</v>
       </c>
@@ -961,8 +961,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="56"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="33">
         <v>44024</v>
       </c>
@@ -981,8 +981,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40"/>
-      <c r="B9" s="56"/>
+      <c r="A9" s="44"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="33">
         <v>44026</v>
       </c>
@@ -1001,8 +1001,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="56"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="33">
         <v>44028</v>
       </c>
@@ -1021,8 +1021,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="40"/>
-      <c r="B11" s="56"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="33">
         <v>44030</v>
       </c>
@@ -1041,8 +1041,8 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="56"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="33">
         <v>44032</v>
       </c>
@@ -1061,8 +1061,8 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="56"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="33">
         <v>44034</v>
       </c>
@@ -1081,8 +1081,8 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="40"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="33">
         <v>44036</v>
       </c>
@@ -1101,8 +1101,8 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="40"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="33">
         <v>44038</v>
       </c>
@@ -1121,8 +1121,8 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="33">
         <v>44040</v>
       </c>
@@ -1141,10 +1141,10 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39">
-        <v>2</v>
-      </c>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="48">
+        <v>2</v>
+      </c>
+      <c r="B17" s="49" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="33">
@@ -1165,8 +1165,8 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="40"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="33">
         <v>44018</v>
       </c>
@@ -1185,8 +1185,8 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="40"/>
-      <c r="B19" s="59"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="50"/>
       <c r="C19" s="33">
         <v>44019</v>
       </c>
@@ -1205,8 +1205,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="40"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="50"/>
       <c r="C20" s="33">
         <v>44020</v>
       </c>
@@ -1225,8 +1225,8 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="40"/>
-      <c r="B21" s="59"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="50"/>
       <c r="C21" s="33">
         <v>44022</v>
       </c>
@@ -1245,8 +1245,8 @@
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="33">
         <v>44024</v>
       </c>
@@ -1265,8 +1265,8 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="33">
         <v>44026</v>
       </c>
@@ -1285,8 +1285,8 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40"/>
-      <c r="B24" s="59"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="33">
         <v>44028</v>
       </c>
@@ -1305,8 +1305,8 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="40"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="44"/>
+      <c r="B25" s="50"/>
       <c r="C25" s="33">
         <v>44030</v>
       </c>
@@ -1325,8 +1325,8 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="50"/>
       <c r="C26" s="33">
         <v>44032</v>
       </c>
@@ -1345,8 +1345,8 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="50"/>
       <c r="C27" s="33">
         <v>44034</v>
       </c>
@@ -1365,8 +1365,8 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="59"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="33">
         <v>44036</v>
       </c>
@@ -1385,8 +1385,8 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="50"/>
       <c r="C29" s="33">
         <v>44038</v>
       </c>
@@ -1405,8 +1405,8 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="60"/>
+      <c r="A30" s="44"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="33">
         <v>44040</v>
       </c>
@@ -1425,10 +1425,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48">
+      <c r="A31" s="43">
         <v>3</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="52" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="33">
@@ -1449,8 +1449,8 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="40"/>
-      <c r="B32" s="56"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="33">
         <v>44018</v>
       </c>
@@ -1469,8 +1469,8 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40"/>
-      <c r="B33" s="56"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="33">
         <v>44019</v>
       </c>
@@ -1489,8 +1489,8 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="40"/>
-      <c r="B34" s="56"/>
+      <c r="A34" s="44"/>
+      <c r="B34" s="46"/>
       <c r="C34" s="33">
         <v>44020</v>
       </c>
@@ -1509,8 +1509,8 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="40"/>
-      <c r="B35" s="56"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="46"/>
       <c r="C35" s="33">
         <v>44022</v>
       </c>
@@ -1529,8 +1529,8 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40"/>
-      <c r="B36" s="56"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="46"/>
       <c r="C36" s="33">
         <v>44024</v>
       </c>
@@ -1549,8 +1549,8 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="40"/>
-      <c r="B37" s="56"/>
+      <c r="A37" s="44"/>
+      <c r="B37" s="46"/>
       <c r="C37" s="33">
         <v>44026</v>
       </c>
@@ -1569,8 +1569,8 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="40"/>
-      <c r="B38" s="56"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="46"/>
       <c r="C38" s="33">
         <v>44028</v>
       </c>
@@ -1589,8 +1589,8 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="40"/>
-      <c r="B39" s="56"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="46"/>
       <c r="C39" s="33">
         <v>44030</v>
       </c>
@@ -1609,8 +1609,8 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="40"/>
-      <c r="B40" s="56"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="46"/>
       <c r="C40" s="33">
         <v>44032</v>
       </c>
@@ -1629,8 +1629,8 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="40"/>
-      <c r="B41" s="56"/>
+      <c r="A41" s="44"/>
+      <c r="B41" s="46"/>
       <c r="C41" s="33">
         <v>44034</v>
       </c>
@@ -1649,8 +1649,8 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="40"/>
-      <c r="B42" s="56"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="46"/>
       <c r="C42" s="33">
         <v>44036</v>
       </c>
@@ -1669,8 +1669,8 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="40"/>
-      <c r="B43" s="56"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="46"/>
       <c r="C43" s="33">
         <v>44038</v>
       </c>
@@ -1689,8 +1689,8 @@
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="57"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="47"/>
       <c r="C44" s="33">
         <v>44040</v>
       </c>
@@ -1709,10 +1709,10 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="A45" s="48">
         <v>4</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="58" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="33">
@@ -1733,8 +1733,8 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="33">
         <v>44018</v>
       </c>
@@ -1753,8 +1753,8 @@
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="40"/>
-      <c r="B47" s="40"/>
+      <c r="A47" s="44"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="33">
         <v>44019</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
+      <c r="A48" s="44"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="33">
         <v>44020</v>
       </c>
@@ -1793,8 +1793,8 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="40"/>
-      <c r="B49" s="40"/>
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="33">
         <v>44022</v>
       </c>
@@ -1813,8 +1813,8 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
+      <c r="A50" s="44"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="33">
         <v>44024</v>
       </c>
@@ -1833,8 +1833,8 @@
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="40"/>
-      <c r="B51" s="40"/>
+      <c r="A51" s="44"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="33">
         <v>44026</v>
       </c>
@@ -1853,8 +1853,8 @@
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40"/>
-      <c r="B52" s="40"/>
+      <c r="A52" s="44"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="33">
         <v>44028</v>
       </c>
@@ -1873,8 +1873,8 @@
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="40"/>
-      <c r="B53" s="40"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="44"/>
       <c r="C53" s="33">
         <v>44030</v>
       </c>
@@ -1893,8 +1893,8 @@
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40"/>
-      <c r="B54" s="40"/>
+      <c r="A54" s="44"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="33">
         <v>44032</v>
       </c>
@@ -1913,8 +1913,8 @@
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="44"/>
       <c r="C55" s="33">
         <v>44034</v>
       </c>
@@ -1933,8 +1933,8 @@
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="40"/>
-      <c r="B56" s="40"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="33">
         <v>44036</v>
       </c>
@@ -1953,8 +1953,8 @@
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="40"/>
-      <c r="B57" s="40"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="33">
         <v>44038</v>
       </c>
@@ -1973,8 +1973,8 @@
       <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
-      <c r="B58" s="42"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="33">
         <v>44040</v>
       </c>
@@ -1993,10 +1993,10 @@
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="48">
+      <c r="A59" s="43">
         <v>5</v>
       </c>
-      <c r="B59" s="49" t="s">
+      <c r="B59" s="59" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="33">
@@ -2017,8 +2017,8 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40"/>
-      <c r="B60" s="40"/>
+      <c r="A60" s="44"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="33">
         <v>44018</v>
       </c>
@@ -2037,8 +2037,8 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="40"/>
-      <c r="B61" s="40"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="44"/>
       <c r="C61" s="33">
         <v>44019</v>
       </c>
@@ -2057,8 +2057,8 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="40"/>
-      <c r="B62" s="40"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="44"/>
       <c r="C62" s="33">
         <v>44020</v>
       </c>
@@ -2077,8 +2077,8 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="40"/>
-      <c r="B63" s="40"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="33">
         <v>44022</v>
       </c>
@@ -2097,8 +2097,8 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="33">
         <v>44024</v>
       </c>
@@ -2117,8 +2117,8 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="44"/>
       <c r="C65" s="33">
         <v>44026</v>
       </c>
@@ -2137,8 +2137,8 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="40"/>
-      <c r="B66" s="40"/>
+      <c r="A66" s="44"/>
+      <c r="B66" s="44"/>
       <c r="C66" s="33">
         <v>44028</v>
       </c>
@@ -2157,8 +2157,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="40"/>
-      <c r="B67" s="40"/>
+      <c r="A67" s="44"/>
+      <c r="B67" s="44"/>
       <c r="C67" s="33">
         <v>44030</v>
       </c>
@@ -2177,8 +2177,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40"/>
+      <c r="A68" s="44"/>
+      <c r="B68" s="44"/>
       <c r="C68" s="33">
         <v>44032</v>
       </c>
@@ -2197,8 +2197,8 @@
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40"/>
+      <c r="A69" s="44"/>
+      <c r="B69" s="44"/>
       <c r="C69" s="33">
         <v>44034</v>
       </c>
@@ -2217,8 +2217,8 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="40"/>
-      <c r="B70" s="40"/>
+      <c r="A70" s="44"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="33">
         <v>44036</v>
       </c>
@@ -2237,8 +2237,8 @@
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="40"/>
-      <c r="B71" s="40"/>
+      <c r="A71" s="44"/>
+      <c r="B71" s="44"/>
       <c r="C71" s="33">
         <v>44038</v>
       </c>
@@ -2257,8 +2257,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="40"/>
-      <c r="B72" s="42"/>
+      <c r="A72" s="44"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="33">
         <v>44040</v>
       </c>
@@ -2277,10 +2277,10 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="39">
+      <c r="A73" s="48">
         <v>6</v>
       </c>
-      <c r="B73" s="41" t="s">
+      <c r="B73" s="58" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="33">
@@ -2301,8 +2301,8 @@
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="40"/>
-      <c r="B74" s="40"/>
+      <c r="A74" s="44"/>
+      <c r="B74" s="44"/>
       <c r="C74" s="33">
         <v>44018</v>
       </c>
@@ -2321,8 +2321,8 @@
       <c r="J74" s="20"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
+      <c r="A75" s="44"/>
+      <c r="B75" s="44"/>
       <c r="C75" s="33">
         <v>44019</v>
       </c>
@@ -2341,8 +2341,8 @@
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="A76" s="44"/>
+      <c r="B76" s="44"/>
       <c r="C76" s="33">
         <v>44020</v>
       </c>
@@ -2361,8 +2361,8 @@
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="40"/>
-      <c r="B77" s="40"/>
+      <c r="A77" s="44"/>
+      <c r="B77" s="44"/>
       <c r="C77" s="33">
         <v>44022</v>
       </c>
@@ -2381,8 +2381,8 @@
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="40"/>
-      <c r="B78" s="40"/>
+      <c r="A78" s="44"/>
+      <c r="B78" s="44"/>
       <c r="C78" s="33">
         <v>44024</v>
       </c>
@@ -2401,8 +2401,8 @@
       <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="40"/>
-      <c r="B79" s="40"/>
+      <c r="A79" s="44"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="33">
         <v>44026</v>
       </c>
@@ -2421,8 +2421,8 @@
       <c r="J79" s="22"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="40"/>
-      <c r="B80" s="40"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
       <c r="C80" s="33">
         <v>44028</v>
       </c>
@@ -2441,8 +2441,8 @@
       <c r="J80" s="22"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="40"/>
-      <c r="B81" s="40"/>
+      <c r="A81" s="44"/>
+      <c r="B81" s="44"/>
       <c r="C81" s="33">
         <v>44030</v>
       </c>
@@ -2461,8 +2461,8 @@
       <c r="J81" s="22"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="40"/>
-      <c r="B82" s="40"/>
+      <c r="A82" s="44"/>
+      <c r="B82" s="44"/>
       <c r="C82" s="33">
         <v>44032</v>
       </c>
@@ -2481,8 +2481,8 @@
       <c r="J82" s="22"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="40"/>
-      <c r="B83" s="40"/>
+      <c r="A83" s="44"/>
+      <c r="B83" s="44"/>
       <c r="C83" s="33">
         <v>44034</v>
       </c>
@@ -2501,8 +2501,8 @@
       <c r="J83" s="22"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
-      <c r="B84" s="40"/>
+      <c r="A84" s="44"/>
+      <c r="B84" s="44"/>
       <c r="C84" s="33">
         <v>44036</v>
       </c>
@@ -2521,8 +2521,8 @@
       <c r="J84" s="22"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40"/>
-      <c r="B85" s="40"/>
+      <c r="A85" s="44"/>
+      <c r="B85" s="44"/>
       <c r="C85" s="33">
         <v>44038</v>
       </c>
@@ -2541,8 +2541,8 @@
       <c r="J85" s="22"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="44"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="33">
         <v>44040</v>
       </c>
@@ -2561,10 +2561,10 @@
       <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="48">
+      <c r="A87" s="43">
         <v>7</v>
       </c>
-      <c r="B87" s="49" t="s">
+      <c r="B87" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="33">
@@ -2585,8 +2585,8 @@
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
+      <c r="A88" s="44"/>
+      <c r="B88" s="44"/>
       <c r="C88" s="33">
         <v>44018</v>
       </c>
@@ -2605,8 +2605,8 @@
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="40"/>
-      <c r="B89" s="40"/>
+      <c r="A89" s="44"/>
+      <c r="B89" s="44"/>
       <c r="C89" s="33">
         <v>44019</v>
       </c>
@@ -2625,8 +2625,8 @@
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="40"/>
-      <c r="B90" s="40"/>
+      <c r="A90" s="44"/>
+      <c r="B90" s="44"/>
       <c r="C90" s="33">
         <v>44020</v>
       </c>
@@ -2645,8 +2645,8 @@
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="40"/>
-      <c r="B91" s="40"/>
+      <c r="A91" s="44"/>
+      <c r="B91" s="44"/>
       <c r="C91" s="33">
         <v>44022</v>
       </c>
@@ -2665,8 +2665,8 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="40"/>
-      <c r="B92" s="40"/>
+      <c r="A92" s="44"/>
+      <c r="B92" s="44"/>
       <c r="C92" s="33">
         <v>44024</v>
       </c>
@@ -2685,8 +2685,8 @@
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="40"/>
-      <c r="B93" s="40"/>
+      <c r="A93" s="44"/>
+      <c r="B93" s="44"/>
       <c r="C93" s="33">
         <v>44026</v>
       </c>
@@ -2705,8 +2705,8 @@
       <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="40"/>
-      <c r="B94" s="40"/>
+      <c r="A94" s="44"/>
+      <c r="B94" s="44"/>
       <c r="C94" s="33">
         <v>44028</v>
       </c>
@@ -2725,8 +2725,8 @@
       <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="40"/>
-      <c r="B95" s="40"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
       <c r="C95" s="33">
         <v>44030</v>
       </c>
@@ -2745,8 +2745,8 @@
       <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="40"/>
-      <c r="B96" s="40"/>
+      <c r="A96" s="44"/>
+      <c r="B96" s="44"/>
       <c r="C96" s="33">
         <v>44032</v>
       </c>
@@ -2765,8 +2765,8 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="40"/>
-      <c r="B97" s="40"/>
+      <c r="A97" s="44"/>
+      <c r="B97" s="44"/>
       <c r="C97" s="33">
         <v>44034</v>
       </c>
@@ -2785,8 +2785,8 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="40"/>
-      <c r="B98" s="40"/>
+      <c r="A98" s="44"/>
+      <c r="B98" s="44"/>
       <c r="C98" s="33">
         <v>44036</v>
       </c>
@@ -2805,8 +2805,8 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="40"/>
-      <c r="B99" s="40"/>
+      <c r="A99" s="44"/>
+      <c r="B99" s="44"/>
       <c r="C99" s="33">
         <v>44038</v>
       </c>
@@ -2825,8 +2825,8 @@
       <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="40"/>
-      <c r="B100" s="42"/>
+      <c r="A100" s="44"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="33">
         <v>44040</v>
       </c>
@@ -2845,22 +2845,22 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="39">
+      <c r="A101" s="48">
         <v>8</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="62">
-        <v>44018</v>
-      </c>
-      <c r="D101" s="62">
-        <v>44018</v>
-      </c>
-      <c r="E101" s="63">
-        <v>1</v>
-      </c>
-      <c r="F101" s="64">
+      <c r="C101" s="39">
+        <v>44018</v>
+      </c>
+      <c r="D101" s="39">
+        <v>44018</v>
+      </c>
+      <c r="E101" s="40">
+        <v>1</v>
+      </c>
+      <c r="F101" s="41">
         <v>1</v>
       </c>
       <c r="G101" s="17"/>
@@ -2869,18 +2869,18 @@
       <c r="J101" s="20"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="40"/>
-      <c r="B102" s="40"/>
-      <c r="C102" s="62">
-        <v>44018</v>
-      </c>
-      <c r="D102" s="62">
-        <v>44018</v>
-      </c>
-      <c r="E102" s="65">
-        <v>1</v>
-      </c>
-      <c r="F102" s="64">
+      <c r="A102" s="44"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="39">
+        <v>44018</v>
+      </c>
+      <c r="D102" s="39">
+        <v>44018</v>
+      </c>
+      <c r="E102" s="42">
+        <v>1</v>
+      </c>
+      <c r="F102" s="41">
         <v>2</v>
       </c>
       <c r="G102" s="17"/>
@@ -2889,18 +2889,18 @@
       <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40"/>
-      <c r="B103" s="40"/>
-      <c r="C103" s="33">
+      <c r="A103" s="44"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="39">
         <v>44019</v>
       </c>
-      <c r="D103" s="33">
+      <c r="D103" s="39">
         <v>44019</v>
       </c>
-      <c r="E103" s="32">
-        <v>2</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103" s="42">
+        <v>2</v>
+      </c>
+      <c r="F103" s="41">
         <v>1</v>
       </c>
       <c r="G103" s="17"/>
@@ -2909,18 +2909,18 @@
       <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="40"/>
-      <c r="B104" s="40"/>
-      <c r="C104" s="33">
+      <c r="A104" s="44"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="39">
         <v>44020</v>
       </c>
-      <c r="D104" s="33">
+      <c r="D104" s="39">
         <v>44021</v>
       </c>
-      <c r="E104" s="3">
-        <v>2</v>
-      </c>
-      <c r="F104" s="3">
+      <c r="E104" s="41">
+        <v>2</v>
+      </c>
+      <c r="F104" s="41">
         <v>2</v>
       </c>
       <c r="G104" s="17"/>
@@ -2929,18 +2929,18 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="40"/>
-      <c r="B105" s="40"/>
-      <c r="C105" s="33">
+      <c r="A105" s="44"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="39">
         <v>44022</v>
       </c>
-      <c r="D105" s="33">
+      <c r="D105" s="39">
         <v>44023</v>
       </c>
-      <c r="E105" s="3">
-        <v>2</v>
-      </c>
-      <c r="F105" s="3">
+      <c r="E105" s="41">
+        <v>2</v>
+      </c>
+      <c r="F105" s="41">
         <v>3</v>
       </c>
       <c r="G105" s="17"/>
@@ -2949,18 +2949,18 @@
       <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="40"/>
-      <c r="B106" s="40"/>
-      <c r="C106" s="33">
+      <c r="A106" s="44"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="39">
         <v>44024</v>
       </c>
-      <c r="D106" s="33">
+      <c r="D106" s="39">
         <v>44025</v>
       </c>
-      <c r="E106" s="3">
+      <c r="E106" s="41">
         <v>3</v>
       </c>
-      <c r="F106" s="3">
+      <c r="F106" s="41">
         <v>1</v>
       </c>
       <c r="G106" s="17"/>
@@ -2969,8 +2969,8 @@
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="40"/>
-      <c r="B107" s="40"/>
+      <c r="A107" s="44"/>
+      <c r="B107" s="44"/>
       <c r="C107" s="33">
         <v>44026</v>
       </c>
@@ -2989,8 +2989,8 @@
       <c r="J107" s="22"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="40"/>
-      <c r="B108" s="40"/>
+      <c r="A108" s="44"/>
+      <c r="B108" s="44"/>
       <c r="C108" s="33">
         <v>44028</v>
       </c>
@@ -3009,8 +3009,8 @@
       <c r="J108" s="22"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="40"/>
-      <c r="B109" s="40"/>
+      <c r="A109" s="44"/>
+      <c r="B109" s="44"/>
       <c r="C109" s="33">
         <v>44030</v>
       </c>
@@ -3029,8 +3029,8 @@
       <c r="J109" s="22"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40"/>
-      <c r="B110" s="40"/>
+      <c r="A110" s="44"/>
+      <c r="B110" s="44"/>
       <c r="C110" s="33">
         <v>44032</v>
       </c>
@@ -3049,8 +3049,8 @@
       <c r="J110" s="22"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="40"/>
-      <c r="B111" s="40"/>
+      <c r="A111" s="44"/>
+      <c r="B111" s="44"/>
       <c r="C111" s="33">
         <v>44034</v>
       </c>
@@ -3069,8 +3069,8 @@
       <c r="J111" s="22"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="40"/>
-      <c r="B112" s="40"/>
+      <c r="A112" s="44"/>
+      <c r="B112" s="44"/>
       <c r="C112" s="33">
         <v>44036</v>
       </c>
@@ -3089,8 +3089,8 @@
       <c r="J112" s="22"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="40"/>
-      <c r="B113" s="40"/>
+      <c r="A113" s="44"/>
+      <c r="B113" s="44"/>
       <c r="C113" s="33">
         <v>44038</v>
       </c>
@@ -3109,8 +3109,8 @@
       <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="40"/>
-      <c r="B114" s="42"/>
+      <c r="A114" s="44"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="33">
         <v>44040</v>
       </c>
@@ -3129,10 +3129,10 @@
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="48">
+      <c r="A115" s="43">
         <v>9</v>
       </c>
-      <c r="B115" s="50" t="s">
+      <c r="B115" s="60" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="33">
@@ -3153,8 +3153,8 @@
       <c r="J115" s="6"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="40"/>
-      <c r="B116" s="46"/>
+      <c r="A116" s="44"/>
+      <c r="B116" s="61"/>
       <c r="C116" s="33">
         <v>44018</v>
       </c>
@@ -3173,8 +3173,8 @@
       <c r="J116" s="6"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="40"/>
-      <c r="B117" s="46"/>
+      <c r="A117" s="44"/>
+      <c r="B117" s="61"/>
       <c r="C117" s="33">
         <v>44019</v>
       </c>
@@ -3193,8 +3193,8 @@
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="40"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="44"/>
+      <c r="B118" s="61"/>
       <c r="C118" s="33">
         <v>44020</v>
       </c>
@@ -3213,8 +3213,8 @@
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40"/>
-      <c r="B119" s="46"/>
+      <c r="A119" s="44"/>
+      <c r="B119" s="61"/>
       <c r="C119" s="33">
         <v>44022</v>
       </c>
@@ -3233,8 +3233,8 @@
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="40"/>
-      <c r="B120" s="46"/>
+      <c r="A120" s="44"/>
+      <c r="B120" s="61"/>
       <c r="C120" s="33">
         <v>44024</v>
       </c>
@@ -3253,8 +3253,8 @@
       <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="40"/>
-      <c r="B121" s="46"/>
+      <c r="A121" s="44"/>
+      <c r="B121" s="61"/>
       <c r="C121" s="33">
         <v>44026</v>
       </c>
@@ -3273,8 +3273,8 @@
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="40"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="44"/>
+      <c r="B122" s="61"/>
       <c r="C122" s="33">
         <v>44028</v>
       </c>
@@ -3293,8 +3293,8 @@
       <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="40"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="44"/>
+      <c r="B123" s="61"/>
       <c r="C123" s="33">
         <v>44030</v>
       </c>
@@ -3313,8 +3313,8 @@
       <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="44"/>
+      <c r="B124" s="61"/>
       <c r="C124" s="33">
         <v>44032</v>
       </c>
@@ -3333,8 +3333,8 @@
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="40"/>
-      <c r="B125" s="46"/>
+      <c r="A125" s="44"/>
+      <c r="B125" s="61"/>
       <c r="C125" s="33">
         <v>44034</v>
       </c>
@@ -3353,8 +3353,8 @@
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="40"/>
-      <c r="B126" s="46"/>
+      <c r="A126" s="44"/>
+      <c r="B126" s="61"/>
       <c r="C126" s="33">
         <v>44036</v>
       </c>
@@ -3373,8 +3373,8 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="40"/>
-      <c r="B127" s="46"/>
+      <c r="A127" s="44"/>
+      <c r="B127" s="61"/>
       <c r="C127" s="33">
         <v>44038</v>
       </c>
@@ -3393,8 +3393,8 @@
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="40"/>
-      <c r="B128" s="47"/>
+      <c r="A128" s="44"/>
+      <c r="B128" s="62"/>
       <c r="C128" s="33">
         <v>44040</v>
       </c>
@@ -3413,10 +3413,10 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="39">
+      <c r="A129" s="48">
         <v>10</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="58" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="33">
@@ -3437,8 +3437,8 @@
       <c r="J129" s="20"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="40"/>
-      <c r="B130" s="40"/>
+      <c r="A130" s="44"/>
+      <c r="B130" s="44"/>
       <c r="C130" s="33">
         <v>44018</v>
       </c>
@@ -3457,8 +3457,8 @@
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="40"/>
-      <c r="B131" s="40"/>
+      <c r="A131" s="44"/>
+      <c r="B131" s="44"/>
       <c r="C131" s="33">
         <v>44019</v>
       </c>
@@ -3477,8 +3477,8 @@
       <c r="J131" s="20"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="40"/>
-      <c r="B132" s="40"/>
+      <c r="A132" s="44"/>
+      <c r="B132" s="44"/>
       <c r="C132" s="33">
         <v>44020</v>
       </c>
@@ -3497,8 +3497,8 @@
       <c r="J132" s="20"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="40"/>
-      <c r="B133" s="40"/>
+      <c r="A133" s="44"/>
+      <c r="B133" s="44"/>
       <c r="C133" s="33">
         <v>44022</v>
       </c>
@@ -3517,8 +3517,8 @@
       <c r="J133" s="20"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="40"/>
-      <c r="B134" s="40"/>
+      <c r="A134" s="44"/>
+      <c r="B134" s="44"/>
       <c r="C134" s="33">
         <v>44024</v>
       </c>
@@ -3537,8 +3537,8 @@
       <c r="J134" s="20"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="40"/>
-      <c r="B135" s="40"/>
+      <c r="A135" s="44"/>
+      <c r="B135" s="44"/>
       <c r="C135" s="33">
         <v>44026</v>
       </c>
@@ -3557,8 +3557,8 @@
       <c r="J135" s="22"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="40"/>
-      <c r="B136" s="40"/>
+      <c r="A136" s="44"/>
+      <c r="B136" s="44"/>
       <c r="C136" s="33">
         <v>44028</v>
       </c>
@@ -3577,8 +3577,8 @@
       <c r="J136" s="22"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="40"/>
-      <c r="B137" s="40"/>
+      <c r="A137" s="44"/>
+      <c r="B137" s="44"/>
       <c r="C137" s="33">
         <v>44030</v>
       </c>
@@ -3597,8 +3597,8 @@
       <c r="J137" s="22"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="40"/>
-      <c r="B138" s="40"/>
+      <c r="A138" s="44"/>
+      <c r="B138" s="44"/>
       <c r="C138" s="33">
         <v>44032</v>
       </c>
@@ -3617,8 +3617,8 @@
       <c r="J138" s="22"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="40"/>
-      <c r="B139" s="40"/>
+      <c r="A139" s="44"/>
+      <c r="B139" s="44"/>
       <c r="C139" s="33">
         <v>44034</v>
       </c>
@@ -3637,8 +3637,8 @@
       <c r="J139" s="22"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="40"/>
-      <c r="B140" s="40"/>
+      <c r="A140" s="44"/>
+      <c r="B140" s="44"/>
       <c r="C140" s="33">
         <v>44036</v>
       </c>
@@ -3657,8 +3657,8 @@
       <c r="J140" s="22"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="40"/>
-      <c r="B141" s="40"/>
+      <c r="A141" s="44"/>
+      <c r="B141" s="44"/>
       <c r="C141" s="33">
         <v>44038</v>
       </c>
@@ -3677,8 +3677,8 @@
       <c r="J141" s="22"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="40"/>
-      <c r="B142" s="42"/>
+      <c r="A142" s="44"/>
+      <c r="B142" s="54"/>
       <c r="C142" s="33">
         <v>44040</v>
       </c>
@@ -3697,10 +3697,10 @@
       <c r="J142" s="22"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="48">
+      <c r="A143" s="43">
         <v>11</v>
       </c>
-      <c r="B143" s="49" t="s">
+      <c r="B143" s="59" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="33">
@@ -3720,8 +3720,8 @@
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="40"/>
-      <c r="B144" s="40"/>
+      <c r="A144" s="44"/>
+      <c r="B144" s="44"/>
       <c r="C144" s="33">
         <v>44018</v>
       </c>
@@ -3739,8 +3739,8 @@
       <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="40"/>
-      <c r="B145" s="40"/>
+      <c r="A145" s="44"/>
+      <c r="B145" s="44"/>
       <c r="C145" s="33">
         <v>44019</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="40"/>
-      <c r="B146" s="40"/>
+      <c r="A146" s="44"/>
+      <c r="B146" s="44"/>
       <c r="C146" s="33">
         <v>44020</v>
       </c>
@@ -3777,8 +3777,8 @@
       <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="40"/>
-      <c r="B147" s="40"/>
+      <c r="A147" s="44"/>
+      <c r="B147" s="44"/>
       <c r="C147" s="33">
         <v>44022</v>
       </c>
@@ -3796,8 +3796,8 @@
       <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="40"/>
-      <c r="B148" s="40"/>
+      <c r="A148" s="44"/>
+      <c r="B148" s="44"/>
       <c r="C148" s="33">
         <v>44024</v>
       </c>
@@ -3815,8 +3815,8 @@
       <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="40"/>
-      <c r="B149" s="40"/>
+      <c r="A149" s="44"/>
+      <c r="B149" s="44"/>
       <c r="C149" s="33">
         <v>44026</v>
       </c>
@@ -3834,8 +3834,8 @@
       <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="40"/>
-      <c r="B150" s="40"/>
+      <c r="A150" s="44"/>
+      <c r="B150" s="44"/>
       <c r="C150" s="33">
         <v>44028</v>
       </c>
@@ -3853,8 +3853,8 @@
       <c r="I150" s="7"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="40"/>
-      <c r="B151" s="40"/>
+      <c r="A151" s="44"/>
+      <c r="B151" s="44"/>
       <c r="C151" s="33">
         <v>44030</v>
       </c>
@@ -3872,8 +3872,8 @@
       <c r="I151" s="7"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="40"/>
-      <c r="B152" s="40"/>
+      <c r="A152" s="44"/>
+      <c r="B152" s="44"/>
       <c r="C152" s="33">
         <v>44032</v>
       </c>
@@ -3891,8 +3891,8 @@
       <c r="I152" s="12"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="40"/>
-      <c r="B153" s="40"/>
+      <c r="A153" s="44"/>
+      <c r="B153" s="44"/>
       <c r="C153" s="33">
         <v>44034</v>
       </c>
@@ -3910,8 +3910,8 @@
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="40"/>
-      <c r="B154" s="40"/>
+      <c r="A154" s="44"/>
+      <c r="B154" s="44"/>
       <c r="C154" s="33">
         <v>44036</v>
       </c>
@@ -3929,8 +3929,8 @@
       <c r="I154" s="12"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="40"/>
-      <c r="B155" s="40"/>
+      <c r="A155" s="44"/>
+      <c r="B155" s="44"/>
       <c r="C155" s="33">
         <v>44038</v>
       </c>
@@ -3948,8 +3948,8 @@
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="40"/>
-      <c r="B156" s="42"/>
+      <c r="A156" s="44"/>
+      <c r="B156" s="54"/>
       <c r="C156" s="33">
         <v>44040</v>
       </c>
@@ -3967,10 +3967,10 @@
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="39">
+      <c r="A157" s="48">
         <v>12</v>
       </c>
-      <c r="B157" s="41" t="s">
+      <c r="B157" s="58" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="33">
@@ -3991,8 +3991,8 @@
       <c r="J157" s="20"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="40"/>
-      <c r="B158" s="40"/>
+      <c r="A158" s="44"/>
+      <c r="B158" s="44"/>
       <c r="C158" s="33">
         <v>44018</v>
       </c>
@@ -4011,8 +4011,8 @@
       <c r="J158" s="20"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="40"/>
-      <c r="B159" s="40"/>
+      <c r="A159" s="44"/>
+      <c r="B159" s="44"/>
       <c r="C159" s="33">
         <v>44019</v>
       </c>
@@ -4031,8 +4031,8 @@
       <c r="J159" s="20"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="40"/>
-      <c r="B160" s="40"/>
+      <c r="A160" s="44"/>
+      <c r="B160" s="44"/>
       <c r="C160" s="33">
         <v>44020</v>
       </c>
@@ -4051,8 +4051,8 @@
       <c r="J160" s="20"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="40"/>
-      <c r="B161" s="40"/>
+      <c r="A161" s="44"/>
+      <c r="B161" s="44"/>
       <c r="C161" s="33">
         <v>44022</v>
       </c>
@@ -4071,8 +4071,8 @@
       <c r="J161" s="20"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="40"/>
-      <c r="B162" s="40"/>
+      <c r="A162" s="44"/>
+      <c r="B162" s="44"/>
       <c r="C162" s="33">
         <v>44024</v>
       </c>
@@ -4091,8 +4091,8 @@
       <c r="J162" s="20"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="40"/>
-      <c r="B163" s="40"/>
+      <c r="A163" s="44"/>
+      <c r="B163" s="44"/>
       <c r="C163" s="33">
         <v>44026</v>
       </c>
@@ -4111,8 +4111,8 @@
       <c r="J163" s="22"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="40"/>
-      <c r="B164" s="40"/>
+      <c r="A164" s="44"/>
+      <c r="B164" s="44"/>
       <c r="C164" s="33">
         <v>44028</v>
       </c>
@@ -4131,8 +4131,8 @@
       <c r="J164" s="22"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="40"/>
-      <c r="B165" s="40"/>
+      <c r="A165" s="44"/>
+      <c r="B165" s="44"/>
       <c r="C165" s="33">
         <v>44030</v>
       </c>
@@ -4151,8 +4151,8 @@
       <c r="J165" s="22"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
-      <c r="B166" s="40"/>
+      <c r="A166" s="44"/>
+      <c r="B166" s="44"/>
       <c r="C166" s="33">
         <v>44032</v>
       </c>
@@ -4171,8 +4171,8 @@
       <c r="J166" s="22"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="40"/>
-      <c r="B167" s="40"/>
+      <c r="A167" s="44"/>
+      <c r="B167" s="44"/>
       <c r="C167" s="33">
         <v>44034</v>
       </c>
@@ -4191,8 +4191,8 @@
       <c r="J167" s="22"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="40"/>
-      <c r="B168" s="40"/>
+      <c r="A168" s="44"/>
+      <c r="B168" s="44"/>
       <c r="C168" s="33">
         <v>44036</v>
       </c>
@@ -4211,8 +4211,8 @@
       <c r="J168" s="22"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="40"/>
-      <c r="B169" s="40"/>
+      <c r="A169" s="44"/>
+      <c r="B169" s="44"/>
       <c r="C169" s="33">
         <v>44038</v>
       </c>
@@ -4231,8 +4231,8 @@
       <c r="J169" s="22"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="40"/>
-      <c r="B170" s="42"/>
+      <c r="A170" s="44"/>
+      <c r="B170" s="54"/>
       <c r="C170" s="33">
         <v>44040</v>
       </c>
@@ -4251,10 +4251,10 @@
       <c r="J170" s="22"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="48">
+      <c r="A171" s="43">
         <v>13</v>
       </c>
-      <c r="B171" s="49" t="s">
+      <c r="B171" s="59" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33">
@@ -4274,8 +4274,8 @@
       <c r="I171" s="5"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="40"/>
-      <c r="B172" s="40"/>
+      <c r="A172" s="44"/>
+      <c r="B172" s="44"/>
       <c r="C172" s="33">
         <v>44018</v>
       </c>
@@ -4293,8 +4293,8 @@
       <c r="I172" s="7"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="40"/>
-      <c r="B173" s="40"/>
+      <c r="A173" s="44"/>
+      <c r="B173" s="44"/>
       <c r="C173" s="33">
         <v>44019</v>
       </c>
@@ -4312,8 +4312,8 @@
       <c r="I173" s="7"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="40"/>
-      <c r="B174" s="40"/>
+      <c r="A174" s="44"/>
+      <c r="B174" s="44"/>
       <c r="C174" s="33">
         <v>44020</v>
       </c>
@@ -4331,8 +4331,8 @@
       <c r="I174" s="7"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="40"/>
-      <c r="B175" s="40"/>
+      <c r="A175" s="44"/>
+      <c r="B175" s="44"/>
       <c r="C175" s="33">
         <v>44022</v>
       </c>
@@ -4350,8 +4350,8 @@
       <c r="I175" s="7"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="40"/>
-      <c r="B176" s="40"/>
+      <c r="A176" s="44"/>
+      <c r="B176" s="44"/>
       <c r="C176" s="33">
         <v>44024</v>
       </c>
@@ -4369,8 +4369,8 @@
       <c r="I176" s="7"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="40"/>
-      <c r="B177" s="40"/>
+      <c r="A177" s="44"/>
+      <c r="B177" s="44"/>
       <c r="C177" s="33">
         <v>44026</v>
       </c>
@@ -4388,8 +4388,8 @@
       <c r="I177" s="7"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="40"/>
-      <c r="B178" s="40"/>
+      <c r="A178" s="44"/>
+      <c r="B178" s="44"/>
       <c r="C178" s="33">
         <v>44028</v>
       </c>
@@ -4407,8 +4407,8 @@
       <c r="I178" s="7"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="40"/>
-      <c r="B179" s="40"/>
+      <c r="A179" s="44"/>
+      <c r="B179" s="44"/>
       <c r="C179" s="33">
         <v>44030</v>
       </c>
@@ -4426,8 +4426,8 @@
       <c r="I179" s="9"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="40"/>
-      <c r="B180" s="40"/>
+      <c r="A180" s="44"/>
+      <c r="B180" s="44"/>
       <c r="C180" s="33">
         <v>44032</v>
       </c>
@@ -4445,8 +4445,8 @@
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="40"/>
-      <c r="B181" s="40"/>
+      <c r="A181" s="44"/>
+      <c r="B181" s="44"/>
       <c r="C181" s="33">
         <v>44034</v>
       </c>
@@ -4464,8 +4464,8 @@
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="40"/>
-      <c r="B182" s="40"/>
+      <c r="A182" s="44"/>
+      <c r="B182" s="44"/>
       <c r="C182" s="33">
         <v>44036</v>
       </c>
@@ -4483,8 +4483,8 @@
       <c r="I182" s="12"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="40"/>
-      <c r="B183" s="40"/>
+      <c r="A183" s="44"/>
+      <c r="B183" s="44"/>
       <c r="C183" s="33">
         <v>44038</v>
       </c>
@@ -4502,8 +4502,8 @@
       <c r="I183" s="12"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="40"/>
-      <c r="B184" s="42"/>
+      <c r="A184" s="44"/>
+      <c r="B184" s="54"/>
       <c r="C184" s="33">
         <v>44040</v>
       </c>
@@ -4521,10 +4521,10 @@
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="39">
+      <c r="A185" s="48">
         <v>14</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="58" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="33">
@@ -4545,8 +4545,8 @@
       <c r="J185" s="20"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="40"/>
-      <c r="B186" s="40"/>
+      <c r="A186" s="44"/>
+      <c r="B186" s="44"/>
       <c r="C186" s="33">
         <v>44018</v>
       </c>
@@ -4565,8 +4565,8 @@
       <c r="J186" s="20"/>
     </row>
     <row r="187" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="40"/>
-      <c r="B187" s="40"/>
+      <c r="A187" s="44"/>
+      <c r="B187" s="44"/>
       <c r="C187" s="33">
         <v>44019</v>
       </c>
@@ -4585,8 +4585,8 @@
       <c r="J187" s="20"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="40"/>
-      <c r="B188" s="40"/>
+      <c r="A188" s="44"/>
+      <c r="B188" s="44"/>
       <c r="C188" s="33">
         <v>44020</v>
       </c>
@@ -4605,8 +4605,8 @@
       <c r="J188" s="20"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="40"/>
-      <c r="B189" s="40"/>
+      <c r="A189" s="44"/>
+      <c r="B189" s="44"/>
       <c r="C189" s="33">
         <v>44022</v>
       </c>
@@ -4625,8 +4625,8 @@
       <c r="J189" s="20"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="40"/>
-      <c r="B190" s="40"/>
+      <c r="A190" s="44"/>
+      <c r="B190" s="44"/>
       <c r="C190" s="33">
         <v>44024</v>
       </c>
@@ -4645,8 +4645,8 @@
       <c r="J190" s="20"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="40"/>
-      <c r="B191" s="40"/>
+      <c r="A191" s="44"/>
+      <c r="B191" s="44"/>
       <c r="C191" s="33">
         <v>44026</v>
       </c>
@@ -4665,8 +4665,8 @@
       <c r="J191" s="22"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="40"/>
-      <c r="B192" s="40"/>
+      <c r="A192" s="44"/>
+      <c r="B192" s="44"/>
       <c r="C192" s="33">
         <v>44028</v>
       </c>
@@ -4685,8 +4685,8 @@
       <c r="J192" s="22"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="40"/>
-      <c r="B193" s="40"/>
+      <c r="A193" s="44"/>
+      <c r="B193" s="44"/>
       <c r="C193" s="33">
         <v>44030</v>
       </c>
@@ -4705,8 +4705,8 @@
       <c r="J193" s="22"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="40"/>
-      <c r="B194" s="40"/>
+      <c r="A194" s="44"/>
+      <c r="B194" s="44"/>
       <c r="C194" s="33">
         <v>44032</v>
       </c>
@@ -4725,8 +4725,8 @@
       <c r="J194" s="22"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="40"/>
-      <c r="B195" s="40"/>
+      <c r="A195" s="44"/>
+      <c r="B195" s="44"/>
       <c r="C195" s="33">
         <v>44034</v>
       </c>
@@ -4745,8 +4745,8 @@
       <c r="J195" s="22"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="40"/>
-      <c r="B196" s="40"/>
+      <c r="A196" s="44"/>
+      <c r="B196" s="44"/>
       <c r="C196" s="33">
         <v>44036</v>
       </c>
@@ -4765,8 +4765,8 @@
       <c r="J196" s="22"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="40"/>
-      <c r="B197" s="40"/>
+      <c r="A197" s="44"/>
+      <c r="B197" s="44"/>
       <c r="C197" s="33">
         <v>44038</v>
       </c>
@@ -4785,8 +4785,8 @@
       <c r="J197" s="22"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="40"/>
-      <c r="B198" s="42"/>
+      <c r="A198" s="44"/>
+      <c r="B198" s="54"/>
       <c r="C198" s="33">
         <v>44040</v>
       </c>
@@ -4805,10 +4805,10 @@
       <c r="J198" s="22"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="48">
+      <c r="A199" s="43">
         <v>15</v>
       </c>
-      <c r="B199" s="49" t="s">
+      <c r="B199" s="59" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="33">
@@ -4828,8 +4828,8 @@
       <c r="I199" s="29"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="40"/>
-      <c r="B200" s="40"/>
+      <c r="A200" s="44"/>
+      <c r="B200" s="44"/>
       <c r="C200" s="33">
         <v>44018</v>
       </c>
@@ -4847,8 +4847,8 @@
       <c r="I200" s="7"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
-      <c r="B201" s="40"/>
+      <c r="A201" s="44"/>
+      <c r="B201" s="44"/>
       <c r="C201" s="33">
         <v>44019</v>
       </c>
@@ -4866,8 +4866,8 @@
       <c r="I201" s="7"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="40"/>
-      <c r="B202" s="40"/>
+      <c r="A202" s="44"/>
+      <c r="B202" s="44"/>
       <c r="C202" s="33">
         <v>44020</v>
       </c>
@@ -4885,8 +4885,8 @@
       <c r="I202" s="7"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="40"/>
-      <c r="B203" s="40"/>
+      <c r="A203" s="44"/>
+      <c r="B203" s="44"/>
       <c r="C203" s="33">
         <v>44022</v>
       </c>
@@ -4904,8 +4904,8 @@
       <c r="I203" s="7"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="40"/>
-      <c r="B204" s="40"/>
+      <c r="A204" s="44"/>
+      <c r="B204" s="44"/>
       <c r="C204" s="33">
         <v>44024</v>
       </c>
@@ -4923,8 +4923,8 @@
       <c r="I204" s="7"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="40"/>
-      <c r="B205" s="40"/>
+      <c r="A205" s="44"/>
+      <c r="B205" s="44"/>
       <c r="C205" s="33">
         <v>44026</v>
       </c>
@@ -4942,8 +4942,8 @@
       <c r="I205" s="7"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="40"/>
-      <c r="B206" s="40"/>
+      <c r="A206" s="44"/>
+      <c r="B206" s="44"/>
       <c r="C206" s="33">
         <v>44028</v>
       </c>
@@ -4961,8 +4961,8 @@
       <c r="I206" s="7"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="40"/>
-      <c r="B207" s="40"/>
+      <c r="A207" s="44"/>
+      <c r="B207" s="44"/>
       <c r="C207" s="33">
         <v>44030</v>
       </c>
@@ -4980,8 +4980,8 @@
       <c r="I207" s="9"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="40"/>
-      <c r="B208" s="40"/>
+      <c r="A208" s="44"/>
+      <c r="B208" s="44"/>
       <c r="C208" s="33">
         <v>44032</v>
       </c>
@@ -4999,8 +4999,8 @@
       <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="40"/>
-      <c r="B209" s="40"/>
+      <c r="A209" s="44"/>
+      <c r="B209" s="44"/>
       <c r="C209" s="33">
         <v>44034</v>
       </c>
@@ -5018,8 +5018,8 @@
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="40"/>
-      <c r="B210" s="40"/>
+      <c r="A210" s="44"/>
+      <c r="B210" s="44"/>
       <c r="C210" s="33">
         <v>44036</v>
       </c>
@@ -5037,8 +5037,8 @@
       <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="40"/>
-      <c r="B211" s="40"/>
+      <c r="A211" s="44"/>
+      <c r="B211" s="44"/>
       <c r="C211" s="33">
         <v>44038</v>
       </c>
@@ -5056,8 +5056,8 @@
       <c r="I211" s="12"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="40"/>
-      <c r="B212" s="42"/>
+      <c r="A212" s="44"/>
+      <c r="B212" s="54"/>
       <c r="C212" s="33">
         <v>44040</v>
       </c>
@@ -5075,10 +5075,10 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="39">
+      <c r="A213" s="48">
         <v>16</v>
       </c>
-      <c r="B213" s="41" t="s">
+      <c r="B213" s="58" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="33">
@@ -5099,8 +5099,8 @@
       <c r="J213" s="20"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="40"/>
-      <c r="B214" s="40"/>
+      <c r="A214" s="44"/>
+      <c r="B214" s="44"/>
       <c r="C214" s="33">
         <v>44018</v>
       </c>
@@ -5119,8 +5119,8 @@
       <c r="J214" s="20"/>
     </row>
     <row r="215" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="40"/>
-      <c r="B215" s="40"/>
+      <c r="A215" s="44"/>
+      <c r="B215" s="44"/>
       <c r="C215" s="33">
         <v>44019</v>
       </c>
@@ -5139,8 +5139,8 @@
       <c r="J215" s="20"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="40"/>
-      <c r="B216" s="40"/>
+      <c r="A216" s="44"/>
+      <c r="B216" s="44"/>
       <c r="C216" s="33">
         <v>44020</v>
       </c>
@@ -5159,8 +5159,8 @@
       <c r="J216" s="20"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="40"/>
-      <c r="B217" s="40"/>
+      <c r="A217" s="44"/>
+      <c r="B217" s="44"/>
       <c r="C217" s="33">
         <v>44022</v>
       </c>
@@ -5179,8 +5179,8 @@
       <c r="J217" s="20"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="40"/>
-      <c r="B218" s="40"/>
+      <c r="A218" s="44"/>
+      <c r="B218" s="44"/>
       <c r="C218" s="33">
         <v>44024</v>
       </c>
@@ -5199,8 +5199,8 @@
       <c r="J218" s="20"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="40"/>
-      <c r="B219" s="40"/>
+      <c r="A219" s="44"/>
+      <c r="B219" s="44"/>
       <c r="C219" s="33">
         <v>44026</v>
       </c>
@@ -5219,8 +5219,8 @@
       <c r="J219" s="22"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="40"/>
-      <c r="B220" s="40"/>
+      <c r="A220" s="44"/>
+      <c r="B220" s="44"/>
       <c r="C220" s="33">
         <v>44028</v>
       </c>
@@ -5239,8 +5239,8 @@
       <c r="J220" s="22"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="40"/>
-      <c r="B221" s="40"/>
+      <c r="A221" s="44"/>
+      <c r="B221" s="44"/>
       <c r="C221" s="33">
         <v>44030</v>
       </c>
@@ -5259,8 +5259,8 @@
       <c r="J221" s="22"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="40"/>
-      <c r="B222" s="40"/>
+      <c r="A222" s="44"/>
+      <c r="B222" s="44"/>
       <c r="C222" s="33">
         <v>44032</v>
       </c>
@@ -5279,8 +5279,8 @@
       <c r="J222" s="22"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="40"/>
-      <c r="B223" s="40"/>
+      <c r="A223" s="44"/>
+      <c r="B223" s="44"/>
       <c r="C223" s="33">
         <v>44034</v>
       </c>
@@ -5299,8 +5299,8 @@
       <c r="J223" s="22"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="40"/>
-      <c r="B224" s="40"/>
+      <c r="A224" s="44"/>
+      <c r="B224" s="44"/>
       <c r="C224" s="33">
         <v>44036</v>
       </c>
@@ -5319,8 +5319,8 @@
       <c r="J224" s="22"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="40"/>
-      <c r="B225" s="40"/>
+      <c r="A225" s="44"/>
+      <c r="B225" s="44"/>
       <c r="C225" s="33">
         <v>44038</v>
       </c>
@@ -5339,8 +5339,8 @@
       <c r="J225" s="22"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="40"/>
-      <c r="B226" s="42"/>
+      <c r="A226" s="44"/>
+      <c r="B226" s="54"/>
       <c r="C226" s="33">
         <v>44040</v>
       </c>
@@ -5359,10 +5359,10 @@
       <c r="J226" s="22"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="48">
+      <c r="A227" s="43">
         <v>17</v>
       </c>
-      <c r="B227" s="49" t="s">
+      <c r="B227" s="59" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="33">
@@ -5382,8 +5382,8 @@
       <c r="I227" s="29"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="40"/>
-      <c r="B228" s="40"/>
+      <c r="A228" s="44"/>
+      <c r="B228" s="44"/>
       <c r="C228" s="33">
         <v>44018</v>
       </c>
@@ -5401,8 +5401,8 @@
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="40"/>
-      <c r="B229" s="40"/>
+      <c r="A229" s="44"/>
+      <c r="B229" s="44"/>
       <c r="C229" s="33">
         <v>44019</v>
       </c>
@@ -5420,8 +5420,8 @@
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="40"/>
-      <c r="B230" s="40"/>
+      <c r="A230" s="44"/>
+      <c r="B230" s="44"/>
       <c r="C230" s="33">
         <v>44020</v>
       </c>
@@ -5439,8 +5439,8 @@
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="40"/>
-      <c r="B231" s="40"/>
+      <c r="A231" s="44"/>
+      <c r="B231" s="44"/>
       <c r="C231" s="33">
         <v>44022</v>
       </c>
@@ -5458,8 +5458,8 @@
       <c r="I231" s="7"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="40"/>
-      <c r="B232" s="40"/>
+      <c r="A232" s="44"/>
+      <c r="B232" s="44"/>
       <c r="C232" s="33">
         <v>44024</v>
       </c>
@@ -5477,8 +5477,8 @@
       <c r="I232" s="7"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="40"/>
-      <c r="B233" s="40"/>
+      <c r="A233" s="44"/>
+      <c r="B233" s="44"/>
       <c r="C233" s="33">
         <v>44026</v>
       </c>
@@ -5496,8 +5496,8 @@
       <c r="I233" s="7"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="40"/>
-      <c r="B234" s="40"/>
+      <c r="A234" s="44"/>
+      <c r="B234" s="44"/>
       <c r="C234" s="33">
         <v>44028</v>
       </c>
@@ -5515,8 +5515,8 @@
       <c r="I234" s="7"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="40"/>
-      <c r="B235" s="40"/>
+      <c r="A235" s="44"/>
+      <c r="B235" s="44"/>
       <c r="C235" s="33">
         <v>44030</v>
       </c>
@@ -5534,8 +5534,8 @@
       <c r="I235" s="9"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="40"/>
-      <c r="B236" s="40"/>
+      <c r="A236" s="44"/>
+      <c r="B236" s="44"/>
       <c r="C236" s="33">
         <v>44032</v>
       </c>
@@ -5553,8 +5553,8 @@
       <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="40"/>
-      <c r="B237" s="40"/>
+      <c r="A237" s="44"/>
+      <c r="B237" s="44"/>
       <c r="C237" s="33">
         <v>44034</v>
       </c>
@@ -5572,8 +5572,8 @@
       <c r="I237" s="12"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="40"/>
-      <c r="B238" s="40"/>
+      <c r="A238" s="44"/>
+      <c r="B238" s="44"/>
       <c r="C238" s="33">
         <v>44036</v>
       </c>
@@ -5591,8 +5591,8 @@
       <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
-      <c r="B239" s="40"/>
+      <c r="A239" s="44"/>
+      <c r="B239" s="44"/>
       <c r="C239" s="33">
         <v>44038</v>
       </c>
@@ -5610,8 +5610,8 @@
       <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="40"/>
-      <c r="B240" s="42"/>
+      <c r="A240" s="44"/>
+      <c r="B240" s="54"/>
       <c r="C240" s="33">
         <v>44040</v>
       </c>
@@ -5629,10 +5629,10 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="39">
+      <c r="A241" s="48">
         <v>18</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="58" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="33">
@@ -5653,8 +5653,8 @@
       <c r="J241" s="20"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="40"/>
-      <c r="B242" s="40"/>
+      <c r="A242" s="44"/>
+      <c r="B242" s="44"/>
       <c r="C242" s="33">
         <v>44018</v>
       </c>
@@ -5673,8 +5673,8 @@
       <c r="J242" s="20"/>
     </row>
     <row r="243" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="40"/>
-      <c r="B243" s="40"/>
+      <c r="A243" s="44"/>
+      <c r="B243" s="44"/>
       <c r="C243" s="33">
         <v>44019</v>
       </c>
@@ -5693,8 +5693,8 @@
       <c r="J243" s="20"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="40"/>
-      <c r="B244" s="40"/>
+      <c r="A244" s="44"/>
+      <c r="B244" s="44"/>
       <c r="C244" s="33">
         <v>44020</v>
       </c>
@@ -5713,8 +5713,8 @@
       <c r="J244" s="20"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="40"/>
-      <c r="B245" s="40"/>
+      <c r="A245" s="44"/>
+      <c r="B245" s="44"/>
       <c r="C245" s="33">
         <v>44022</v>
       </c>
@@ -5733,8 +5733,8 @@
       <c r="J245" s="20"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="40"/>
-      <c r="B246" s="40"/>
+      <c r="A246" s="44"/>
+      <c r="B246" s="44"/>
       <c r="C246" s="33">
         <v>44024</v>
       </c>
@@ -5753,8 +5753,8 @@
       <c r="J246" s="20"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="40"/>
-      <c r="B247" s="40"/>
+      <c r="A247" s="44"/>
+      <c r="B247" s="44"/>
       <c r="C247" s="33">
         <v>44026</v>
       </c>
@@ -5773,8 +5773,8 @@
       <c r="J247" s="22"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="40"/>
-      <c r="B248" s="40"/>
+      <c r="A248" s="44"/>
+      <c r="B248" s="44"/>
       <c r="C248" s="33">
         <v>44028</v>
       </c>
@@ -5793,8 +5793,8 @@
       <c r="J248" s="22"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="40"/>
-      <c r="B249" s="40"/>
+      <c r="A249" s="44"/>
+      <c r="B249" s="44"/>
       <c r="C249" s="33">
         <v>44030</v>
       </c>
@@ -5813,8 +5813,8 @@
       <c r="J249" s="22"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="40"/>
-      <c r="B250" s="40"/>
+      <c r="A250" s="44"/>
+      <c r="B250" s="44"/>
       <c r="C250" s="33">
         <v>44032</v>
       </c>
@@ -5833,8 +5833,8 @@
       <c r="J250" s="22"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="40"/>
-      <c r="B251" s="40"/>
+      <c r="A251" s="44"/>
+      <c r="B251" s="44"/>
       <c r="C251" s="33">
         <v>44034</v>
       </c>
@@ -5853,8 +5853,8 @@
       <c r="J251" s="22"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="40"/>
-      <c r="B252" s="40"/>
+      <c r="A252" s="44"/>
+      <c r="B252" s="44"/>
       <c r="C252" s="33">
         <v>44036</v>
       </c>
@@ -5873,8 +5873,8 @@
       <c r="J252" s="22"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="40"/>
-      <c r="B253" s="40"/>
+      <c r="A253" s="44"/>
+      <c r="B253" s="44"/>
       <c r="C253" s="33">
         <v>44038</v>
       </c>
@@ -5893,8 +5893,8 @@
       <c r="J253" s="22"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="40"/>
-      <c r="B254" s="42"/>
+      <c r="A254" s="44"/>
+      <c r="B254" s="54"/>
       <c r="C254" s="33">
         <v>44040</v>
       </c>
@@ -5913,10 +5913,10 @@
       <c r="J254" s="22"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="43">
+      <c r="A255" s="63">
         <v>19</v>
       </c>
-      <c r="B255" s="45" t="s">
+      <c r="B255" s="65" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="33">
@@ -5936,8 +5936,8 @@
       <c r="I255" s="29"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="44"/>
-      <c r="B256" s="46"/>
+      <c r="A256" s="64"/>
+      <c r="B256" s="61"/>
       <c r="C256" s="33">
         <v>44018</v>
       </c>
@@ -5955,8 +5955,8 @@
       <c r="I256" s="7"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="44"/>
-      <c r="B257" s="46"/>
+      <c r="A257" s="64"/>
+      <c r="B257" s="61"/>
       <c r="C257" s="33">
         <v>44019</v>
       </c>
@@ -5974,8 +5974,8 @@
       <c r="I257" s="7"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="44"/>
-      <c r="B258" s="46"/>
+      <c r="A258" s="64"/>
+      <c r="B258" s="61"/>
       <c r="C258" s="33">
         <v>44020</v>
       </c>
@@ -5993,8 +5993,8 @@
       <c r="I258" s="7"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="44"/>
-      <c r="B259" s="46"/>
+      <c r="A259" s="64"/>
+      <c r="B259" s="61"/>
       <c r="C259" s="33">
         <v>44022</v>
       </c>
@@ -6012,8 +6012,8 @@
       <c r="I259" s="7"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="44"/>
-      <c r="B260" s="46"/>
+      <c r="A260" s="64"/>
+      <c r="B260" s="61"/>
       <c r="C260" s="33">
         <v>44024</v>
       </c>
@@ -6031,8 +6031,8 @@
       <c r="I260" s="7"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="44"/>
-      <c r="B261" s="46"/>
+      <c r="A261" s="64"/>
+      <c r="B261" s="61"/>
       <c r="C261" s="33">
         <v>44026</v>
       </c>
@@ -6050,8 +6050,8 @@
       <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="44"/>
-      <c r="B262" s="46"/>
+      <c r="A262" s="64"/>
+      <c r="B262" s="61"/>
       <c r="C262" s="33">
         <v>44028</v>
       </c>
@@ -6069,8 +6069,8 @@
       <c r="I262" s="7"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="44"/>
-      <c r="B263" s="46"/>
+      <c r="A263" s="64"/>
+      <c r="B263" s="61"/>
       <c r="C263" s="33">
         <v>44030</v>
       </c>
@@ -6088,8 +6088,8 @@
       <c r="I263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="44"/>
-      <c r="B264" s="46"/>
+      <c r="A264" s="64"/>
+      <c r="B264" s="61"/>
       <c r="C264" s="33">
         <v>44032</v>
       </c>
@@ -6107,8 +6107,8 @@
       <c r="I264" s="12"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="44"/>
-      <c r="B265" s="46"/>
+      <c r="A265" s="64"/>
+      <c r="B265" s="61"/>
       <c r="C265" s="33">
         <v>44034</v>
       </c>
@@ -6126,8 +6126,8 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="44"/>
-      <c r="B266" s="46"/>
+      <c r="A266" s="64"/>
+      <c r="B266" s="61"/>
       <c r="C266" s="33">
         <v>44036</v>
       </c>
@@ -6145,8 +6145,8 @@
       <c r="I266" s="12"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="44"/>
-      <c r="B267" s="46"/>
+      <c r="A267" s="64"/>
+      <c r="B267" s="61"/>
       <c r="C267" s="33">
         <v>44038</v>
       </c>
@@ -6164,8 +6164,8 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="44"/>
-      <c r="B268" s="47"/>
+      <c r="A268" s="64"/>
+      <c r="B268" s="62"/>
       <c r="C268" s="33">
         <v>44040</v>
       </c>
@@ -6455,43 +6455,6 @@
     <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
     <mergeCell ref="A241:A254"/>
     <mergeCell ref="B241:B254"/>
     <mergeCell ref="A255:A268"/>
@@ -6502,6 +6465,43 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="A227:A240"/>
     <mergeCell ref="B227:B240"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
+++ b/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,10 +522,44 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -534,9 +568,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -550,37 +581,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,7 +800,7 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+      <selection activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -817,50 +818,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="53" t="s">
+      <c r="H1" s="55" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="53"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="54"/>
+      <c r="J2" s="46"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
+      <c r="A3" s="52">
+        <v>1</v>
+      </c>
+      <c r="B3" s="59" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="33">
@@ -882,7 +883,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44"/>
-      <c r="B4" s="46"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="33">
         <v>44018</v>
       </c>
@@ -902,7 +903,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44"/>
-      <c r="B5" s="46"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="33">
         <v>44019</v>
       </c>
@@ -922,7 +923,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44"/>
-      <c r="B6" s="46"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="33">
         <v>44020</v>
       </c>
@@ -942,7 +943,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="44"/>
-      <c r="B7" s="46"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="33">
         <v>44022</v>
       </c>
@@ -962,7 +963,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="44"/>
-      <c r="B8" s="46"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="33">
         <v>44024</v>
       </c>
@@ -982,7 +983,7 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="44"/>
-      <c r="B9" s="46"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="33">
         <v>44026</v>
       </c>
@@ -1002,7 +1003,7 @@
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="44"/>
-      <c r="B10" s="46"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="33">
         <v>44028</v>
       </c>
@@ -1022,7 +1023,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="44"/>
-      <c r="B11" s="46"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="33">
         <v>44030</v>
       </c>
@@ -1042,7 +1043,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="44"/>
-      <c r="B12" s="46"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="33">
         <v>44032</v>
       </c>
@@ -1062,7 +1063,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="44"/>
-      <c r="B13" s="46"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="33">
         <v>44034</v>
       </c>
@@ -1082,7 +1083,7 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="44"/>
-      <c r="B14" s="46"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="33">
         <v>44036</v>
       </c>
@@ -1102,7 +1103,7 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="44"/>
-      <c r="B15" s="46"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="33">
         <v>44038</v>
       </c>
@@ -1122,7 +1123,7 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="44"/>
-      <c r="B16" s="47"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="33">
         <v>44040</v>
       </c>
@@ -1141,10 +1142,10 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="48">
-        <v>2</v>
-      </c>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="43">
+        <v>2</v>
+      </c>
+      <c r="B17" s="62" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="33">
@@ -1166,7 +1167,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="44"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="63"/>
       <c r="C18" s="33">
         <v>44018</v>
       </c>
@@ -1186,7 +1187,7 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="44"/>
-      <c r="B19" s="50"/>
+      <c r="B19" s="63"/>
       <c r="C19" s="33">
         <v>44019</v>
       </c>
@@ -1206,7 +1207,7 @@
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="44"/>
-      <c r="B20" s="50"/>
+      <c r="B20" s="63"/>
       <c r="C20" s="33">
         <v>44020</v>
       </c>
@@ -1226,7 +1227,7 @@
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="44"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="63"/>
       <c r="C21" s="33">
         <v>44022</v>
       </c>
@@ -1246,7 +1247,7 @@
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="44"/>
-      <c r="B22" s="50"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="33">
         <v>44024</v>
       </c>
@@ -1266,7 +1267,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="44"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="33">
         <v>44026</v>
       </c>
@@ -1286,7 +1287,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="44"/>
-      <c r="B24" s="50"/>
+      <c r="B24" s="63"/>
       <c r="C24" s="33">
         <v>44028</v>
       </c>
@@ -1306,7 +1307,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="44"/>
-      <c r="B25" s="50"/>
+      <c r="B25" s="63"/>
       <c r="C25" s="33">
         <v>44030</v>
       </c>
@@ -1326,7 +1327,7 @@
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="44"/>
-      <c r="B26" s="50"/>
+      <c r="B26" s="63"/>
       <c r="C26" s="33">
         <v>44032</v>
       </c>
@@ -1346,7 +1347,7 @@
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="44"/>
-      <c r="B27" s="50"/>
+      <c r="B27" s="63"/>
       <c r="C27" s="33">
         <v>44034</v>
       </c>
@@ -1366,7 +1367,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="44"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="63"/>
       <c r="C28" s="33">
         <v>44036</v>
       </c>
@@ -1386,7 +1387,7 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="44"/>
-      <c r="B29" s="50"/>
+      <c r="B29" s="63"/>
       <c r="C29" s="33">
         <v>44038</v>
       </c>
@@ -1406,7 +1407,7 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="44"/>
-      <c r="B30" s="51"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="33">
         <v>44040</v>
       </c>
@@ -1425,10 +1426,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="43">
+      <c r="A31" s="52">
         <v>3</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="65" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="33">
@@ -1450,7 +1451,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="44"/>
-      <c r="B32" s="46"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="33">
         <v>44018</v>
       </c>
@@ -1470,7 +1471,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="44"/>
-      <c r="B33" s="46"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="33">
         <v>44019</v>
       </c>
@@ -1490,7 +1491,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="44"/>
-      <c r="B34" s="46"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="33">
         <v>44020</v>
       </c>
@@ -1510,7 +1511,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="44"/>
-      <c r="B35" s="46"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="33">
         <v>44022</v>
       </c>
@@ -1530,7 +1531,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="44"/>
-      <c r="B36" s="46"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="33">
         <v>44024</v>
       </c>
@@ -1550,7 +1551,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="44"/>
-      <c r="B37" s="46"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="33">
         <v>44026</v>
       </c>
@@ -1570,7 +1571,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="44"/>
-      <c r="B38" s="46"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="33">
         <v>44028</v>
       </c>
@@ -1590,7 +1591,7 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="44"/>
-      <c r="B39" s="46"/>
+      <c r="B39" s="60"/>
       <c r="C39" s="33">
         <v>44030</v>
       </c>
@@ -1610,7 +1611,7 @@
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="44"/>
-      <c r="B40" s="46"/>
+      <c r="B40" s="60"/>
       <c r="C40" s="33">
         <v>44032</v>
       </c>
@@ -1630,7 +1631,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="44"/>
-      <c r="B41" s="46"/>
+      <c r="B41" s="60"/>
       <c r="C41" s="33">
         <v>44034</v>
       </c>
@@ -1650,7 +1651,7 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44"/>
-      <c r="B42" s="46"/>
+      <c r="B42" s="60"/>
       <c r="C42" s="33">
         <v>44036</v>
       </c>
@@ -1670,7 +1671,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
+      <c r="B43" s="60"/>
       <c r="C43" s="33">
         <v>44038</v>
       </c>
@@ -1690,7 +1691,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="44"/>
-      <c r="B44" s="47"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="33">
         <v>44040</v>
       </c>
@@ -1709,10 +1710,10 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48">
+      <c r="A45" s="43">
         <v>4</v>
       </c>
-      <c r="B45" s="58" t="s">
+      <c r="B45" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="33">
@@ -1974,7 +1975,7 @@
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="44"/>
-      <c r="B58" s="54"/>
+      <c r="B58" s="46"/>
       <c r="C58" s="33">
         <v>44040</v>
       </c>
@@ -1993,10 +1994,10 @@
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="43">
+      <c r="A59" s="52">
         <v>5</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="53" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="33">
@@ -2258,7 +2259,7 @@
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="44"/>
-      <c r="B72" s="54"/>
+      <c r="B72" s="46"/>
       <c r="C72" s="33">
         <v>44040</v>
       </c>
@@ -2277,10 +2278,10 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="48">
+      <c r="A73" s="43">
         <v>6</v>
       </c>
-      <c r="B73" s="58" t="s">
+      <c r="B73" s="45" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="33">
@@ -2542,7 +2543,7 @@
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44"/>
-      <c r="B86" s="54"/>
+      <c r="B86" s="46"/>
       <c r="C86" s="33">
         <v>44040</v>
       </c>
@@ -2561,10 +2562,10 @@
       <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="43">
+      <c r="A87" s="52">
         <v>7</v>
       </c>
-      <c r="B87" s="59" t="s">
+      <c r="B87" s="53" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="33">
@@ -2826,7 +2827,7 @@
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="44"/>
-      <c r="B100" s="54"/>
+      <c r="B100" s="46"/>
       <c r="C100" s="33">
         <v>44040</v>
       </c>
@@ -2845,10 +2846,10 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="48">
+      <c r="A101" s="43">
         <v>8</v>
       </c>
-      <c r="B101" s="58" t="s">
+      <c r="B101" s="45" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="39">
@@ -2971,16 +2972,16 @@
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
-      <c r="C107" s="33">
+      <c r="C107" s="39">
         <v>44026</v>
       </c>
-      <c r="D107" s="33">
+      <c r="D107" s="39">
         <v>44027</v>
       </c>
-      <c r="E107" s="3">
+      <c r="E107" s="41">
         <v>3</v>
       </c>
-      <c r="F107" s="8">
+      <c r="F107" s="66">
         <v>2</v>
       </c>
       <c r="G107" s="16"/>
@@ -3110,7 +3111,7 @@
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="44"/>
-      <c r="B114" s="54"/>
+      <c r="B114" s="46"/>
       <c r="C114" s="33">
         <v>44040</v>
       </c>
@@ -3129,10 +3130,10 @@
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43">
+      <c r="A115" s="52">
         <v>9</v>
       </c>
-      <c r="B115" s="60" t="s">
+      <c r="B115" s="54" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="33">
@@ -3154,7 +3155,7 @@
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="44"/>
-      <c r="B116" s="61"/>
+      <c r="B116" s="50"/>
       <c r="C116" s="33">
         <v>44018</v>
       </c>
@@ -3174,7 +3175,7 @@
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="44"/>
-      <c r="B117" s="61"/>
+      <c r="B117" s="50"/>
       <c r="C117" s="33">
         <v>44019</v>
       </c>
@@ -3194,7 +3195,7 @@
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="44"/>
-      <c r="B118" s="61"/>
+      <c r="B118" s="50"/>
       <c r="C118" s="33">
         <v>44020</v>
       </c>
@@ -3214,7 +3215,7 @@
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="44"/>
-      <c r="B119" s="61"/>
+      <c r="B119" s="50"/>
       <c r="C119" s="33">
         <v>44022</v>
       </c>
@@ -3234,7 +3235,7 @@
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="44"/>
-      <c r="B120" s="61"/>
+      <c r="B120" s="50"/>
       <c r="C120" s="33">
         <v>44024</v>
       </c>
@@ -3254,7 +3255,7 @@
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="44"/>
-      <c r="B121" s="61"/>
+      <c r="B121" s="50"/>
       <c r="C121" s="33">
         <v>44026</v>
       </c>
@@ -3274,7 +3275,7 @@
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="44"/>
-      <c r="B122" s="61"/>
+      <c r="B122" s="50"/>
       <c r="C122" s="33">
         <v>44028</v>
       </c>
@@ -3294,7 +3295,7 @@
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="44"/>
-      <c r="B123" s="61"/>
+      <c r="B123" s="50"/>
       <c r="C123" s="33">
         <v>44030</v>
       </c>
@@ -3314,7 +3315,7 @@
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="44"/>
-      <c r="B124" s="61"/>
+      <c r="B124" s="50"/>
       <c r="C124" s="33">
         <v>44032</v>
       </c>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="44"/>
-      <c r="B125" s="61"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="33">
         <v>44034</v>
       </c>
@@ -3354,7 +3355,7 @@
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="44"/>
-      <c r="B126" s="61"/>
+      <c r="B126" s="50"/>
       <c r="C126" s="33">
         <v>44036</v>
       </c>
@@ -3374,7 +3375,7 @@
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="44"/>
-      <c r="B127" s="61"/>
+      <c r="B127" s="50"/>
       <c r="C127" s="33">
         <v>44038</v>
       </c>
@@ -3394,7 +3395,7 @@
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="44"/>
-      <c r="B128" s="62"/>
+      <c r="B128" s="51"/>
       <c r="C128" s="33">
         <v>44040</v>
       </c>
@@ -3413,10 +3414,10 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="48">
+      <c r="A129" s="43">
         <v>10</v>
       </c>
-      <c r="B129" s="58" t="s">
+      <c r="B129" s="45" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="33">
@@ -3678,7 +3679,7 @@
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="44"/>
-      <c r="B142" s="54"/>
+      <c r="B142" s="46"/>
       <c r="C142" s="33">
         <v>44040</v>
       </c>
@@ -3697,10 +3698,10 @@
       <c r="J142" s="22"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="43">
+      <c r="A143" s="52">
         <v>11</v>
       </c>
-      <c r="B143" s="59" t="s">
+      <c r="B143" s="53" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="33">
@@ -3949,7 +3950,7 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="44"/>
-      <c r="B156" s="54"/>
+      <c r="B156" s="46"/>
       <c r="C156" s="33">
         <v>44040</v>
       </c>
@@ -3967,10 +3968,10 @@
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="48">
+      <c r="A157" s="43">
         <v>12</v>
       </c>
-      <c r="B157" s="58" t="s">
+      <c r="B157" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="33">
@@ -4232,7 +4233,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="44"/>
-      <c r="B170" s="54"/>
+      <c r="B170" s="46"/>
       <c r="C170" s="33">
         <v>44040</v>
       </c>
@@ -4251,10 +4252,10 @@
       <c r="J170" s="22"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="43">
+      <c r="A171" s="52">
         <v>13</v>
       </c>
-      <c r="B171" s="59" t="s">
+      <c r="B171" s="53" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33">
@@ -4503,7 +4504,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="44"/>
-      <c r="B184" s="54"/>
+      <c r="B184" s="46"/>
       <c r="C184" s="33">
         <v>44040</v>
       </c>
@@ -4521,10 +4522,10 @@
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="48">
+      <c r="A185" s="43">
         <v>14</v>
       </c>
-      <c r="B185" s="58" t="s">
+      <c r="B185" s="45" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="33">
@@ -4786,7 +4787,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="44"/>
-      <c r="B198" s="54"/>
+      <c r="B198" s="46"/>
       <c r="C198" s="33">
         <v>44040</v>
       </c>
@@ -4805,10 +4806,10 @@
       <c r="J198" s="22"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="43">
+      <c r="A199" s="52">
         <v>15</v>
       </c>
-      <c r="B199" s="59" t="s">
+      <c r="B199" s="53" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="33">
@@ -5057,7 +5058,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="44"/>
-      <c r="B212" s="54"/>
+      <c r="B212" s="46"/>
       <c r="C212" s="33">
         <v>44040</v>
       </c>
@@ -5075,10 +5076,10 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="48">
+      <c r="A213" s="43">
         <v>16</v>
       </c>
-      <c r="B213" s="58" t="s">
+      <c r="B213" s="45" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="33">
@@ -5340,7 +5341,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="44"/>
-      <c r="B226" s="54"/>
+      <c r="B226" s="46"/>
       <c r="C226" s="33">
         <v>44040</v>
       </c>
@@ -5359,10 +5360,10 @@
       <c r="J226" s="22"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="43">
+      <c r="A227" s="52">
         <v>17</v>
       </c>
-      <c r="B227" s="59" t="s">
+      <c r="B227" s="53" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="33">
@@ -5611,7 +5612,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="44"/>
-      <c r="B240" s="54"/>
+      <c r="B240" s="46"/>
       <c r="C240" s="33">
         <v>44040</v>
       </c>
@@ -5629,10 +5630,10 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="48">
+      <c r="A241" s="43">
         <v>18</v>
       </c>
-      <c r="B241" s="58" t="s">
+      <c r="B241" s="45" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="33">
@@ -5894,7 +5895,7 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="44"/>
-      <c r="B254" s="54"/>
+      <c r="B254" s="46"/>
       <c r="C254" s="33">
         <v>44040</v>
       </c>
@@ -5913,10 +5914,10 @@
       <c r="J254" s="22"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="63">
+      <c r="A255" s="47">
         <v>19</v>
       </c>
-      <c r="B255" s="65" t="s">
+      <c r="B255" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="33">
@@ -5936,8 +5937,8 @@
       <c r="I255" s="29"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="64"/>
-      <c r="B256" s="61"/>
+      <c r="A256" s="48"/>
+      <c r="B256" s="50"/>
       <c r="C256" s="33">
         <v>44018</v>
       </c>
@@ -5955,8 +5956,8 @@
       <c r="I256" s="7"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="64"/>
-      <c r="B257" s="61"/>
+      <c r="A257" s="48"/>
+      <c r="B257" s="50"/>
       <c r="C257" s="33">
         <v>44019</v>
       </c>
@@ -5974,8 +5975,8 @@
       <c r="I257" s="7"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="64"/>
-      <c r="B258" s="61"/>
+      <c r="A258" s="48"/>
+      <c r="B258" s="50"/>
       <c r="C258" s="33">
         <v>44020</v>
       </c>
@@ -5993,8 +5994,8 @@
       <c r="I258" s="7"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="64"/>
-      <c r="B259" s="61"/>
+      <c r="A259" s="48"/>
+      <c r="B259" s="50"/>
       <c r="C259" s="33">
         <v>44022</v>
       </c>
@@ -6012,8 +6013,8 @@
       <c r="I259" s="7"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="64"/>
-      <c r="B260" s="61"/>
+      <c r="A260" s="48"/>
+      <c r="B260" s="50"/>
       <c r="C260" s="33">
         <v>44024</v>
       </c>
@@ -6031,8 +6032,8 @@
       <c r="I260" s="7"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="64"/>
-      <c r="B261" s="61"/>
+      <c r="A261" s="48"/>
+      <c r="B261" s="50"/>
       <c r="C261" s="33">
         <v>44026</v>
       </c>
@@ -6050,8 +6051,8 @@
       <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="64"/>
-      <c r="B262" s="61"/>
+      <c r="A262" s="48"/>
+      <c r="B262" s="50"/>
       <c r="C262" s="33">
         <v>44028</v>
       </c>
@@ -6069,8 +6070,8 @@
       <c r="I262" s="7"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="64"/>
-      <c r="B263" s="61"/>
+      <c r="A263" s="48"/>
+      <c r="B263" s="50"/>
       <c r="C263" s="33">
         <v>44030</v>
       </c>
@@ -6088,8 +6089,8 @@
       <c r="I263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="64"/>
-      <c r="B264" s="61"/>
+      <c r="A264" s="48"/>
+      <c r="B264" s="50"/>
       <c r="C264" s="33">
         <v>44032</v>
       </c>
@@ -6107,8 +6108,8 @@
       <c r="I264" s="12"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="64"/>
-      <c r="B265" s="61"/>
+      <c r="A265" s="48"/>
+      <c r="B265" s="50"/>
       <c r="C265" s="33">
         <v>44034</v>
       </c>
@@ -6126,8 +6127,8 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="64"/>
-      <c r="B266" s="61"/>
+      <c r="A266" s="48"/>
+      <c r="B266" s="50"/>
       <c r="C266" s="33">
         <v>44036</v>
       </c>
@@ -6145,8 +6146,8 @@
       <c r="I266" s="12"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="64"/>
-      <c r="B267" s="61"/>
+      <c r="A267" s="48"/>
+      <c r="B267" s="50"/>
       <c r="C267" s="33">
         <v>44038</v>
       </c>
@@ -6164,8 +6165,8 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="64"/>
-      <c r="B268" s="62"/>
+      <c r="A268" s="48"/>
+      <c r="B268" s="51"/>
       <c r="C268" s="33">
         <v>44040</v>
       </c>
@@ -6455,6 +6456,43 @@
     <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
     <mergeCell ref="A241:A254"/>
     <mergeCell ref="B241:B254"/>
     <mergeCell ref="A255:A268"/>
@@ -6465,43 +6503,6 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="A227:A240"/>
     <mergeCell ref="B227:B240"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
+++ b/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
@@ -522,44 +522,11 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -568,6 +535,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -581,7 +551,37 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,7 +800,7 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C108" sqref="C108"/>
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -839,29 +839,29 @@
       <c r="G1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="54" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="55"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="46"/>
+      <c r="J2" s="55"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="52">
-        <v>1</v>
-      </c>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="44">
+        <v>1</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="33">
@@ -882,8 +882,8 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="60"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="33">
         <v>44018</v>
       </c>
@@ -902,8 +902,8 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="60"/>
+      <c r="A5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="33">
         <v>44019</v>
       </c>
@@ -922,8 +922,8 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="60"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="33">
         <v>44020</v>
       </c>
@@ -942,8 +942,8 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="60"/>
+      <c r="A7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="33">
         <v>44022</v>
       </c>
@@ -962,8 +962,8 @@
       <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="60"/>
+      <c r="A8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="33">
         <v>44024</v>
       </c>
@@ -982,8 +982,8 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="60"/>
+      <c r="A9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="33">
         <v>44026</v>
       </c>
@@ -1002,8 +1002,8 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="60"/>
+      <c r="A10" s="45"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="33">
         <v>44028</v>
       </c>
@@ -1022,8 +1022,8 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="60"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="33">
         <v>44030</v>
       </c>
@@ -1042,8 +1042,8 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="33">
         <v>44032</v>
       </c>
@@ -1062,8 +1062,8 @@
       <c r="J12" s="10"/>
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="33">
         <v>44034</v>
       </c>
@@ -1082,8 +1082,8 @@
       <c r="J13" s="10"/>
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="60"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="33">
         <v>44036</v>
       </c>
@@ -1102,8 +1102,8 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="60"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="33">
         <v>44038</v>
       </c>
@@ -1122,8 +1122,8 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44"/>
-      <c r="B16" s="61"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="33">
         <v>44040</v>
       </c>
@@ -1142,10 +1142,10 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>2</v>
-      </c>
-      <c r="B17" s="62" t="s">
+      <c r="A17" s="49">
+        <v>2</v>
+      </c>
+      <c r="B17" s="50" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="33">
@@ -1166,8 +1166,8 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="51"/>
       <c r="C18" s="33">
         <v>44018</v>
       </c>
@@ -1186,8 +1186,8 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="63"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="33">
         <v>44019</v>
       </c>
@@ -1206,8 +1206,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="33">
         <v>44020</v>
       </c>
@@ -1226,8 +1226,8 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="63"/>
+      <c r="A21" s="45"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="33">
         <v>44022</v>
       </c>
@@ -1246,8 +1246,8 @@
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="33">
         <v>44024</v>
       </c>
@@ -1266,8 +1266,8 @@
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="33">
         <v>44026</v>
       </c>
@@ -1286,8 +1286,8 @@
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="33">
         <v>44028</v>
       </c>
@@ -1306,8 +1306,8 @@
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="63"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="33">
         <v>44030</v>
       </c>
@@ -1326,8 +1326,8 @@
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="33">
         <v>44032</v>
       </c>
@@ -1346,8 +1346,8 @@
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="63"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="33">
         <v>44034</v>
       </c>
@@ -1366,8 +1366,8 @@
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="33">
         <v>44036</v>
       </c>
@@ -1386,8 +1386,8 @@
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="63"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="33">
         <v>44038</v>
       </c>
@@ -1406,8 +1406,8 @@
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="64"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="52"/>
       <c r="C30" s="33">
         <v>44040</v>
       </c>
@@ -1426,10 +1426,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="52">
+      <c r="A31" s="44">
         <v>3</v>
       </c>
-      <c r="B31" s="65" t="s">
+      <c r="B31" s="53" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="33">
@@ -1450,8 +1450,8 @@
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
       <c r="C32" s="33">
         <v>44018</v>
       </c>
@@ -1470,8 +1470,8 @@
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="60"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="33">
         <v>44019</v>
       </c>
@@ -1490,8 +1490,8 @@
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="33">
         <v>44020</v>
       </c>
@@ -1510,8 +1510,8 @@
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="60"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
       <c r="C35" s="33">
         <v>44022</v>
       </c>
@@ -1530,8 +1530,8 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="45"/>
+      <c r="B36" s="47"/>
       <c r="C36" s="33">
         <v>44024</v>
       </c>
@@ -1550,8 +1550,8 @@
       <c r="J36" s="6"/>
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="60"/>
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
       <c r="C37" s="33">
         <v>44026</v>
       </c>
@@ -1570,8 +1570,8 @@
       <c r="J37" s="6"/>
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="45"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="33">
         <v>44028</v>
       </c>
@@ -1590,8 +1590,8 @@
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="60"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
       <c r="C39" s="33">
         <v>44030</v>
       </c>
@@ -1610,8 +1610,8 @@
       <c r="J39" s="10"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="45"/>
+      <c r="B40" s="47"/>
       <c r="C40" s="33">
         <v>44032</v>
       </c>
@@ -1630,8 +1630,8 @@
       <c r="J40" s="10"/>
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="60"/>
+      <c r="A41" s="45"/>
+      <c r="B41" s="47"/>
       <c r="C41" s="33">
         <v>44034</v>
       </c>
@@ -1650,8 +1650,8 @@
       <c r="J41" s="10"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="45"/>
+      <c r="B42" s="47"/>
       <c r="C42" s="33">
         <v>44036</v>
       </c>
@@ -1670,8 +1670,8 @@
       <c r="J42" s="10"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="60"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="47"/>
       <c r="C43" s="33">
         <v>44038</v>
       </c>
@@ -1690,8 +1690,8 @@
       <c r="J43" s="10"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="61"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="33">
         <v>44040</v>
       </c>
@@ -1710,10 +1710,10 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43">
+      <c r="A45" s="49">
         <v>4</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="59" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="33">
@@ -1734,8 +1734,8 @@
       <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
       <c r="C46" s="33">
         <v>44018</v>
       </c>
@@ -1754,8 +1754,8 @@
       <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="44"/>
-      <c r="B47" s="44"/>
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="33">
         <v>44019</v>
       </c>
@@ -1774,8 +1774,8 @@
       <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="44"/>
-      <c r="B48" s="44"/>
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
       <c r="C48" s="33">
         <v>44020</v>
       </c>
@@ -1794,8 +1794,8 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
+      <c r="A49" s="45"/>
+      <c r="B49" s="45"/>
       <c r="C49" s="33">
         <v>44022</v>
       </c>
@@ -1814,8 +1814,8 @@
       <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="44"/>
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="33">
         <v>44024</v>
       </c>
@@ -1834,8 +1834,8 @@
       <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="44"/>
+      <c r="A51" s="45"/>
+      <c r="B51" s="45"/>
       <c r="C51" s="33">
         <v>44026</v>
       </c>
@@ -1854,8 +1854,8 @@
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="44"/>
+      <c r="A52" s="45"/>
+      <c r="B52" s="45"/>
       <c r="C52" s="33">
         <v>44028</v>
       </c>
@@ -1874,8 +1874,8 @@
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="44"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="45"/>
       <c r="C53" s="33">
         <v>44030</v>
       </c>
@@ -1894,8 +1894,8 @@
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="44"/>
-      <c r="B54" s="44"/>
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
       <c r="C54" s="33">
         <v>44032</v>
       </c>
@@ -1914,8 +1914,8 @@
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="44"/>
+      <c r="A55" s="45"/>
+      <c r="B55" s="45"/>
       <c r="C55" s="33">
         <v>44034</v>
       </c>
@@ -1934,8 +1934,8 @@
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="44"/>
+      <c r="A56" s="45"/>
+      <c r="B56" s="45"/>
       <c r="C56" s="33">
         <v>44036</v>
       </c>
@@ -1954,8 +1954,8 @@
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="44"/>
+      <c r="A57" s="45"/>
+      <c r="B57" s="45"/>
       <c r="C57" s="33">
         <v>44038</v>
       </c>
@@ -1974,8 +1974,8 @@
       <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="45"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="33">
         <v>44040</v>
       </c>
@@ -1994,10 +1994,10 @@
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="52">
+      <c r="A59" s="44">
         <v>5</v>
       </c>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="60" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="33">
@@ -2018,8 +2018,8 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="44"/>
-      <c r="B60" s="44"/>
+      <c r="A60" s="45"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="33">
         <v>44018</v>
       </c>
@@ -2038,8 +2038,8 @@
       <c r="J60" s="6"/>
     </row>
     <row r="61" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="44"/>
+      <c r="A61" s="45"/>
+      <c r="B61" s="45"/>
       <c r="C61" s="33">
         <v>44019</v>
       </c>
@@ -2058,8 +2058,8 @@
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="44"/>
+      <c r="A62" s="45"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="33">
         <v>44020</v>
       </c>
@@ -2078,8 +2078,8 @@
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="44"/>
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="33">
         <v>44022</v>
       </c>
@@ -2098,8 +2098,8 @@
       <c r="J63" s="6"/>
     </row>
     <row r="64" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="45"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="33">
         <v>44024</v>
       </c>
@@ -2118,8 +2118,8 @@
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="44"/>
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
       <c r="C65" s="33">
         <v>44026</v>
       </c>
@@ -2138,8 +2138,8 @@
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="45"/>
+      <c r="B66" s="45"/>
       <c r="C66" s="33">
         <v>44028</v>
       </c>
@@ -2158,8 +2158,8 @@
       <c r="J66" s="6"/>
     </row>
     <row r="67" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="44"/>
-      <c r="B67" s="44"/>
+      <c r="A67" s="45"/>
+      <c r="B67" s="45"/>
       <c r="C67" s="33">
         <v>44030</v>
       </c>
@@ -2178,8 +2178,8 @@
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="45"/>
+      <c r="B68" s="45"/>
       <c r="C68" s="33">
         <v>44032</v>
       </c>
@@ -2198,8 +2198,8 @@
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="44"/>
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
       <c r="C69" s="33">
         <v>44034</v>
       </c>
@@ -2218,8 +2218,8 @@
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="33">
         <v>44036</v>
       </c>
@@ -2238,8 +2238,8 @@
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="44"/>
-      <c r="B71" s="44"/>
+      <c r="A71" s="45"/>
+      <c r="B71" s="45"/>
       <c r="C71" s="33">
         <v>44038</v>
       </c>
@@ -2258,8 +2258,8 @@
       <c r="J71" s="6"/>
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="44"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="45"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="33">
         <v>44040</v>
       </c>
@@ -2278,10 +2278,10 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="43">
+      <c r="A73" s="49">
         <v>6</v>
       </c>
-      <c r="B73" s="45" t="s">
+      <c r="B73" s="59" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="33">
@@ -2302,8 +2302,8 @@
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="45"/>
+      <c r="B74" s="45"/>
       <c r="C74" s="33">
         <v>44018</v>
       </c>
@@ -2322,8 +2322,8 @@
       <c r="J74" s="20"/>
     </row>
     <row r="75" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="44"/>
-      <c r="B75" s="44"/>
+      <c r="A75" s="45"/>
+      <c r="B75" s="45"/>
       <c r="C75" s="33">
         <v>44019</v>
       </c>
@@ -2342,8 +2342,8 @@
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="45"/>
+      <c r="B76" s="45"/>
       <c r="C76" s="33">
         <v>44020</v>
       </c>
@@ -2362,8 +2362,8 @@
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
+      <c r="A77" s="45"/>
+      <c r="B77" s="45"/>
       <c r="C77" s="33">
         <v>44022</v>
       </c>
@@ -2382,8 +2382,8 @@
       <c r="J77" s="20"/>
     </row>
     <row r="78" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="45"/>
+      <c r="B78" s="45"/>
       <c r="C78" s="33">
         <v>44024</v>
       </c>
@@ -2402,8 +2402,8 @@
       <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="44"/>
-      <c r="B79" s="44"/>
+      <c r="A79" s="45"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="33">
         <v>44026</v>
       </c>
@@ -2422,8 +2422,8 @@
       <c r="J79" s="22"/>
     </row>
     <row r="80" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="44"/>
-      <c r="B80" s="44"/>
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
       <c r="C80" s="33">
         <v>44028</v>
       </c>
@@ -2442,8 +2442,8 @@
       <c r="J80" s="22"/>
     </row>
     <row r="81" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="44"/>
-      <c r="B81" s="44"/>
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="33">
         <v>44030</v>
       </c>
@@ -2462,8 +2462,8 @@
       <c r="J81" s="22"/>
     </row>
     <row r="82" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="44"/>
-      <c r="B82" s="44"/>
+      <c r="A82" s="45"/>
+      <c r="B82" s="45"/>
       <c r="C82" s="33">
         <v>44032</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="J82" s="22"/>
     </row>
     <row r="83" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="44"/>
-      <c r="B83" s="44"/>
+      <c r="A83" s="45"/>
+      <c r="B83" s="45"/>
       <c r="C83" s="33">
         <v>44034</v>
       </c>
@@ -2502,8 +2502,8 @@
       <c r="J83" s="22"/>
     </row>
     <row r="84" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="44"/>
-      <c r="B84" s="44"/>
+      <c r="A84" s="45"/>
+      <c r="B84" s="45"/>
       <c r="C84" s="33">
         <v>44036</v>
       </c>
@@ -2522,8 +2522,8 @@
       <c r="J84" s="22"/>
     </row>
     <row r="85" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="44"/>
-      <c r="B85" s="44"/>
+      <c r="A85" s="45"/>
+      <c r="B85" s="45"/>
       <c r="C85" s="33">
         <v>44038</v>
       </c>
@@ -2542,8 +2542,8 @@
       <c r="J85" s="22"/>
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="44"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="45"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="33">
         <v>44040</v>
       </c>
@@ -2562,10 +2562,10 @@
       <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="52">
+      <c r="A87" s="44">
         <v>7</v>
       </c>
-      <c r="B87" s="53" t="s">
+      <c r="B87" s="60" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="33">
@@ -2586,8 +2586,8 @@
       <c r="J87" s="6"/>
     </row>
     <row r="88" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="44"/>
-      <c r="B88" s="44"/>
+      <c r="A88" s="45"/>
+      <c r="B88" s="45"/>
       <c r="C88" s="33">
         <v>44018</v>
       </c>
@@ -2606,8 +2606,8 @@
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="44"/>
-      <c r="B89" s="44"/>
+      <c r="A89" s="45"/>
+      <c r="B89" s="45"/>
       <c r="C89" s="33">
         <v>44019</v>
       </c>
@@ -2626,8 +2626,8 @@
       <c r="J89" s="6"/>
     </row>
     <row r="90" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="44"/>
-      <c r="B90" s="44"/>
+      <c r="A90" s="45"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="33">
         <v>44020</v>
       </c>
@@ -2646,8 +2646,8 @@
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="44"/>
-      <c r="B91" s="44"/>
+      <c r="A91" s="45"/>
+      <c r="B91" s="45"/>
       <c r="C91" s="33">
         <v>44022</v>
       </c>
@@ -2666,8 +2666,8 @@
       <c r="J91" s="6"/>
     </row>
     <row r="92" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="44"/>
-      <c r="B92" s="44"/>
+      <c r="A92" s="45"/>
+      <c r="B92" s="45"/>
       <c r="C92" s="33">
         <v>44024</v>
       </c>
@@ -2686,8 +2686,8 @@
       <c r="J92" s="6"/>
     </row>
     <row r="93" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="44"/>
-      <c r="B93" s="44"/>
+      <c r="A93" s="45"/>
+      <c r="B93" s="45"/>
       <c r="C93" s="33">
         <v>44026</v>
       </c>
@@ -2706,8 +2706,8 @@
       <c r="J93" s="10"/>
     </row>
     <row r="94" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="44"/>
-      <c r="B94" s="44"/>
+      <c r="A94" s="45"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="33">
         <v>44028</v>
       </c>
@@ -2726,8 +2726,8 @@
       <c r="J94" s="10"/>
     </row>
     <row r="95" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="44"/>
-      <c r="B95" s="44"/>
+      <c r="A95" s="45"/>
+      <c r="B95" s="45"/>
       <c r="C95" s="33">
         <v>44030</v>
       </c>
@@ -2746,8 +2746,8 @@
       <c r="J95" s="10"/>
     </row>
     <row r="96" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="44"/>
-      <c r="B96" s="44"/>
+      <c r="A96" s="45"/>
+      <c r="B96" s="45"/>
       <c r="C96" s="33">
         <v>44032</v>
       </c>
@@ -2766,8 +2766,8 @@
       <c r="J96" s="10"/>
     </row>
     <row r="97" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="44"/>
-      <c r="B97" s="44"/>
+      <c r="A97" s="45"/>
+      <c r="B97" s="45"/>
       <c r="C97" s="33">
         <v>44034</v>
       </c>
@@ -2786,8 +2786,8 @@
       <c r="J97" s="10"/>
     </row>
     <row r="98" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="44"/>
-      <c r="B98" s="44"/>
+      <c r="A98" s="45"/>
+      <c r="B98" s="45"/>
       <c r="C98" s="33">
         <v>44036</v>
       </c>
@@ -2806,8 +2806,8 @@
       <c r="J98" s="10"/>
     </row>
     <row r="99" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="44"/>
-      <c r="B99" s="44"/>
+      <c r="A99" s="45"/>
+      <c r="B99" s="45"/>
       <c r="C99" s="33">
         <v>44038</v>
       </c>
@@ -2826,8 +2826,8 @@
       <c r="J99" s="10"/>
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="44"/>
-      <c r="B100" s="46"/>
+      <c r="A100" s="45"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="33">
         <v>44040</v>
       </c>
@@ -2846,10 +2846,10 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="43">
+      <c r="A101" s="49">
         <v>8</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="59" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="39">
@@ -2870,8 +2870,8 @@
       <c r="J101" s="20"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="44"/>
-      <c r="B102" s="44"/>
+      <c r="A102" s="45"/>
+      <c r="B102" s="45"/>
       <c r="C102" s="39">
         <v>44018</v>
       </c>
@@ -2890,8 +2890,8 @@
       <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="44"/>
-      <c r="B103" s="44"/>
+      <c r="A103" s="45"/>
+      <c r="B103" s="45"/>
       <c r="C103" s="39">
         <v>44019</v>
       </c>
@@ -2910,8 +2910,8 @@
       <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="44"/>
-      <c r="B104" s="44"/>
+      <c r="A104" s="45"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="39">
         <v>44020</v>
       </c>
@@ -2930,8 +2930,8 @@
       <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="44"/>
-      <c r="B105" s="44"/>
+      <c r="A105" s="45"/>
+      <c r="B105" s="45"/>
       <c r="C105" s="39">
         <v>44022</v>
       </c>
@@ -2950,8 +2950,8 @@
       <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="44"/>
-      <c r="B106" s="44"/>
+      <c r="A106" s="45"/>
+      <c r="B106" s="45"/>
       <c r="C106" s="39">
         <v>44024</v>
       </c>
@@ -2970,8 +2970,8 @@
       <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="44"/>
-      <c r="B107" s="44"/>
+      <c r="A107" s="45"/>
+      <c r="B107" s="45"/>
       <c r="C107" s="39">
         <v>44026</v>
       </c>
@@ -2981,7 +2981,7 @@
       <c r="E107" s="41">
         <v>3</v>
       </c>
-      <c r="F107" s="66">
+      <c r="F107" s="43">
         <v>2</v>
       </c>
       <c r="G107" s="16"/>
@@ -2990,18 +2990,18 @@
       <c r="J107" s="22"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="44"/>
-      <c r="B108" s="44"/>
-      <c r="C108" s="33">
+      <c r="A108" s="45"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="39">
         <v>44028</v>
       </c>
-      <c r="D108" s="33">
+      <c r="D108" s="39">
         <v>44029</v>
       </c>
-      <c r="E108" s="3">
+      <c r="E108" s="41">
         <v>4</v>
       </c>
-      <c r="F108" s="3">
+      <c r="F108" s="41">
         <v>1</v>
       </c>
       <c r="G108" s="16"/>
@@ -3010,18 +3010,18 @@
       <c r="J108" s="22"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="44"/>
-      <c r="B109" s="44"/>
-      <c r="C109" s="33">
+      <c r="A109" s="45"/>
+      <c r="B109" s="45"/>
+      <c r="C109" s="39">
         <v>44030</v>
       </c>
-      <c r="D109" s="33">
+      <c r="D109" s="39">
         <v>44031</v>
       </c>
-      <c r="E109" s="3">
+      <c r="E109" s="41">
         <v>4</v>
       </c>
-      <c r="F109" s="3">
+      <c r="F109" s="41">
         <v>2</v>
       </c>
       <c r="G109" s="16"/>
@@ -3030,8 +3030,8 @@
       <c r="J109" s="22"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="44"/>
-      <c r="B110" s="44"/>
+      <c r="A110" s="45"/>
+      <c r="B110" s="45"/>
       <c r="C110" s="33">
         <v>44032</v>
       </c>
@@ -3050,8 +3050,8 @@
       <c r="J110" s="22"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="44"/>
-      <c r="B111" s="44"/>
+      <c r="A111" s="45"/>
+      <c r="B111" s="45"/>
       <c r="C111" s="33">
         <v>44034</v>
       </c>
@@ -3070,8 +3070,8 @@
       <c r="J111" s="22"/>
     </row>
     <row r="112" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="44"/>
-      <c r="B112" s="44"/>
+      <c r="A112" s="45"/>
+      <c r="B112" s="45"/>
       <c r="C112" s="33">
         <v>44036</v>
       </c>
@@ -3090,8 +3090,8 @@
       <c r="J112" s="22"/>
     </row>
     <row r="113" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="44"/>
-      <c r="B113" s="44"/>
+      <c r="A113" s="45"/>
+      <c r="B113" s="45"/>
       <c r="C113" s="33">
         <v>44038</v>
       </c>
@@ -3110,8 +3110,8 @@
       <c r="J113" s="22"/>
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="44"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="45"/>
+      <c r="B114" s="55"/>
       <c r="C114" s="33">
         <v>44040</v>
       </c>
@@ -3130,10 +3130,10 @@
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="52">
+      <c r="A115" s="44">
         <v>9</v>
       </c>
-      <c r="B115" s="54" t="s">
+      <c r="B115" s="61" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="33">
@@ -3154,8 +3154,8 @@
       <c r="J115" s="6"/>
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="44"/>
-      <c r="B116" s="50"/>
+      <c r="A116" s="45"/>
+      <c r="B116" s="62"/>
       <c r="C116" s="33">
         <v>44018</v>
       </c>
@@ -3174,8 +3174,8 @@
       <c r="J116" s="6"/>
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="44"/>
-      <c r="B117" s="50"/>
+      <c r="A117" s="45"/>
+      <c r="B117" s="62"/>
       <c r="C117" s="33">
         <v>44019</v>
       </c>
@@ -3194,8 +3194,8 @@
       <c r="J117" s="6"/>
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="44"/>
-      <c r="B118" s="50"/>
+      <c r="A118" s="45"/>
+      <c r="B118" s="62"/>
       <c r="C118" s="33">
         <v>44020</v>
       </c>
@@ -3214,8 +3214,8 @@
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="44"/>
-      <c r="B119" s="50"/>
+      <c r="A119" s="45"/>
+      <c r="B119" s="62"/>
       <c r="C119" s="33">
         <v>44022</v>
       </c>
@@ -3234,8 +3234,8 @@
       <c r="J119" s="6"/>
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="44"/>
-      <c r="B120" s="50"/>
+      <c r="A120" s="45"/>
+      <c r="B120" s="62"/>
       <c r="C120" s="33">
         <v>44024</v>
       </c>
@@ -3254,8 +3254,8 @@
       <c r="J120" s="6"/>
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="44"/>
-      <c r="B121" s="50"/>
+      <c r="A121" s="45"/>
+      <c r="B121" s="62"/>
       <c r="C121" s="33">
         <v>44026</v>
       </c>
@@ -3274,8 +3274,8 @@
       <c r="J121" s="10"/>
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="44"/>
-      <c r="B122" s="50"/>
+      <c r="A122" s="45"/>
+      <c r="B122" s="62"/>
       <c r="C122" s="33">
         <v>44028</v>
       </c>
@@ -3294,8 +3294,8 @@
       <c r="J122" s="10"/>
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="44"/>
-      <c r="B123" s="50"/>
+      <c r="A123" s="45"/>
+      <c r="B123" s="62"/>
       <c r="C123" s="33">
         <v>44030</v>
       </c>
@@ -3314,8 +3314,8 @@
       <c r="J123" s="10"/>
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="44"/>
-      <c r="B124" s="50"/>
+      <c r="A124" s="45"/>
+      <c r="B124" s="62"/>
       <c r="C124" s="33">
         <v>44032</v>
       </c>
@@ -3334,8 +3334,8 @@
       <c r="J124" s="10"/>
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="44"/>
-      <c r="B125" s="50"/>
+      <c r="A125" s="45"/>
+      <c r="B125" s="62"/>
       <c r="C125" s="33">
         <v>44034</v>
       </c>
@@ -3354,8 +3354,8 @@
       <c r="J125" s="10"/>
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="44"/>
-      <c r="B126" s="50"/>
+      <c r="A126" s="45"/>
+      <c r="B126" s="62"/>
       <c r="C126" s="33">
         <v>44036</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="J126" s="10"/>
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="44"/>
-      <c r="B127" s="50"/>
+      <c r="A127" s="45"/>
+      <c r="B127" s="62"/>
       <c r="C127" s="33">
         <v>44038</v>
       </c>
@@ -3394,8 +3394,8 @@
       <c r="J127" s="10"/>
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="44"/>
-      <c r="B128" s="51"/>
+      <c r="A128" s="45"/>
+      <c r="B128" s="63"/>
       <c r="C128" s="33">
         <v>44040</v>
       </c>
@@ -3414,10 +3414,10 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="43">
+      <c r="A129" s="49">
         <v>10</v>
       </c>
-      <c r="B129" s="45" t="s">
+      <c r="B129" s="59" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="33">
@@ -3438,8 +3438,8 @@
       <c r="J129" s="20"/>
     </row>
     <row r="130" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="44"/>
-      <c r="B130" s="44"/>
+      <c r="A130" s="45"/>
+      <c r="B130" s="45"/>
       <c r="C130" s="33">
         <v>44018</v>
       </c>
@@ -3458,8 +3458,8 @@
       <c r="J130" s="20"/>
     </row>
     <row r="131" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="44"/>
-      <c r="B131" s="44"/>
+      <c r="A131" s="45"/>
+      <c r="B131" s="45"/>
       <c r="C131" s="33">
         <v>44019</v>
       </c>
@@ -3478,8 +3478,8 @@
       <c r="J131" s="20"/>
     </row>
     <row r="132" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="44"/>
-      <c r="B132" s="44"/>
+      <c r="A132" s="45"/>
+      <c r="B132" s="45"/>
       <c r="C132" s="33">
         <v>44020</v>
       </c>
@@ -3498,8 +3498,8 @@
       <c r="J132" s="20"/>
     </row>
     <row r="133" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="44"/>
-      <c r="B133" s="44"/>
+      <c r="A133" s="45"/>
+      <c r="B133" s="45"/>
       <c r="C133" s="33">
         <v>44022</v>
       </c>
@@ -3518,8 +3518,8 @@
       <c r="J133" s="20"/>
     </row>
     <row r="134" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="44"/>
-      <c r="B134" s="44"/>
+      <c r="A134" s="45"/>
+      <c r="B134" s="45"/>
       <c r="C134" s="33">
         <v>44024</v>
       </c>
@@ -3538,8 +3538,8 @@
       <c r="J134" s="20"/>
     </row>
     <row r="135" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44"/>
-      <c r="B135" s="44"/>
+      <c r="A135" s="45"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="33">
         <v>44026</v>
       </c>
@@ -3558,8 +3558,8 @@
       <c r="J135" s="22"/>
     </row>
     <row r="136" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="44"/>
-      <c r="B136" s="44"/>
+      <c r="A136" s="45"/>
+      <c r="B136" s="45"/>
       <c r="C136" s="33">
         <v>44028</v>
       </c>
@@ -3578,8 +3578,8 @@
       <c r="J136" s="22"/>
     </row>
     <row r="137" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44"/>
-      <c r="B137" s="44"/>
+      <c r="A137" s="45"/>
+      <c r="B137" s="45"/>
       <c r="C137" s="33">
         <v>44030</v>
       </c>
@@ -3598,8 +3598,8 @@
       <c r="J137" s="22"/>
     </row>
     <row r="138" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44"/>
-      <c r="B138" s="44"/>
+      <c r="A138" s="45"/>
+      <c r="B138" s="45"/>
       <c r="C138" s="33">
         <v>44032</v>
       </c>
@@ -3618,8 +3618,8 @@
       <c r="J138" s="22"/>
     </row>
     <row r="139" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44"/>
-      <c r="B139" s="44"/>
+      <c r="A139" s="45"/>
+      <c r="B139" s="45"/>
       <c r="C139" s="33">
         <v>44034</v>
       </c>
@@ -3638,8 +3638,8 @@
       <c r="J139" s="22"/>
     </row>
     <row r="140" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44"/>
-      <c r="B140" s="44"/>
+      <c r="A140" s="45"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="33">
         <v>44036</v>
       </c>
@@ -3658,8 +3658,8 @@
       <c r="J140" s="22"/>
     </row>
     <row r="141" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44"/>
-      <c r="B141" s="44"/>
+      <c r="A141" s="45"/>
+      <c r="B141" s="45"/>
       <c r="C141" s="33">
         <v>44038</v>
       </c>
@@ -3678,8 +3678,8 @@
       <c r="J141" s="22"/>
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="44"/>
-      <c r="B142" s="46"/>
+      <c r="A142" s="45"/>
+      <c r="B142" s="55"/>
       <c r="C142" s="33">
         <v>44040</v>
       </c>
@@ -3698,10 +3698,10 @@
       <c r="J142" s="22"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="52">
+      <c r="A143" s="44">
         <v>11</v>
       </c>
-      <c r="B143" s="53" t="s">
+      <c r="B143" s="60" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="33">
@@ -3721,8 +3721,8 @@
       <c r="I143" s="5"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="44"/>
-      <c r="B144" s="44"/>
+      <c r="A144" s="45"/>
+      <c r="B144" s="45"/>
       <c r="C144" s="33">
         <v>44018</v>
       </c>
@@ -3740,8 +3740,8 @@
       <c r="I144" s="7"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="44"/>
-      <c r="B145" s="44"/>
+      <c r="A145" s="45"/>
+      <c r="B145" s="45"/>
       <c r="C145" s="33">
         <v>44019</v>
       </c>
@@ -3759,8 +3759,8 @@
       <c r="I145" s="7"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="44"/>
-      <c r="B146" s="44"/>
+      <c r="A146" s="45"/>
+      <c r="B146" s="45"/>
       <c r="C146" s="33">
         <v>44020</v>
       </c>
@@ -3778,8 +3778,8 @@
       <c r="I146" s="7"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="44"/>
-      <c r="B147" s="44"/>
+      <c r="A147" s="45"/>
+      <c r="B147" s="45"/>
       <c r="C147" s="33">
         <v>44022</v>
       </c>
@@ -3797,8 +3797,8 @@
       <c r="I147" s="7"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="44"/>
-      <c r="B148" s="44"/>
+      <c r="A148" s="45"/>
+      <c r="B148" s="45"/>
       <c r="C148" s="33">
         <v>44024</v>
       </c>
@@ -3816,8 +3816,8 @@
       <c r="I148" s="7"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="44"/>
-      <c r="B149" s="44"/>
+      <c r="A149" s="45"/>
+      <c r="B149" s="45"/>
       <c r="C149" s="33">
         <v>44026</v>
       </c>
@@ -3835,8 +3835,8 @@
       <c r="I149" s="7"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="44"/>
-      <c r="B150" s="44"/>
+      <c r="A150" s="45"/>
+      <c r="B150" s="45"/>
       <c r="C150" s="33">
         <v>44028</v>
       </c>
@@ -3854,8 +3854,8 @@
       <c r="I150" s="7"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="44"/>
-      <c r="B151" s="44"/>
+      <c r="A151" s="45"/>
+      <c r="B151" s="45"/>
       <c r="C151" s="33">
         <v>44030</v>
       </c>
@@ -3873,8 +3873,8 @@
       <c r="I151" s="7"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="44"/>
-      <c r="B152" s="44"/>
+      <c r="A152" s="45"/>
+      <c r="B152" s="45"/>
       <c r="C152" s="33">
         <v>44032</v>
       </c>
@@ -3892,8 +3892,8 @@
       <c r="I152" s="12"/>
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="44"/>
-      <c r="B153" s="44"/>
+      <c r="A153" s="45"/>
+      <c r="B153" s="45"/>
       <c r="C153" s="33">
         <v>44034</v>
       </c>
@@ -3911,8 +3911,8 @@
       <c r="I153" s="12"/>
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="44"/>
-      <c r="B154" s="44"/>
+      <c r="A154" s="45"/>
+      <c r="B154" s="45"/>
       <c r="C154" s="33">
         <v>44036</v>
       </c>
@@ -3930,8 +3930,8 @@
       <c r="I154" s="12"/>
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="44"/>
-      <c r="B155" s="44"/>
+      <c r="A155" s="45"/>
+      <c r="B155" s="45"/>
       <c r="C155" s="33">
         <v>44038</v>
       </c>
@@ -3949,8 +3949,8 @@
       <c r="I155" s="12"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="44"/>
-      <c r="B156" s="46"/>
+      <c r="A156" s="45"/>
+      <c r="B156" s="55"/>
       <c r="C156" s="33">
         <v>44040</v>
       </c>
@@ -3968,10 +3968,10 @@
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="43">
+      <c r="A157" s="49">
         <v>12</v>
       </c>
-      <c r="B157" s="45" t="s">
+      <c r="B157" s="59" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="33">
@@ -3992,8 +3992,8 @@
       <c r="J157" s="20"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="44"/>
-      <c r="B158" s="44"/>
+      <c r="A158" s="45"/>
+      <c r="B158" s="45"/>
       <c r="C158" s="33">
         <v>44018</v>
       </c>
@@ -4012,8 +4012,8 @@
       <c r="J158" s="20"/>
     </row>
     <row r="159" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="44"/>
-      <c r="B159" s="44"/>
+      <c r="A159" s="45"/>
+      <c r="B159" s="45"/>
       <c r="C159" s="33">
         <v>44019</v>
       </c>
@@ -4032,8 +4032,8 @@
       <c r="J159" s="20"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="44"/>
-      <c r="B160" s="44"/>
+      <c r="A160" s="45"/>
+      <c r="B160" s="45"/>
       <c r="C160" s="33">
         <v>44020</v>
       </c>
@@ -4052,8 +4052,8 @@
       <c r="J160" s="20"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="44"/>
-      <c r="B161" s="44"/>
+      <c r="A161" s="45"/>
+      <c r="B161" s="45"/>
       <c r="C161" s="33">
         <v>44022</v>
       </c>
@@ -4072,8 +4072,8 @@
       <c r="J161" s="20"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="44"/>
-      <c r="B162" s="44"/>
+      <c r="A162" s="45"/>
+      <c r="B162" s="45"/>
       <c r="C162" s="33">
         <v>44024</v>
       </c>
@@ -4092,8 +4092,8 @@
       <c r="J162" s="20"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="44"/>
-      <c r="B163" s="44"/>
+      <c r="A163" s="45"/>
+      <c r="B163" s="45"/>
       <c r="C163" s="33">
         <v>44026</v>
       </c>
@@ -4112,8 +4112,8 @@
       <c r="J163" s="22"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A164" s="44"/>
-      <c r="B164" s="44"/>
+      <c r="A164" s="45"/>
+      <c r="B164" s="45"/>
       <c r="C164" s="33">
         <v>44028</v>
       </c>
@@ -4132,8 +4132,8 @@
       <c r="J164" s="22"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="44"/>
-      <c r="B165" s="44"/>
+      <c r="A165" s="45"/>
+      <c r="B165" s="45"/>
       <c r="C165" s="33">
         <v>44030</v>
       </c>
@@ -4152,8 +4152,8 @@
       <c r="J165" s="22"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44"/>
-      <c r="B166" s="44"/>
+      <c r="A166" s="45"/>
+      <c r="B166" s="45"/>
       <c r="C166" s="33">
         <v>44032</v>
       </c>
@@ -4172,8 +4172,8 @@
       <c r="J166" s="22"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="44"/>
-      <c r="B167" s="44"/>
+      <c r="A167" s="45"/>
+      <c r="B167" s="45"/>
       <c r="C167" s="33">
         <v>44034</v>
       </c>
@@ -4192,8 +4192,8 @@
       <c r="J167" s="22"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44"/>
-      <c r="B168" s="44"/>
+      <c r="A168" s="45"/>
+      <c r="B168" s="45"/>
       <c r="C168" s="33">
         <v>44036</v>
       </c>
@@ -4212,8 +4212,8 @@
       <c r="J168" s="22"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44"/>
-      <c r="B169" s="44"/>
+      <c r="A169" s="45"/>
+      <c r="B169" s="45"/>
       <c r="C169" s="33">
         <v>44038</v>
       </c>
@@ -4232,8 +4232,8 @@
       <c r="J169" s="22"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44"/>
-      <c r="B170" s="46"/>
+      <c r="A170" s="45"/>
+      <c r="B170" s="55"/>
       <c r="C170" s="33">
         <v>44040</v>
       </c>
@@ -4252,10 +4252,10 @@
       <c r="J170" s="22"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="52">
+      <c r="A171" s="44">
         <v>13</v>
       </c>
-      <c r="B171" s="53" t="s">
+      <c r="B171" s="60" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33">
@@ -4275,8 +4275,8 @@
       <c r="I171" s="5"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44"/>
-      <c r="B172" s="44"/>
+      <c r="A172" s="45"/>
+      <c r="B172" s="45"/>
       <c r="C172" s="33">
         <v>44018</v>
       </c>
@@ -4294,8 +4294,8 @@
       <c r="I172" s="7"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="44"/>
-      <c r="B173" s="44"/>
+      <c r="A173" s="45"/>
+      <c r="B173" s="45"/>
       <c r="C173" s="33">
         <v>44019</v>
       </c>
@@ -4313,8 +4313,8 @@
       <c r="I173" s="7"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="44"/>
-      <c r="B174" s="44"/>
+      <c r="A174" s="45"/>
+      <c r="B174" s="45"/>
       <c r="C174" s="33">
         <v>44020</v>
       </c>
@@ -4332,8 +4332,8 @@
       <c r="I174" s="7"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="44"/>
-      <c r="B175" s="44"/>
+      <c r="A175" s="45"/>
+      <c r="B175" s="45"/>
       <c r="C175" s="33">
         <v>44022</v>
       </c>
@@ -4351,8 +4351,8 @@
       <c r="I175" s="7"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="44"/>
-      <c r="B176" s="44"/>
+      <c r="A176" s="45"/>
+      <c r="B176" s="45"/>
       <c r="C176" s="33">
         <v>44024</v>
       </c>
@@ -4370,8 +4370,8 @@
       <c r="I176" s="7"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="44"/>
-      <c r="B177" s="44"/>
+      <c r="A177" s="45"/>
+      <c r="B177" s="45"/>
       <c r="C177" s="33">
         <v>44026</v>
       </c>
@@ -4389,8 +4389,8 @@
       <c r="I177" s="7"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="44"/>
-      <c r="B178" s="44"/>
+      <c r="A178" s="45"/>
+      <c r="B178" s="45"/>
       <c r="C178" s="33">
         <v>44028</v>
       </c>
@@ -4408,8 +4408,8 @@
       <c r="I178" s="7"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="44"/>
-      <c r="B179" s="44"/>
+      <c r="A179" s="45"/>
+      <c r="B179" s="45"/>
       <c r="C179" s="33">
         <v>44030</v>
       </c>
@@ -4427,8 +4427,8 @@
       <c r="I179" s="9"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="44"/>
-      <c r="B180" s="44"/>
+      <c r="A180" s="45"/>
+      <c r="B180" s="45"/>
       <c r="C180" s="33">
         <v>44032</v>
       </c>
@@ -4446,8 +4446,8 @@
       <c r="I180" s="12"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="44"/>
-      <c r="B181" s="44"/>
+      <c r="A181" s="45"/>
+      <c r="B181" s="45"/>
       <c r="C181" s="33">
         <v>44034</v>
       </c>
@@ -4465,8 +4465,8 @@
       <c r="I181" s="12"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="44"/>
-      <c r="B182" s="44"/>
+      <c r="A182" s="45"/>
+      <c r="B182" s="45"/>
       <c r="C182" s="33">
         <v>44036</v>
       </c>
@@ -4484,8 +4484,8 @@
       <c r="I182" s="12"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="44"/>
-      <c r="B183" s="44"/>
+      <c r="A183" s="45"/>
+      <c r="B183" s="45"/>
       <c r="C183" s="33">
         <v>44038</v>
       </c>
@@ -4503,8 +4503,8 @@
       <c r="I183" s="12"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="44"/>
-      <c r="B184" s="46"/>
+      <c r="A184" s="45"/>
+      <c r="B184" s="55"/>
       <c r="C184" s="33">
         <v>44040</v>
       </c>
@@ -4522,10 +4522,10 @@
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="43">
+      <c r="A185" s="49">
         <v>14</v>
       </c>
-      <c r="B185" s="45" t="s">
+      <c r="B185" s="59" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="33">
@@ -4546,8 +4546,8 @@
       <c r="J185" s="20"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="44"/>
-      <c r="B186" s="44"/>
+      <c r="A186" s="45"/>
+      <c r="B186" s="45"/>
       <c r="C186" s="33">
         <v>44018</v>
       </c>
@@ -4566,8 +4566,8 @@
       <c r="J186" s="20"/>
     </row>
     <row r="187" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="44"/>
-      <c r="B187" s="44"/>
+      <c r="A187" s="45"/>
+      <c r="B187" s="45"/>
       <c r="C187" s="33">
         <v>44019</v>
       </c>
@@ -4586,8 +4586,8 @@
       <c r="J187" s="20"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="44"/>
-      <c r="B188" s="44"/>
+      <c r="A188" s="45"/>
+      <c r="B188" s="45"/>
       <c r="C188" s="33">
         <v>44020</v>
       </c>
@@ -4606,8 +4606,8 @@
       <c r="J188" s="20"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="44"/>
-      <c r="B189" s="44"/>
+      <c r="A189" s="45"/>
+      <c r="B189" s="45"/>
       <c r="C189" s="33">
         <v>44022</v>
       </c>
@@ -4626,8 +4626,8 @@
       <c r="J189" s="20"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="44"/>
-      <c r="B190" s="44"/>
+      <c r="A190" s="45"/>
+      <c r="B190" s="45"/>
       <c r="C190" s="33">
         <v>44024</v>
       </c>
@@ -4646,8 +4646,8 @@
       <c r="J190" s="20"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="44"/>
-      <c r="B191" s="44"/>
+      <c r="A191" s="45"/>
+      <c r="B191" s="45"/>
       <c r="C191" s="33">
         <v>44026</v>
       </c>
@@ -4666,8 +4666,8 @@
       <c r="J191" s="22"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="44"/>
-      <c r="B192" s="44"/>
+      <c r="A192" s="45"/>
+      <c r="B192" s="45"/>
       <c r="C192" s="33">
         <v>44028</v>
       </c>
@@ -4686,8 +4686,8 @@
       <c r="J192" s="22"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="44"/>
-      <c r="B193" s="44"/>
+      <c r="A193" s="45"/>
+      <c r="B193" s="45"/>
       <c r="C193" s="33">
         <v>44030</v>
       </c>
@@ -4706,8 +4706,8 @@
       <c r="J193" s="22"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="44"/>
-      <c r="B194" s="44"/>
+      <c r="A194" s="45"/>
+      <c r="B194" s="45"/>
       <c r="C194" s="33">
         <v>44032</v>
       </c>
@@ -4726,8 +4726,8 @@
       <c r="J194" s="22"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="44"/>
-      <c r="B195" s="44"/>
+      <c r="A195" s="45"/>
+      <c r="B195" s="45"/>
       <c r="C195" s="33">
         <v>44034</v>
       </c>
@@ -4746,8 +4746,8 @@
       <c r="J195" s="22"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="44"/>
-      <c r="B196" s="44"/>
+      <c r="A196" s="45"/>
+      <c r="B196" s="45"/>
       <c r="C196" s="33">
         <v>44036</v>
       </c>
@@ -4766,8 +4766,8 @@
       <c r="J196" s="22"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="44"/>
-      <c r="B197" s="44"/>
+      <c r="A197" s="45"/>
+      <c r="B197" s="45"/>
       <c r="C197" s="33">
         <v>44038</v>
       </c>
@@ -4786,8 +4786,8 @@
       <c r="J197" s="22"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="44"/>
-      <c r="B198" s="46"/>
+      <c r="A198" s="45"/>
+      <c r="B198" s="55"/>
       <c r="C198" s="33">
         <v>44040</v>
       </c>
@@ -4806,10 +4806,10 @@
       <c r="J198" s="22"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="52">
+      <c r="A199" s="44">
         <v>15</v>
       </c>
-      <c r="B199" s="53" t="s">
+      <c r="B199" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="33">
@@ -4829,8 +4829,8 @@
       <c r="I199" s="29"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="44"/>
-      <c r="B200" s="44"/>
+      <c r="A200" s="45"/>
+      <c r="B200" s="45"/>
       <c r="C200" s="33">
         <v>44018</v>
       </c>
@@ -4848,8 +4848,8 @@
       <c r="I200" s="7"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="44"/>
-      <c r="B201" s="44"/>
+      <c r="A201" s="45"/>
+      <c r="B201" s="45"/>
       <c r="C201" s="33">
         <v>44019</v>
       </c>
@@ -4867,8 +4867,8 @@
       <c r="I201" s="7"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="44"/>
-      <c r="B202" s="44"/>
+      <c r="A202" s="45"/>
+      <c r="B202" s="45"/>
       <c r="C202" s="33">
         <v>44020</v>
       </c>
@@ -4886,8 +4886,8 @@
       <c r="I202" s="7"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="44"/>
-      <c r="B203" s="44"/>
+      <c r="A203" s="45"/>
+      <c r="B203" s="45"/>
       <c r="C203" s="33">
         <v>44022</v>
       </c>
@@ -4905,8 +4905,8 @@
       <c r="I203" s="7"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="44"/>
-      <c r="B204" s="44"/>
+      <c r="A204" s="45"/>
+      <c r="B204" s="45"/>
       <c r="C204" s="33">
         <v>44024</v>
       </c>
@@ -4924,8 +4924,8 @@
       <c r="I204" s="7"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="44"/>
-      <c r="B205" s="44"/>
+      <c r="A205" s="45"/>
+      <c r="B205" s="45"/>
       <c r="C205" s="33">
         <v>44026</v>
       </c>
@@ -4943,8 +4943,8 @@
       <c r="I205" s="7"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A206" s="44"/>
-      <c r="B206" s="44"/>
+      <c r="A206" s="45"/>
+      <c r="B206" s="45"/>
       <c r="C206" s="33">
         <v>44028</v>
       </c>
@@ -4962,8 +4962,8 @@
       <c r="I206" s="7"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="44"/>
-      <c r="B207" s="44"/>
+      <c r="A207" s="45"/>
+      <c r="B207" s="45"/>
       <c r="C207" s="33">
         <v>44030</v>
       </c>
@@ -4981,8 +4981,8 @@
       <c r="I207" s="9"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="44"/>
-      <c r="B208" s="44"/>
+      <c r="A208" s="45"/>
+      <c r="B208" s="45"/>
       <c r="C208" s="33">
         <v>44032</v>
       </c>
@@ -5000,8 +5000,8 @@
       <c r="I208" s="12"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="44"/>
-      <c r="B209" s="44"/>
+      <c r="A209" s="45"/>
+      <c r="B209" s="45"/>
       <c r="C209" s="33">
         <v>44034</v>
       </c>
@@ -5019,8 +5019,8 @@
       <c r="I209" s="12"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="44"/>
-      <c r="B210" s="44"/>
+      <c r="A210" s="45"/>
+      <c r="B210" s="45"/>
       <c r="C210" s="33">
         <v>44036</v>
       </c>
@@ -5038,8 +5038,8 @@
       <c r="I210" s="12"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="44"/>
-      <c r="B211" s="44"/>
+      <c r="A211" s="45"/>
+      <c r="B211" s="45"/>
       <c r="C211" s="33">
         <v>44038</v>
       </c>
@@ -5057,8 +5057,8 @@
       <c r="I211" s="12"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="44"/>
-      <c r="B212" s="46"/>
+      <c r="A212" s="45"/>
+      <c r="B212" s="55"/>
       <c r="C212" s="33">
         <v>44040</v>
       </c>
@@ -5076,10 +5076,10 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="43">
+      <c r="A213" s="49">
         <v>16</v>
       </c>
-      <c r="B213" s="45" t="s">
+      <c r="B213" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="33">
@@ -5100,8 +5100,8 @@
       <c r="J213" s="20"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="44"/>
-      <c r="B214" s="44"/>
+      <c r="A214" s="45"/>
+      <c r="B214" s="45"/>
       <c r="C214" s="33">
         <v>44018</v>
       </c>
@@ -5120,8 +5120,8 @@
       <c r="J214" s="20"/>
     </row>
     <row r="215" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="44"/>
-      <c r="B215" s="44"/>
+      <c r="A215" s="45"/>
+      <c r="B215" s="45"/>
       <c r="C215" s="33">
         <v>44019</v>
       </c>
@@ -5140,8 +5140,8 @@
       <c r="J215" s="20"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="44"/>
-      <c r="B216" s="44"/>
+      <c r="A216" s="45"/>
+      <c r="B216" s="45"/>
       <c r="C216" s="33">
         <v>44020</v>
       </c>
@@ -5160,8 +5160,8 @@
       <c r="J216" s="20"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="44"/>
-      <c r="B217" s="44"/>
+      <c r="A217" s="45"/>
+      <c r="B217" s="45"/>
       <c r="C217" s="33">
         <v>44022</v>
       </c>
@@ -5180,8 +5180,8 @@
       <c r="J217" s="20"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="44"/>
-      <c r="B218" s="44"/>
+      <c r="A218" s="45"/>
+      <c r="B218" s="45"/>
       <c r="C218" s="33">
         <v>44024</v>
       </c>
@@ -5200,8 +5200,8 @@
       <c r="J218" s="20"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="44"/>
-      <c r="B219" s="44"/>
+      <c r="A219" s="45"/>
+      <c r="B219" s="45"/>
       <c r="C219" s="33">
         <v>44026</v>
       </c>
@@ -5220,8 +5220,8 @@
       <c r="J219" s="22"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="44"/>
-      <c r="B220" s="44"/>
+      <c r="A220" s="45"/>
+      <c r="B220" s="45"/>
       <c r="C220" s="33">
         <v>44028</v>
       </c>
@@ -5240,8 +5240,8 @@
       <c r="J220" s="22"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="44"/>
-      <c r="B221" s="44"/>
+      <c r="A221" s="45"/>
+      <c r="B221" s="45"/>
       <c r="C221" s="33">
         <v>44030</v>
       </c>
@@ -5260,8 +5260,8 @@
       <c r="J221" s="22"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222" s="44"/>
-      <c r="B222" s="44"/>
+      <c r="A222" s="45"/>
+      <c r="B222" s="45"/>
       <c r="C222" s="33">
         <v>44032</v>
       </c>
@@ -5280,8 +5280,8 @@
       <c r="J222" s="22"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="44"/>
-      <c r="B223" s="44"/>
+      <c r="A223" s="45"/>
+      <c r="B223" s="45"/>
       <c r="C223" s="33">
         <v>44034</v>
       </c>
@@ -5300,8 +5300,8 @@
       <c r="J223" s="22"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="44"/>
-      <c r="B224" s="44"/>
+      <c r="A224" s="45"/>
+      <c r="B224" s="45"/>
       <c r="C224" s="33">
         <v>44036</v>
       </c>
@@ -5320,8 +5320,8 @@
       <c r="J224" s="22"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="44"/>
-      <c r="B225" s="44"/>
+      <c r="A225" s="45"/>
+      <c r="B225" s="45"/>
       <c r="C225" s="33">
         <v>44038</v>
       </c>
@@ -5340,8 +5340,8 @@
       <c r="J225" s="22"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="44"/>
-      <c r="B226" s="46"/>
+      <c r="A226" s="45"/>
+      <c r="B226" s="55"/>
       <c r="C226" s="33">
         <v>44040</v>
       </c>
@@ -5360,10 +5360,10 @@
       <c r="J226" s="22"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="52">
+      <c r="A227" s="44">
         <v>17</v>
       </c>
-      <c r="B227" s="53" t="s">
+      <c r="B227" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="33">
@@ -5383,8 +5383,8 @@
       <c r="I227" s="29"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="44"/>
-      <c r="B228" s="44"/>
+      <c r="A228" s="45"/>
+      <c r="B228" s="45"/>
       <c r="C228" s="33">
         <v>44018</v>
       </c>
@@ -5402,8 +5402,8 @@
       <c r="I228" s="7"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="44"/>
-      <c r="B229" s="44"/>
+      <c r="A229" s="45"/>
+      <c r="B229" s="45"/>
       <c r="C229" s="33">
         <v>44019</v>
       </c>
@@ -5421,8 +5421,8 @@
       <c r="I229" s="7"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="44"/>
-      <c r="B230" s="44"/>
+      <c r="A230" s="45"/>
+      <c r="B230" s="45"/>
       <c r="C230" s="33">
         <v>44020</v>
       </c>
@@ -5440,8 +5440,8 @@
       <c r="I230" s="7"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="44"/>
-      <c r="B231" s="44"/>
+      <c r="A231" s="45"/>
+      <c r="B231" s="45"/>
       <c r="C231" s="33">
         <v>44022</v>
       </c>
@@ -5459,8 +5459,8 @@
       <c r="I231" s="7"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="44"/>
-      <c r="B232" s="44"/>
+      <c r="A232" s="45"/>
+      <c r="B232" s="45"/>
       <c r="C232" s="33">
         <v>44024</v>
       </c>
@@ -5478,8 +5478,8 @@
       <c r="I232" s="7"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="44"/>
-      <c r="B233" s="44"/>
+      <c r="A233" s="45"/>
+      <c r="B233" s="45"/>
       <c r="C233" s="33">
         <v>44026</v>
       </c>
@@ -5497,8 +5497,8 @@
       <c r="I233" s="7"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="44"/>
-      <c r="B234" s="44"/>
+      <c r="A234" s="45"/>
+      <c r="B234" s="45"/>
       <c r="C234" s="33">
         <v>44028</v>
       </c>
@@ -5516,8 +5516,8 @@
       <c r="I234" s="7"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="44"/>
-      <c r="B235" s="44"/>
+      <c r="A235" s="45"/>
+      <c r="B235" s="45"/>
       <c r="C235" s="33">
         <v>44030</v>
       </c>
@@ -5535,8 +5535,8 @@
       <c r="I235" s="9"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="44"/>
-      <c r="B236" s="44"/>
+      <c r="A236" s="45"/>
+      <c r="B236" s="45"/>
       <c r="C236" s="33">
         <v>44032</v>
       </c>
@@ -5554,8 +5554,8 @@
       <c r="I236" s="12"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="44"/>
-      <c r="B237" s="44"/>
+      <c r="A237" s="45"/>
+      <c r="B237" s="45"/>
       <c r="C237" s="33">
         <v>44034</v>
       </c>
@@ -5573,8 +5573,8 @@
       <c r="I237" s="12"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="44"/>
-      <c r="B238" s="44"/>
+      <c r="A238" s="45"/>
+      <c r="B238" s="45"/>
       <c r="C238" s="33">
         <v>44036</v>
       </c>
@@ -5592,8 +5592,8 @@
       <c r="I238" s="12"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="44"/>
-      <c r="B239" s="44"/>
+      <c r="A239" s="45"/>
+      <c r="B239" s="45"/>
       <c r="C239" s="33">
         <v>44038</v>
       </c>
@@ -5611,8 +5611,8 @@
       <c r="I239" s="12"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="44"/>
-      <c r="B240" s="46"/>
+      <c r="A240" s="45"/>
+      <c r="B240" s="55"/>
       <c r="C240" s="33">
         <v>44040</v>
       </c>
@@ -5630,10 +5630,10 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="43">
+      <c r="A241" s="49">
         <v>18</v>
       </c>
-      <c r="B241" s="45" t="s">
+      <c r="B241" s="59" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="33">
@@ -5654,8 +5654,8 @@
       <c r="J241" s="20"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="44"/>
-      <c r="B242" s="44"/>
+      <c r="A242" s="45"/>
+      <c r="B242" s="45"/>
       <c r="C242" s="33">
         <v>44018</v>
       </c>
@@ -5674,8 +5674,8 @@
       <c r="J242" s="20"/>
     </row>
     <row r="243" spans="1:10" ht="32.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="44"/>
-      <c r="B243" s="44"/>
+      <c r="A243" s="45"/>
+      <c r="B243" s="45"/>
       <c r="C243" s="33">
         <v>44019</v>
       </c>
@@ -5694,8 +5694,8 @@
       <c r="J243" s="20"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="44"/>
-      <c r="B244" s="44"/>
+      <c r="A244" s="45"/>
+      <c r="B244" s="45"/>
       <c r="C244" s="33">
         <v>44020</v>
       </c>
@@ -5714,8 +5714,8 @@
       <c r="J244" s="20"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="44"/>
-      <c r="B245" s="44"/>
+      <c r="A245" s="45"/>
+      <c r="B245" s="45"/>
       <c r="C245" s="33">
         <v>44022</v>
       </c>
@@ -5734,8 +5734,8 @@
       <c r="J245" s="20"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="44"/>
-      <c r="B246" s="44"/>
+      <c r="A246" s="45"/>
+      <c r="B246" s="45"/>
       <c r="C246" s="33">
         <v>44024</v>
       </c>
@@ -5754,8 +5754,8 @@
       <c r="J246" s="20"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="44"/>
-      <c r="B247" s="44"/>
+      <c r="A247" s="45"/>
+      <c r="B247" s="45"/>
       <c r="C247" s="33">
         <v>44026</v>
       </c>
@@ -5774,8 +5774,8 @@
       <c r="J247" s="22"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="44"/>
-      <c r="B248" s="44"/>
+      <c r="A248" s="45"/>
+      <c r="B248" s="45"/>
       <c r="C248" s="33">
         <v>44028</v>
       </c>
@@ -5794,8 +5794,8 @@
       <c r="J248" s="22"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="44"/>
-      <c r="B249" s="44"/>
+      <c r="A249" s="45"/>
+      <c r="B249" s="45"/>
       <c r="C249" s="33">
         <v>44030</v>
       </c>
@@ -5814,8 +5814,8 @@
       <c r="J249" s="22"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="44"/>
-      <c r="B250" s="44"/>
+      <c r="A250" s="45"/>
+      <c r="B250" s="45"/>
       <c r="C250" s="33">
         <v>44032</v>
       </c>
@@ -5834,8 +5834,8 @@
       <c r="J250" s="22"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="44"/>
-      <c r="B251" s="44"/>
+      <c r="A251" s="45"/>
+      <c r="B251" s="45"/>
       <c r="C251" s="33">
         <v>44034</v>
       </c>
@@ -5854,8 +5854,8 @@
       <c r="J251" s="22"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
-      <c r="B252" s="44"/>
+      <c r="A252" s="45"/>
+      <c r="B252" s="45"/>
       <c r="C252" s="33">
         <v>44036</v>
       </c>
@@ -5874,8 +5874,8 @@
       <c r="J252" s="22"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
-      <c r="B253" s="44"/>
+      <c r="A253" s="45"/>
+      <c r="B253" s="45"/>
       <c r="C253" s="33">
         <v>44038</v>
       </c>
@@ -5894,8 +5894,8 @@
       <c r="J253" s="22"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="44"/>
-      <c r="B254" s="46"/>
+      <c r="A254" s="45"/>
+      <c r="B254" s="55"/>
       <c r="C254" s="33">
         <v>44040</v>
       </c>
@@ -5914,10 +5914,10 @@
       <c r="J254" s="22"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="47">
+      <c r="A255" s="64">
         <v>19</v>
       </c>
-      <c r="B255" s="49" t="s">
+      <c r="B255" s="66" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="33">
@@ -5937,8 +5937,8 @@
       <c r="I255" s="29"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="48"/>
-      <c r="B256" s="50"/>
+      <c r="A256" s="65"/>
+      <c r="B256" s="62"/>
       <c r="C256" s="33">
         <v>44018</v>
       </c>
@@ -5956,8 +5956,8 @@
       <c r="I256" s="7"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="48"/>
-      <c r="B257" s="50"/>
+      <c r="A257" s="65"/>
+      <c r="B257" s="62"/>
       <c r="C257" s="33">
         <v>44019</v>
       </c>
@@ -5975,8 +5975,8 @@
       <c r="I257" s="7"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="48"/>
-      <c r="B258" s="50"/>
+      <c r="A258" s="65"/>
+      <c r="B258" s="62"/>
       <c r="C258" s="33">
         <v>44020</v>
       </c>
@@ -5994,8 +5994,8 @@
       <c r="I258" s="7"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="48"/>
-      <c r="B259" s="50"/>
+      <c r="A259" s="65"/>
+      <c r="B259" s="62"/>
       <c r="C259" s="33">
         <v>44022</v>
       </c>
@@ -6013,8 +6013,8 @@
       <c r="I259" s="7"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="48"/>
-      <c r="B260" s="50"/>
+      <c r="A260" s="65"/>
+      <c r="B260" s="62"/>
       <c r="C260" s="33">
         <v>44024</v>
       </c>
@@ -6032,8 +6032,8 @@
       <c r="I260" s="7"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="48"/>
-      <c r="B261" s="50"/>
+      <c r="A261" s="65"/>
+      <c r="B261" s="62"/>
       <c r="C261" s="33">
         <v>44026</v>
       </c>
@@ -6051,8 +6051,8 @@
       <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="48"/>
-      <c r="B262" s="50"/>
+      <c r="A262" s="65"/>
+      <c r="B262" s="62"/>
       <c r="C262" s="33">
         <v>44028</v>
       </c>
@@ -6070,8 +6070,8 @@
       <c r="I262" s="7"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="48"/>
-      <c r="B263" s="50"/>
+      <c r="A263" s="65"/>
+      <c r="B263" s="62"/>
       <c r="C263" s="33">
         <v>44030</v>
       </c>
@@ -6089,8 +6089,8 @@
       <c r="I263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="48"/>
-      <c r="B264" s="50"/>
+      <c r="A264" s="65"/>
+      <c r="B264" s="62"/>
       <c r="C264" s="33">
         <v>44032</v>
       </c>
@@ -6108,8 +6108,8 @@
       <c r="I264" s="12"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="48"/>
-      <c r="B265" s="50"/>
+      <c r="A265" s="65"/>
+      <c r="B265" s="62"/>
       <c r="C265" s="33">
         <v>44034</v>
       </c>
@@ -6127,8 +6127,8 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="48"/>
-      <c r="B266" s="50"/>
+      <c r="A266" s="65"/>
+      <c r="B266" s="62"/>
       <c r="C266" s="33">
         <v>44036</v>
       </c>
@@ -6146,8 +6146,8 @@
       <c r="I266" s="12"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="48"/>
-      <c r="B267" s="50"/>
+      <c r="A267" s="65"/>
+      <c r="B267" s="62"/>
       <c r="C267" s="33">
         <v>44038</v>
       </c>
@@ -6165,8 +6165,8 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="48"/>
-      <c r="B268" s="51"/>
+      <c r="A268" s="65"/>
+      <c r="B268" s="63"/>
       <c r="C268" s="33">
         <v>44040</v>
       </c>
@@ -6456,43 +6456,6 @@
     <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
     <mergeCell ref="A241:A254"/>
     <mergeCell ref="B241:B254"/>
     <mergeCell ref="A255:A268"/>
@@ -6503,6 +6466,43 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="A227:A240"/>
     <mergeCell ref="B227:B240"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
+++ b/Module1/caseStudy1/Check List CaseStudy C0620G1.xlsx
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -523,10 +523,44 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -535,9 +569,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -551,36 +582,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -800,7 +806,7 @@
   <dimension ref="A1:J539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -818,50 +824,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="56" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="54" t="s">
+      <c r="H1" s="56" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1"/>
-      <c r="J1" s="54"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="55"/>
+      <c r="J2" s="47"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="46" t="s">
+      <c r="A3" s="53">
+        <v>1</v>
+      </c>
+      <c r="B3" s="60" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="33">
@@ -883,7 +889,7 @@
     </row>
     <row r="4" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45"/>
-      <c r="B4" s="47"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="33">
         <v>44018</v>
       </c>
@@ -903,7 +909,7 @@
     </row>
     <row r="5" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45"/>
-      <c r="B5" s="47"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="33">
         <v>44019</v>
       </c>
@@ -923,7 +929,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="61"/>
       <c r="C6" s="33">
         <v>44020</v>
       </c>
@@ -943,7 +949,7 @@
     </row>
     <row r="7" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="33">
         <v>44022</v>
       </c>
@@ -963,7 +969,7 @@
     </row>
     <row r="8" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="33">
         <v>44024</v>
       </c>
@@ -983,7 +989,7 @@
     </row>
     <row r="9" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="33">
         <v>44026</v>
       </c>
@@ -1003,7 +1009,7 @@
     </row>
     <row r="10" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45"/>
-      <c r="B10" s="47"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="33">
         <v>44028</v>
       </c>
@@ -1023,7 +1029,7 @@
     </row>
     <row r="11" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45"/>
-      <c r="B11" s="47"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="33">
         <v>44030</v>
       </c>
@@ -1043,7 +1049,7 @@
     </row>
     <row r="12" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45"/>
-      <c r="B12" s="47"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="33">
         <v>44032</v>
       </c>
@@ -1063,7 +1069,7 @@
     </row>
     <row r="13" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45"/>
-      <c r="B13" s="47"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="33">
         <v>44034</v>
       </c>
@@ -1083,7 +1089,7 @@
     </row>
     <row r="14" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45"/>
-      <c r="B14" s="47"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="33">
         <v>44036</v>
       </c>
@@ -1103,7 +1109,7 @@
     </row>
     <row r="15" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45"/>
-      <c r="B15" s="47"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="33">
         <v>44038</v>
       </c>
@@ -1123,7 +1129,7 @@
     </row>
     <row r="16" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="33">
         <v>44040</v>
       </c>
@@ -1142,10 +1148,10 @@
       <c r="J16" s="15"/>
     </row>
     <row r="17" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="49">
-        <v>2</v>
-      </c>
-      <c r="B17" s="50" t="s">
+      <c r="A17" s="44">
+        <v>2</v>
+      </c>
+      <c r="B17" s="63" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="33">
@@ -1167,7 +1173,7 @@
     </row>
     <row r="18" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
-      <c r="B18" s="51"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="33">
         <v>44018</v>
       </c>
@@ -1187,7 +1193,7 @@
     </row>
     <row r="19" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="64"/>
       <c r="C19" s="33">
         <v>44019</v>
       </c>
@@ -1207,7 +1213,7 @@
     </row>
     <row r="20" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45"/>
-      <c r="B20" s="51"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="33">
         <v>44020</v>
       </c>
@@ -1227,7 +1233,7 @@
     </row>
     <row r="21" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45"/>
-      <c r="B21" s="51"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="33">
         <v>44022</v>
       </c>
@@ -1247,7 +1253,7 @@
     </row>
     <row r="22" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45"/>
-      <c r="B22" s="51"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="33">
         <v>44024</v>
       </c>
@@ -1267,7 +1273,7 @@
     </row>
     <row r="23" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45"/>
-      <c r="B23" s="51"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="33">
         <v>44026</v>
       </c>
@@ -1287,7 +1293,7 @@
     </row>
     <row r="24" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="33">
         <v>44028</v>
       </c>
@@ -1307,7 +1313,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45"/>
-      <c r="B25" s="51"/>
+      <c r="B25" s="64"/>
       <c r="C25" s="33">
         <v>44030</v>
       </c>
@@ -1327,7 +1333,7 @@
     </row>
     <row r="26" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45"/>
-      <c r="B26" s="51"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="33">
         <v>44032</v>
       </c>
@@ -1347,7 +1353,7 @@
     </row>
     <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45"/>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="33">
         <v>44034</v>
       </c>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="28" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45"/>
-      <c r="B28" s="51"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="33">
         <v>44036</v>
       </c>
@@ -1387,7 +1393,7 @@
     </row>
     <row r="29" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="33">
         <v>44038</v>
       </c>
@@ -1407,7 +1413,7 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45"/>
-      <c r="B30" s="52"/>
+      <c r="B30" s="65"/>
       <c r="C30" s="33">
         <v>44040</v>
       </c>
@@ -1426,10 +1432,10 @@
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="53">
         <v>3</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="66" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="33">
@@ -1451,7 +1457,7 @@
     </row>
     <row r="32" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="33">
         <v>44018</v>
       </c>
@@ -1471,7 +1477,7 @@
     </row>
     <row r="33" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="61"/>
       <c r="C33" s="33">
         <v>44019</v>
       </c>
@@ -1491,7 +1497,7 @@
     </row>
     <row r="34" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45"/>
-      <c r="B34" s="47"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="33">
         <v>44020</v>
       </c>
@@ -1511,7 +1517,7 @@
     </row>
     <row r="35" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
+      <c r="B35" s="61"/>
       <c r="C35" s="33">
         <v>44022</v>
       </c>
@@ -1531,7 +1537,7 @@
     </row>
     <row r="36" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
-      <c r="B36" s="47"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="33">
         <v>44024</v>
       </c>
@@ -1551,7 +1557,7 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
+      <c r="B37" s="61"/>
       <c r="C37" s="33">
         <v>44026</v>
       </c>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="33">
         <v>44028</v>
       </c>
@@ -1591,7 +1597,7 @@
     </row>
     <row r="39" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
+      <c r="B39" s="61"/>
       <c r="C39" s="33">
         <v>44030</v>
       </c>
@@ -1611,7 +1617,7 @@
     </row>
     <row r="40" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
-      <c r="B40" s="47"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="33">
         <v>44032</v>
       </c>
@@ -1631,7 +1637,7 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
-      <c r="B41" s="47"/>
+      <c r="B41" s="61"/>
       <c r="C41" s="33">
         <v>44034</v>
       </c>
@@ -1651,7 +1657,7 @@
     </row>
     <row r="42" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
-      <c r="B42" s="47"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="33">
         <v>44036</v>
       </c>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="43" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
-      <c r="B43" s="47"/>
+      <c r="B43" s="61"/>
       <c r="C43" s="33">
         <v>44038</v>
       </c>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="44" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
-      <c r="B44" s="48"/>
+      <c r="B44" s="62"/>
       <c r="C44" s="33">
         <v>44040</v>
       </c>
@@ -1710,10 +1716,10 @@
       <c r="J44" s="10"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="49">
+      <c r="A45" s="44">
         <v>4</v>
       </c>
-      <c r="B45" s="59" t="s">
+      <c r="B45" s="46" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="33">
@@ -1975,7 +1981,7 @@
     </row>
     <row r="58" spans="1:10" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45"/>
-      <c r="B58" s="55"/>
+      <c r="B58" s="47"/>
       <c r="C58" s="33">
         <v>44040</v>
       </c>
@@ -1994,10 +2000,10 @@
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" ht="36" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="44">
+      <c r="A59" s="53">
         <v>5</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="54" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="33">
@@ -2259,7 +2265,7 @@
     </row>
     <row r="72" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="45"/>
-      <c r="B72" s="55"/>
+      <c r="B72" s="47"/>
       <c r="C72" s="33">
         <v>44040</v>
       </c>
@@ -2278,10 +2284,10 @@
       <c r="J72" s="6"/>
     </row>
     <row r="73" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="49">
+      <c r="A73" s="44">
         <v>6</v>
       </c>
-      <c r="B73" s="59" t="s">
+      <c r="B73" s="46" t="s">
         <v>16</v>
       </c>
       <c r="C73" s="33">
@@ -2543,7 +2549,7 @@
     </row>
     <row r="86" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45"/>
-      <c r="B86" s="55"/>
+      <c r="B86" s="47"/>
       <c r="C86" s="33">
         <v>44040</v>
       </c>
@@ -2562,10 +2568,10 @@
       <c r="J86" s="22"/>
     </row>
     <row r="87" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="44">
+      <c r="A87" s="53">
         <v>7</v>
       </c>
-      <c r="B87" s="60" t="s">
+      <c r="B87" s="54" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="33">
@@ -2827,7 +2833,7 @@
     </row>
     <row r="100" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="47"/>
       <c r="C100" s="33">
         <v>44040</v>
       </c>
@@ -2846,10 +2852,10 @@
       <c r="J100" s="10"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="49">
+      <c r="A101" s="44">
         <v>8</v>
       </c>
-      <c r="B101" s="59" t="s">
+      <c r="B101" s="46" t="s">
         <v>18</v>
       </c>
       <c r="C101" s="39">
@@ -3032,16 +3038,16 @@
     <row r="110" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="45"/>
       <c r="B110" s="45"/>
-      <c r="C110" s="33">
+      <c r="C110" s="39">
         <v>44032</v>
       </c>
-      <c r="D110" s="33">
+      <c r="D110" s="39">
         <v>44033</v>
       </c>
-      <c r="E110" s="3">
+      <c r="E110" s="41">
         <v>5</v>
       </c>
-      <c r="F110" s="11" t="s">
+      <c r="F110" s="67" t="s">
         <v>8</v>
       </c>
       <c r="G110" s="16"/>
@@ -3052,16 +3058,16 @@
     <row r="111" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="45"/>
       <c r="B111" s="45"/>
-      <c r="C111" s="33">
+      <c r="C111" s="39">
         <v>44034</v>
       </c>
-      <c r="D111" s="33">
+      <c r="D111" s="39">
         <v>44035</v>
       </c>
-      <c r="E111" s="3">
+      <c r="E111" s="41">
         <v>5</v>
       </c>
-      <c r="F111" s="13" t="s">
+      <c r="F111" s="68" t="s">
         <v>9</v>
       </c>
       <c r="G111" s="16"/>
@@ -3111,7 +3117,7 @@
     </row>
     <row r="114" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="45"/>
-      <c r="B114" s="55"/>
+      <c r="B114" s="47"/>
       <c r="C114" s="33">
         <v>44040</v>
       </c>
@@ -3130,10 +3136,10 @@
       <c r="J114" s="22"/>
     </row>
     <row r="115" spans="1:10" ht="25.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="44">
+      <c r="A115" s="53">
         <v>9</v>
       </c>
-      <c r="B115" s="61" t="s">
+      <c r="B115" s="55" t="s">
         <v>19</v>
       </c>
       <c r="C115" s="33">
@@ -3155,7 +3161,7 @@
     </row>
     <row r="116" spans="1:10" ht="18.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="45"/>
-      <c r="B116" s="62"/>
+      <c r="B116" s="51"/>
       <c r="C116" s="33">
         <v>44018</v>
       </c>
@@ -3175,7 +3181,7 @@
     </row>
     <row r="117" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="45"/>
-      <c r="B117" s="62"/>
+      <c r="B117" s="51"/>
       <c r="C117" s="33">
         <v>44019</v>
       </c>
@@ -3195,7 +3201,7 @@
     </row>
     <row r="118" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="45"/>
-      <c r="B118" s="62"/>
+      <c r="B118" s="51"/>
       <c r="C118" s="33">
         <v>44020</v>
       </c>
@@ -3215,7 +3221,7 @@
     </row>
     <row r="119" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="45"/>
-      <c r="B119" s="62"/>
+      <c r="B119" s="51"/>
       <c r="C119" s="33">
         <v>44022</v>
       </c>
@@ -3235,7 +3241,7 @@
     </row>
     <row r="120" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="45"/>
-      <c r="B120" s="62"/>
+      <c r="B120" s="51"/>
       <c r="C120" s="33">
         <v>44024</v>
       </c>
@@ -3255,7 +3261,7 @@
     </row>
     <row r="121" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="45"/>
-      <c r="B121" s="62"/>
+      <c r="B121" s="51"/>
       <c r="C121" s="33">
         <v>44026</v>
       </c>
@@ -3275,7 +3281,7 @@
     </row>
     <row r="122" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="45"/>
-      <c r="B122" s="62"/>
+      <c r="B122" s="51"/>
       <c r="C122" s="33">
         <v>44028</v>
       </c>
@@ -3295,7 +3301,7 @@
     </row>
     <row r="123" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="45"/>
-      <c r="B123" s="62"/>
+      <c r="B123" s="51"/>
       <c r="C123" s="33">
         <v>44030</v>
       </c>
@@ -3315,7 +3321,7 @@
     </row>
     <row r="124" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="45"/>
-      <c r="B124" s="62"/>
+      <c r="B124" s="51"/>
       <c r="C124" s="33">
         <v>44032</v>
       </c>
@@ -3335,7 +3341,7 @@
     </row>
     <row r="125" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="45"/>
-      <c r="B125" s="62"/>
+      <c r="B125" s="51"/>
       <c r="C125" s="33">
         <v>44034</v>
       </c>
@@ -3355,7 +3361,7 @@
     </row>
     <row r="126" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="45"/>
-      <c r="B126" s="62"/>
+      <c r="B126" s="51"/>
       <c r="C126" s="33">
         <v>44036</v>
       </c>
@@ -3375,7 +3381,7 @@
     </row>
     <row r="127" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="45"/>
-      <c r="B127" s="62"/>
+      <c r="B127" s="51"/>
       <c r="C127" s="33">
         <v>44038</v>
       </c>
@@ -3395,7 +3401,7 @@
     </row>
     <row r="128" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="45"/>
-      <c r="B128" s="63"/>
+      <c r="B128" s="52"/>
       <c r="C128" s="33">
         <v>44040</v>
       </c>
@@ -3414,10 +3420,10 @@
       <c r="J128" s="10"/>
     </row>
     <row r="129" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="49">
+      <c r="A129" s="44">
         <v>10</v>
       </c>
-      <c r="B129" s="59" t="s">
+      <c r="B129" s="46" t="s">
         <v>20</v>
       </c>
       <c r="C129" s="33">
@@ -3679,7 +3685,7 @@
     </row>
     <row r="142" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="45"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="47"/>
       <c r="C142" s="33">
         <v>44040</v>
       </c>
@@ -3698,10 +3704,10 @@
       <c r="J142" s="22"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="44">
+      <c r="A143" s="53">
         <v>11</v>
       </c>
-      <c r="B143" s="60" t="s">
+      <c r="B143" s="54" t="s">
         <v>21</v>
       </c>
       <c r="C143" s="33">
@@ -3950,7 +3956,7 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="45"/>
-      <c r="B156" s="55"/>
+      <c r="B156" s="47"/>
       <c r="C156" s="33">
         <v>44040</v>
       </c>
@@ -3968,10 +3974,10 @@
       <c r="I156" s="9"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="49">
+      <c r="A157" s="44">
         <v>12</v>
       </c>
-      <c r="B157" s="59" t="s">
+      <c r="B157" s="46" t="s">
         <v>22</v>
       </c>
       <c r="C157" s="33">
@@ -4233,7 +4239,7 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="45"/>
-      <c r="B170" s="55"/>
+      <c r="B170" s="47"/>
       <c r="C170" s="33">
         <v>44040</v>
       </c>
@@ -4252,10 +4258,10 @@
       <c r="J170" s="22"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44">
+      <c r="A171" s="53">
         <v>13</v>
       </c>
-      <c r="B171" s="60" t="s">
+      <c r="B171" s="54" t="s">
         <v>23</v>
       </c>
       <c r="C171" s="33">
@@ -4504,7 +4510,7 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="45"/>
-      <c r="B184" s="55"/>
+      <c r="B184" s="47"/>
       <c r="C184" s="33">
         <v>44040</v>
       </c>
@@ -4522,10 +4528,10 @@
       <c r="I184" s="12"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="49">
+      <c r="A185" s="44">
         <v>14</v>
       </c>
-      <c r="B185" s="59" t="s">
+      <c r="B185" s="46" t="s">
         <v>24</v>
       </c>
       <c r="C185" s="33">
@@ -4787,7 +4793,7 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="45"/>
-      <c r="B198" s="55"/>
+      <c r="B198" s="47"/>
       <c r="C198" s="33">
         <v>44040</v>
       </c>
@@ -4806,10 +4812,10 @@
       <c r="J198" s="22"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="44">
+      <c r="A199" s="53">
         <v>15</v>
       </c>
-      <c r="B199" s="60" t="s">
+      <c r="B199" s="54" t="s">
         <v>25</v>
       </c>
       <c r="C199" s="33">
@@ -5058,7 +5064,7 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="45"/>
-      <c r="B212" s="55"/>
+      <c r="B212" s="47"/>
       <c r="C212" s="33">
         <v>44040</v>
       </c>
@@ -5076,10 +5082,10 @@
       <c r="I212" s="12"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="49">
+      <c r="A213" s="44">
         <v>16</v>
       </c>
-      <c r="B213" s="59" t="s">
+      <c r="B213" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C213" s="33">
@@ -5341,7 +5347,7 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="45"/>
-      <c r="B226" s="55"/>
+      <c r="B226" s="47"/>
       <c r="C226" s="33">
         <v>44040</v>
       </c>
@@ -5360,10 +5366,10 @@
       <c r="J226" s="22"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="44">
+      <c r="A227" s="53">
         <v>17</v>
       </c>
-      <c r="B227" s="60" t="s">
+      <c r="B227" s="54" t="s">
         <v>27</v>
       </c>
       <c r="C227" s="33">
@@ -5612,7 +5618,7 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="45"/>
-      <c r="B240" s="55"/>
+      <c r="B240" s="47"/>
       <c r="C240" s="33">
         <v>44040</v>
       </c>
@@ -5630,10 +5636,10 @@
       <c r="I240" s="12"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="49">
+      <c r="A241" s="44">
         <v>18</v>
       </c>
-      <c r="B241" s="59" t="s">
+      <c r="B241" s="46" t="s">
         <v>28</v>
       </c>
       <c r="C241" s="33">
@@ -5895,7 +5901,7 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="45"/>
-      <c r="B254" s="55"/>
+      <c r="B254" s="47"/>
       <c r="C254" s="33">
         <v>44040</v>
       </c>
@@ -5914,10 +5920,10 @@
       <c r="J254" s="22"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="64">
+      <c r="A255" s="48">
         <v>19</v>
       </c>
-      <c r="B255" s="66" t="s">
+      <c r="B255" s="50" t="s">
         <v>29</v>
       </c>
       <c r="C255" s="33">
@@ -5937,8 +5943,8 @@
       <c r="I255" s="29"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="65"/>
-      <c r="B256" s="62"/>
+      <c r="A256" s="49"/>
+      <c r="B256" s="51"/>
       <c r="C256" s="33">
         <v>44018</v>
       </c>
@@ -5956,8 +5962,8 @@
       <c r="I256" s="7"/>
     </row>
     <row r="257" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="65"/>
-      <c r="B257" s="62"/>
+      <c r="A257" s="49"/>
+      <c r="B257" s="51"/>
       <c r="C257" s="33">
         <v>44019</v>
       </c>
@@ -5975,8 +5981,8 @@
       <c r="I257" s="7"/>
     </row>
     <row r="258" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="65"/>
-      <c r="B258" s="62"/>
+      <c r="A258" s="49"/>
+      <c r="B258" s="51"/>
       <c r="C258" s="33">
         <v>44020</v>
       </c>
@@ -5994,8 +6000,8 @@
       <c r="I258" s="7"/>
     </row>
     <row r="259" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="65"/>
-      <c r="B259" s="62"/>
+      <c r="A259" s="49"/>
+      <c r="B259" s="51"/>
       <c r="C259" s="33">
         <v>44022</v>
       </c>
@@ -6013,8 +6019,8 @@
       <c r="I259" s="7"/>
     </row>
     <row r="260" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A260" s="65"/>
-      <c r="B260" s="62"/>
+      <c r="A260" s="49"/>
+      <c r="B260" s="51"/>
       <c r="C260" s="33">
         <v>44024</v>
       </c>
@@ -6032,8 +6038,8 @@
       <c r="I260" s="7"/>
     </row>
     <row r="261" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="65"/>
-      <c r="B261" s="62"/>
+      <c r="A261" s="49"/>
+      <c r="B261" s="51"/>
       <c r="C261" s="33">
         <v>44026</v>
       </c>
@@ -6051,8 +6057,8 @@
       <c r="I261" s="7"/>
     </row>
     <row r="262" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A262" s="65"/>
-      <c r="B262" s="62"/>
+      <c r="A262" s="49"/>
+      <c r="B262" s="51"/>
       <c r="C262" s="33">
         <v>44028</v>
       </c>
@@ -6070,8 +6076,8 @@
       <c r="I262" s="7"/>
     </row>
     <row r="263" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="65"/>
-      <c r="B263" s="62"/>
+      <c r="A263" s="49"/>
+      <c r="B263" s="51"/>
       <c r="C263" s="33">
         <v>44030</v>
       </c>
@@ -6089,8 +6095,8 @@
       <c r="I263" s="9"/>
     </row>
     <row r="264" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="65"/>
-      <c r="B264" s="62"/>
+      <c r="A264" s="49"/>
+      <c r="B264" s="51"/>
       <c r="C264" s="33">
         <v>44032</v>
       </c>
@@ -6108,8 +6114,8 @@
       <c r="I264" s="12"/>
     </row>
     <row r="265" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="65"/>
-      <c r="B265" s="62"/>
+      <c r="A265" s="49"/>
+      <c r="B265" s="51"/>
       <c r="C265" s="33">
         <v>44034</v>
       </c>
@@ -6127,8 +6133,8 @@
       <c r="I265" s="12"/>
     </row>
     <row r="266" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="65"/>
-      <c r="B266" s="62"/>
+      <c r="A266" s="49"/>
+      <c r="B266" s="51"/>
       <c r="C266" s="33">
         <v>44036</v>
       </c>
@@ -6146,8 +6152,8 @@
       <c r="I266" s="12"/>
     </row>
     <row r="267" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="65"/>
-      <c r="B267" s="62"/>
+      <c r="A267" s="49"/>
+      <c r="B267" s="51"/>
       <c r="C267" s="33">
         <v>44038</v>
       </c>
@@ -6165,8 +6171,8 @@
       <c r="I267" s="12"/>
     </row>
     <row r="268" spans="1:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="65"/>
-      <c r="B268" s="63"/>
+      <c r="A268" s="49"/>
+      <c r="B268" s="52"/>
       <c r="C268" s="33">
         <v>44040</v>
       </c>
@@ -6456,6 +6462,43 @@
     <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A3:A16"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="A17:A30"/>
+    <mergeCell ref="B17:B30"/>
+    <mergeCell ref="A31:A44"/>
+    <mergeCell ref="B31:B44"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="B45:B58"/>
+    <mergeCell ref="A45:A58"/>
+    <mergeCell ref="A59:A72"/>
+    <mergeCell ref="A73:A86"/>
+    <mergeCell ref="A87:A100"/>
+    <mergeCell ref="A101:A114"/>
+    <mergeCell ref="A115:A128"/>
+    <mergeCell ref="A129:A142"/>
+    <mergeCell ref="B59:B72"/>
+    <mergeCell ref="B73:B86"/>
+    <mergeCell ref="B87:B100"/>
+    <mergeCell ref="B101:B114"/>
+    <mergeCell ref="B115:B128"/>
+    <mergeCell ref="B129:B142"/>
+    <mergeCell ref="B143:B156"/>
+    <mergeCell ref="A143:A156"/>
+    <mergeCell ref="A157:A170"/>
+    <mergeCell ref="A171:A184"/>
+    <mergeCell ref="A185:A198"/>
+    <mergeCell ref="B185:B198"/>
+    <mergeCell ref="B157:B170"/>
+    <mergeCell ref="B171:B184"/>
     <mergeCell ref="A241:A254"/>
     <mergeCell ref="B241:B254"/>
     <mergeCell ref="A255:A268"/>
@@ -6466,43 +6509,6 @@
     <mergeCell ref="B213:B226"/>
     <mergeCell ref="A227:A240"/>
     <mergeCell ref="B227:B240"/>
-    <mergeCell ref="B143:B156"/>
-    <mergeCell ref="A143:A156"/>
-    <mergeCell ref="A157:A170"/>
-    <mergeCell ref="A171:A184"/>
-    <mergeCell ref="A185:A198"/>
-    <mergeCell ref="B185:B198"/>
-    <mergeCell ref="B157:B170"/>
-    <mergeCell ref="B171:B184"/>
-    <mergeCell ref="A101:A114"/>
-    <mergeCell ref="A115:A128"/>
-    <mergeCell ref="A129:A142"/>
-    <mergeCell ref="B59:B72"/>
-    <mergeCell ref="B73:B86"/>
-    <mergeCell ref="B87:B100"/>
-    <mergeCell ref="B101:B114"/>
-    <mergeCell ref="B115:B128"/>
-    <mergeCell ref="B129:B142"/>
-    <mergeCell ref="B45:B58"/>
-    <mergeCell ref="A45:A58"/>
-    <mergeCell ref="A59:A72"/>
-    <mergeCell ref="A73:A86"/>
-    <mergeCell ref="A87:A100"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="A3:A16"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="A17:A30"/>
-    <mergeCell ref="B17:B30"/>
-    <mergeCell ref="A31:A44"/>
-    <mergeCell ref="B31:B44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
